--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35828-2024</t>
+          <t>A 7365-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45532.67104166667</v>
+        <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,22 +778,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -802,142 +802,142 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 35828-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45532.67104166667</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Svinrot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 35828-2024 artfynd.xlsx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 35828-2024 karta.png", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 35828-2024 FSC-klagomål.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 35828-2024 FSC-klagomål mail.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 35828-2024 tillsynsbegäran.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 35828-2024 tillsynsbegäran mail.docx", "A 35828-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 7365-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44971</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 56244-2022</t>
+          <t>A 45507-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44890</v>
+        <v>45578</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -949,13 +949,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -967,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -979,657 +974,662 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 31093-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45832.5953125</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 56244-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 15498-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 15498-2024 artfynd.xlsx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 15498-2024 karta.png", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 15498-2024 karta knärot.png", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 15498-2024 FSC-klagomål.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 15498-2024 FSC-klagomål mail.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 15498-2024 tillsynsbegäran.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 15498-2024 tillsynsbegäran mail.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 16446-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45751.50320601852</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Dvärghäxört</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 17410-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45414.89228009259</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Mörk husmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 13882-2023</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45007</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>2.4</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 17410-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45414.89228009259</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 44654-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Mörk husmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 16446-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45751.50320601852</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Dvärghäxört</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 45507-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45578</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 44654-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 44654-2023 artfynd.xlsx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 44654-2023 karta.png", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 44654-2023 FSC-klagomål.docx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 44654-2023 FSC-klagomål mail.docx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 44654-2023 tillsynsbegäran.docx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 44654-2023 tillsynsbegäran mail.docx", "A 44654-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 31093-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45832.5953125</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 15498-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 15498-2024 artfynd.xlsx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 15498-2024 karta.png", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 15498-2024 karta knärot.png", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 15498-2024 FSC-klagomål.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 15498-2024 FSC-klagomål mail.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 15498-2024 tillsynsbegäran.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 15498-2024 tillsynsbegäran mail.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44238</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44340.69202546297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44476</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44476.84085648148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44516</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44873</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44456</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44476.83903935185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44433.46096064815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44469.44841435185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44412.36203703703</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44483</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44340.68202546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44620</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44854</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2959,14 +2959,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 7654-2022</t>
+          <t>A 13095-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44607</v>
+        <v>44272</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3016,14 +3016,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 13095-2021</t>
+          <t>A 7654-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44272</v>
+        <v>44607</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44707.73799768519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3415,14 +3415,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 37131-2025</t>
+          <t>A 14230-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45875.54335648148</v>
+        <v>45393</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 37133-2025</t>
+          <t>A 35245-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45875.54409722222</v>
+        <v>45145.88599537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 16467-2025</t>
+          <t>A 3837-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45751.54304398148</v>
+        <v>45682.66153935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37427-2025</t>
+          <t>A 37797-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45877.49123842592</v>
+        <v>45543.54533564814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37424-2025</t>
+          <t>A 37798-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45877.4903125</v>
+        <v>45543.54836805556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7278-2025</t>
+          <t>A 21687-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45702.63168981481</v>
+        <v>44707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16573-2025</t>
+          <t>A 28791-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45752</v>
+        <v>45478.613125</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>9.6</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40960-2023</t>
+          <t>A 71048-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45169</v>
+        <v>44538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3871,14 +3871,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 57423-2023</t>
+          <t>A 6210-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45246.22380787037</v>
+        <v>44964.80734953703</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3928,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 15189-2023</t>
+          <t>A 6212-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45016.70493055556</v>
+        <v>44964.81168981481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3985,14 +3985,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 16813-2025</t>
+          <t>A 49734-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45754.63344907408</v>
+        <v>45596.84884259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 50297-2022</t>
+          <t>A 33875-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44865.92474537037</v>
+        <v>45521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4099,14 +4099,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39590-2025</t>
+          <t>A 39988-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45890.52939814814</v>
+        <v>45553.62432870371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16567-2025</t>
+          <t>A 24566-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45752.46074074074</v>
+        <v>45083.51130787037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>13.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4213,14 +4213,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16568-2025</t>
+          <t>A 59503-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45752.46453703703</v>
+        <v>45638.55125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16570-2025</t>
+          <t>A 24440-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45752.47210648148</v>
+        <v>45797.82753472222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30641-2024</t>
+          <t>A 12423-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45495.57349537037</v>
+        <v>45730.45483796296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10742-2025</t>
+          <t>A 14033-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45722.41454861111</v>
+        <v>45740.36262731482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2495-2024</t>
+          <t>A 24439-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45313</v>
+        <v>45797.82457175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11227-2025</t>
+          <t>A 6690-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45726.34702546296</v>
+        <v>44966</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16449-2025</t>
+          <t>A 14029-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45751.5106712963</v>
+        <v>45740.35556712963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39353-2022</t>
+          <t>A 16821-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44817</v>
+        <v>45754.64318287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7268-2025</t>
+          <t>A 40157-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45702.60103009259</v>
+        <v>45169.36275462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4355-2023</t>
+          <t>A 35113-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44954.598125</v>
+        <v>45529.83986111111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42155-2025</t>
+          <t>A 7817-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45904.40079861111</v>
+        <v>45349</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,13 +4802,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>8.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4845,14 +4840,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 46006-2022</t>
+          <t>A 25863-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44846</v>
+        <v>45804.47696759259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4865,7 +4860,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4902,14 +4897,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58356-2025</t>
+          <t>A 16467-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45985.5115162037</v>
+        <v>45751.54304398148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4922,7 +4917,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4959,14 +4954,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42872-2022</t>
+          <t>A 26397-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44832</v>
+        <v>45807</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4979,7 +4974,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5016,14 +5011,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23787-2024</t>
+          <t>A 16813-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45455.42315972222</v>
+        <v>45754.63344907408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5036,7 +5031,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5073,14 +5068,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43134-2025</t>
+          <t>A 4438-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45909.83324074074</v>
+        <v>45686.51674768519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5093,7 +5088,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5130,14 +5125,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 1394-2026</t>
+          <t>A 39590-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46031.63753472222</v>
+        <v>45890.52939814814</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5150,7 +5145,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5187,14 +5182,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57025-2022</t>
+          <t>A 27414-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44895</v>
+        <v>45812.84578703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5207,7 +5202,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5244,14 +5239,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1384-2026</t>
+          <t>A 27413-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46031.62291666667</v>
+        <v>45812.84489583333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5264,7 +5259,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5301,14 +5296,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 6210-2023</t>
+          <t>A 11227-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44964.80734953703</v>
+        <v>45726.34702546296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5321,7 +5316,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5358,14 +5353,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6212-2023</t>
+          <t>A 30641-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44964.81168981481</v>
+        <v>45495.57349537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5378,7 +5373,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5415,14 +5410,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 6214-2023</t>
+          <t>A 27549-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44964.81380787037</v>
+        <v>44742.8079050926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5435,7 +5430,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5472,14 +5467,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 1400-2026</t>
+          <t>A 16569-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46031.6427662037</v>
+        <v>45752.46914351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5492,7 +5487,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>10.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5529,14 +5524,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1347-2026</t>
+          <t>A 28940-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46031.59274305555</v>
+        <v>45820</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5549,7 +5544,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>7.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5586,14 +5581,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52385-2022</t>
+          <t>A 28941-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44869</v>
+        <v>45820</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5606,7 +5601,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>10.9</v>
+        <v>2.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5643,14 +5638,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26757-2024</t>
+          <t>A 28942-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45469</v>
+        <v>45820</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5663,7 +5658,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5700,14 +5695,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35113-2024</t>
+          <t>A 5832-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45529.83986111111</v>
+        <v>45694.84364583333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5720,7 +5715,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5757,14 +5752,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39988-2024</t>
+          <t>A 7278-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45553.62432870371</v>
+        <v>45702.63168981481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5777,7 +5772,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5814,14 +5809,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56145-2022</t>
+          <t>A 42155-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44889</v>
+        <v>45904.40079861111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,8 +5828,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>14.1</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5871,14 +5871,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1221-2026</t>
+          <t>A 43134-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46031.4018287037</v>
+        <v>45909.83324074074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,13 +5890,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5933,14 +5928,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14230-2024</t>
+          <t>A 19107-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45393</v>
+        <v>45048.45601851852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5953,7 +5948,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5990,14 +5985,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11117-2023</t>
+          <t>A 6196-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44992.45543981482</v>
+        <v>44964.73979166667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6010,7 +6005,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6047,14 +6042,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46533-2025</t>
+          <t>A 6208-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45926.34030092593</v>
+        <v>44964.8028587963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6067,7 +6062,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6104,14 +6099,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46539-2025</t>
+          <t>A 58378-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45926.34392361111</v>
+        <v>45632.81232638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6124,7 +6119,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6161,14 +6156,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33875-2024</t>
+          <t>A 32099-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45521</v>
+        <v>45835.46706018518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6181,7 +6176,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6218,14 +6213,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 6196-2023</t>
+          <t>A 46536-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44964.73979166667</v>
+        <v>45926.34168981481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6238,7 +6233,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6275,14 +6270,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46536-2025</t>
+          <t>A 46539-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45926.34168981481</v>
+        <v>45926.34392361111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6295,7 +6290,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6332,14 +6327,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46848-2025</t>
+          <t>A 46533-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45928.71738425926</v>
+        <v>45926.34030092593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6352,7 +6347,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6389,14 +6384,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3775-2024</t>
+          <t>A 49733-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45321</v>
+        <v>45596.84603009259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6409,7 +6404,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>15.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6446,14 +6441,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57500-2022</t>
+          <t>A 46848-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44896.63857638889</v>
+        <v>45928.71738425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6466,7 +6461,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6503,14 +6498,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14226-2024</t>
+          <t>A 39990-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45393</v>
+        <v>45553.62622685185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6523,7 +6518,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6560,14 +6555,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48096-2025</t>
+          <t>A 14226-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45933.30746527778</v>
+        <v>45393</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6580,7 +6575,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6617,14 +6612,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 48095-2025</t>
+          <t>A 55293-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45933.30634259259</v>
+        <v>45621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6637,7 +6632,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6674,14 +6669,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1794-2023</t>
+          <t>A 55295-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44938.6234837963</v>
+        <v>45621</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6694,7 +6689,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6731,14 +6726,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49024-2025</t>
+          <t>A 55296-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45937.61747685185</v>
+        <v>45621</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6751,7 +6746,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6788,14 +6783,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35245-2023</t>
+          <t>A 32856-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45145.88599537037</v>
+        <v>45839.57771990741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6808,7 +6803,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6845,14 +6840,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7821-2024</t>
+          <t>A 48096-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45349</v>
+        <v>45933.30746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6865,7 +6860,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6902,14 +6897,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 7823-2024</t>
+          <t>A 48095-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45349</v>
+        <v>45933.30634259259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6922,7 +6917,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6959,14 +6954,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49025-2025</t>
+          <t>A 57500-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45937.61915509259</v>
+        <v>44896.63857638889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6979,7 +6974,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7023,7 +7018,7 @@
         <v>45937</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7073,14 +7068,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 49779-2025</t>
+          <t>A 2642-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45940.386875</v>
+        <v>45676.46021990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7093,7 +7088,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7130,14 +7125,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16349-2022</t>
+          <t>A 49024-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44670</v>
+        <v>45937.61747685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7150,7 +7145,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7187,14 +7182,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 39990-2024</t>
+          <t>A 49025-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45553.62622685185</v>
+        <v>45937.61915509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7207,7 +7202,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7244,14 +7239,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 62586-2025</t>
+          <t>A 20671-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46007.84753472222</v>
+        <v>44700.65571759259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7264,7 +7259,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7301,14 +7296,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 14743-2022</t>
+          <t>A 49779-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44656.37567129629</v>
+        <v>45940.386875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7321,7 +7316,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7358,14 +7353,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 14748-2022</t>
+          <t>A 6222-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44656</v>
+        <v>45337.64701388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7378,7 +7373,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7415,14 +7410,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62956-2025</t>
+          <t>A 7821-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46009</v>
+        <v>45349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7435,7 +7430,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7472,14 +7467,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62232-2022</t>
+          <t>A 7823-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44922</v>
+        <v>45349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7492,7 +7487,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7529,14 +7524,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 52321-2025</t>
+          <t>A 22270-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45953.66415509259</v>
+        <v>45446</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7549,7 +7544,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7586,14 +7581,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 63613-2025</t>
+          <t>A 52321-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46014.34581018519</v>
+        <v>45953.66415509259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7606,7 +7601,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7643,14 +7638,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15707-2025</t>
+          <t>A 6194-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45748.49090277778</v>
+        <v>44964</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7663,7 +7658,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7700,14 +7695,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 21687-2022</t>
+          <t>A 6214-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44707</v>
+        <v>44964.81380787037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7720,7 +7715,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7757,14 +7752,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 49733-2024</t>
+          <t>A 49925-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45596.84603009259</v>
+        <v>45214.86449074074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7777,7 +7772,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>15.1</v>
+        <v>0.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7821,7 +7816,7 @@
         <v>45959</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7871,14 +7866,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58712-2023</t>
+          <t>A 37131-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45251</v>
+        <v>45875.54335648148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7891,7 +7886,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7928,14 +7923,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 12273-2023</t>
+          <t>A 37133-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44998</v>
+        <v>45875.54409722222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7948,7 +7943,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7985,14 +7980,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 1489-2024</t>
+          <t>A 37427-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45305</v>
+        <v>45877.49123842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8005,7 +8000,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8042,14 +8037,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55693-2025</t>
+          <t>A 28605-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45972.43956018519</v>
+        <v>45103.5830787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8062,7 +8057,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8099,14 +8094,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 59503-2024</t>
+          <t>A 37424-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45638.55125</v>
+        <v>45877.4903125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8119,7 +8114,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8156,14 +8151,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8371-2023</t>
+          <t>A 35244-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44977.385625</v>
+        <v>45145.88350694445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8176,7 +8171,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8213,14 +8208,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 56310-2025</t>
+          <t>A 17007-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45974.62328703704</v>
+        <v>45755.54241898148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8233,7 +8228,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8270,14 +8265,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56373-2025</t>
+          <t>A 17011-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45974.68520833334</v>
+        <v>45755.54761574074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8285,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8327,14 +8322,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 19107-2023</t>
+          <t>A 16567-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45048.45601851852</v>
+        <v>45752.46074074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8342,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8384,14 +8379,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 8020-2025</t>
+          <t>A 16568-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45707.569375</v>
+        <v>45752.46453703703</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8399,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8441,14 +8436,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 59349-2024</t>
+          <t>A 16570-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45638.2815162037</v>
+        <v>45752.47210648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8456,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8498,14 +8493,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 15489-2024</t>
+          <t>A 55693-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45401</v>
+        <v>45972.43956018519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8513,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8555,14 +8550,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47860-2023</t>
+          <t>A 56310-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45204</v>
+        <v>45974.62328703704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8570,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8612,14 +8607,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 49734-2024</t>
+          <t>A 46901-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45596.84884259259</v>
+        <v>45201</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8627,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8669,14 +8664,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 58378-2024</t>
+          <t>A 56373-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45632.81232638889</v>
+        <v>45974.68520833334</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8684,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8726,14 +8721,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37797-2024</t>
+          <t>A 10207-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45543.54533564814</v>
+        <v>45719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8741,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.8</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8783,14 +8778,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 37798-2024</t>
+          <t>A 40960-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45543.54836805556</v>
+        <v>45169</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8798,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8840,14 +8835,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 16571-2025</t>
+          <t>A 59349-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45752.47685185185</v>
+        <v>45638.2815162037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8855,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8897,14 +8892,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 5832-2025</t>
+          <t>A 8371-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45694.84364583333</v>
+        <v>44977.385625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8912,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8954,14 +8949,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 57195-2024</t>
+          <t>A 58356-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45629.47</v>
+        <v>45985.5115162037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8973,13 +8968,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9016,14 +9006,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 10207-2025</t>
+          <t>A 16573-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45719</v>
+        <v>45752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9036,7 +9026,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.3</v>
+        <v>9.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9073,14 +9063,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35244-2023</t>
+          <t>A 11075-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45145.88350694445</v>
+        <v>44260</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9093,7 +9083,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9130,14 +9120,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55293-2024</t>
+          <t>A 8020-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45621</v>
+        <v>45707.569375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9150,7 +9140,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9187,14 +9177,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 7817-2024</t>
+          <t>A 46006-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45349</v>
+        <v>44846</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9207,7 +9197,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>8.9</v>
+        <v>3.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9244,14 +9234,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 46901-2023</t>
+          <t>A 1347-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45201</v>
+        <v>46031.59274305555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9264,7 +9254,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9301,14 +9291,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 40661-2023</t>
+          <t>A 16350-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45170</v>
+        <v>44670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9321,7 +9311,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9358,14 +9348,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 11282-2024</t>
+          <t>A 1400-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45371.72210648148</v>
+        <v>46031.6427662037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9378,7 +9368,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9415,14 +9405,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 3837-2025</t>
+          <t>A 1384-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45682.66153935185</v>
+        <v>46031.62291666667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9435,7 +9425,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9472,14 +9462,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 12420-2025</t>
+          <t>A 1394-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45730.45248842592</v>
+        <v>46031.63753472222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9492,7 +9482,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9529,14 +9519,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 2293-2025</t>
+          <t>A 2495-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45673.59221064814</v>
+        <v>45313</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9549,7 +9539,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9586,14 +9576,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2294-2025</t>
+          <t>A 59332-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45673.59290509259</v>
+        <v>45637.79350694444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9606,7 +9596,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9643,14 +9633,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 40157-2023</t>
+          <t>A 9892-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45169.36275462963</v>
+        <v>45716.70597222223</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9663,7 +9653,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9700,14 +9690,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 4438-2025</t>
+          <t>A 23787-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45686.51674768519</v>
+        <v>45455.42315972222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9720,7 +9710,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9757,14 +9747,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14742-2022</t>
+          <t>A 10206-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44656</v>
+        <v>45719</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9777,7 +9767,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9814,14 +9804,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 16465-2025</t>
+          <t>A 16449-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45751.53894675926</v>
+        <v>45751.5106712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9834,7 +9824,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9871,14 +9861,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 14745-2022</t>
+          <t>A 1221-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44656</v>
+        <v>46031.4018287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9890,8 +9880,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9928,14 +9923,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 49925-2023</t>
+          <t>A 11515-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45214.86449074074</v>
+        <v>45372.77957175926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9947,8 +9942,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>0.3</v>
+        <v>7.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9985,14 +9985,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59332-2024</t>
+          <t>A 62586-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45637.79350694444</v>
+        <v>46007.84753472222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10042,14 +10042,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 24566-2023</t>
+          <t>A 62956-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45083.51130787037</v>
+        <v>46009</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>13.1</v>
+        <v>7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10099,14 +10099,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 16350-2022</t>
+          <t>A 14064-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44670</v>
+        <v>45740.41469907408</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10156,14 +10156,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 14064-2025</t>
+          <t>A 7181-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45740.41469907408</v>
+        <v>44970</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10175,8 +10175,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10209,18 +10214,38 @@
         <v>0</v>
       </c>
       <c r="R163" s="2" t="inlineStr"/>
+      <c r="U163">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="V163">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="W163">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="X163">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="Y163">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 16572-2025</t>
+          <t>A 4355-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45752.48247685185</v>
+        <v>44954.598125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10233,7 +10258,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10270,14 +10295,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 16569-2025</t>
+          <t>A 22110-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45752.46914351852</v>
+        <v>44323.6992824074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10290,7 +10315,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>10.5</v>
+        <v>4.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10327,14 +10352,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 6222-2024</t>
+          <t>A 15707-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45337.64701388889</v>
+        <v>45748.49090277778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10347,7 +10372,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10384,14 +10409,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 34914-2022</t>
+          <t>A 63613-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44796</v>
+        <v>46014.34581018519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10441,14 +10466,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 16821-2025</t>
+          <t>A 2497-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45754.64318287037</v>
+        <v>45313</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10461,7 +10486,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10498,14 +10523,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 11515-2024</t>
+          <t>A 12420-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45372.77957175926</v>
+        <v>45730.45248842592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10517,13 +10542,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10560,14 +10580,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 2497-2024</t>
+          <t>A 14743-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45313</v>
+        <v>44656.37567129629</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10580,7 +10600,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10617,14 +10637,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6690-2023</t>
+          <t>A 14748-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44966</v>
+        <v>44656</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10637,7 +10657,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10674,14 +10694,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 28791-2024</t>
+          <t>A 39353-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45478.613125</v>
+        <v>44817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10694,7 +10714,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10731,14 +10751,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 9892-2025</t>
+          <t>A 57025-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45716.70597222223</v>
+        <v>44895</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10751,7 +10771,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10788,14 +10808,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 11281-2024</t>
+          <t>A 23789-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45371.71887731482</v>
+        <v>45455.42549768519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10808,7 +10828,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10845,14 +10865,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 4356-2023</t>
+          <t>A 1489-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44954.60174768518</v>
+        <v>45305</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10865,7 +10885,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10902,14 +10922,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11457-2023</t>
+          <t>A 52385-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44993.58428240741</v>
+        <v>44869</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10922,7 +10942,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>10.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10959,14 +10979,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 6194-2023</t>
+          <t>A 2293-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44964</v>
+        <v>45673.59221064814</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10979,7 +10999,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11016,14 +11036,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 23128-2024</t>
+          <t>A 2294-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45450.61440972222</v>
+        <v>45673.59290509259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11036,7 +11056,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11073,14 +11093,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 7181-2023</t>
+          <t>A 56145-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44970</v>
+        <v>44889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11092,13 +11112,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>14.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11131,38 +11146,18 @@
         <v>0</v>
       </c>
       <c r="R179" s="2" t="inlineStr"/>
-      <c r="U179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="V179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="W179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="X179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="Y179">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 28605-2023</t>
+          <t>A 62232-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45103.5830787037</v>
+        <v>44922</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11175,7 +11170,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11212,14 +11207,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 71048-2021</t>
+          <t>A 57195-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44538</v>
+        <v>45629.47</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11231,8 +11226,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11269,14 +11269,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 11075-2021</t>
+          <t>A 4356-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44260</v>
+        <v>44954.60174768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11326,14 +11326,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6980-2021</t>
+          <t>A 4359-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44237</v>
+        <v>44954.69856481482</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11383,14 +11383,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 51118-2023</t>
+          <t>A 12273-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45219</v>
+        <v>44998</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11440,14 +11440,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 56876-2023</t>
+          <t>A 6980-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45244</v>
+        <v>44237</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11497,14 +11497,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 24568-2023</t>
+          <t>A 50297-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45083.5209837963</v>
+        <v>44865.92474537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,14 +11554,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 23789-2024</t>
+          <t>A 11457-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45455.42549768519</v>
+        <v>44993.58428240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11611,14 +11611,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4359-2023</t>
+          <t>A 56876-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44954.69856481482</v>
+        <v>45244</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11668,14 +11668,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 6208-2023</t>
+          <t>A 7268-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44964.8028587963</v>
+        <v>45702.60103009259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11725,14 +11725,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17007-2025</t>
+          <t>A 24568-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45755.54241898148</v>
+        <v>45083.5209837963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11782,14 +11782,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17011-2025</t>
+          <t>A 1794-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45755.54761574074</v>
+        <v>44938.6234837963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11839,14 +11839,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 22270-2024</t>
+          <t>A 34914-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45446</v>
+        <v>44796</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11896,14 +11896,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 2642-2025</t>
+          <t>A 14742-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45676.46021990741</v>
+        <v>44656</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11953,14 +11953,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 22110-2021</t>
+          <t>A 14745-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44323.6992824074</v>
+        <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12010,14 +12010,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 27549-2022</t>
+          <t>A 26757-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44742.8079050926</v>
+        <v>45469</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12067,14 +12067,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 20671-2022</t>
+          <t>A 42872-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44700.65571759259</v>
+        <v>44832</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12124,14 +12124,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3946-2023</t>
+          <t>A 3775-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44952.37013888889</v>
+        <v>45321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12181,14 +12181,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 55295-2024</t>
+          <t>A 40661-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45621</v>
+        <v>45170</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12238,14 +12238,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 55296-2024</t>
+          <t>A 15489-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45621</v>
+        <v>45401</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12295,14 +12295,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 10206-2025</t>
+          <t>A 11117-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45719</v>
+        <v>44992.45543981482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12352,14 +12352,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 64387-2023</t>
+          <t>A 11282-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45280.58269675926</v>
+        <v>45371.72210648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12409,14 +12409,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 4252-2024</t>
+          <t>A 16465-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45324.48243055555</v>
+        <v>45751.53894675926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12466,14 +12466,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4957-2022</t>
+          <t>A 51118-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44593</v>
+        <v>45219</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12523,14 +12523,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 29527-2024</t>
+          <t>A 3946-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45484.46942129629</v>
+        <v>44952.37013888889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12580,14 +12580,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 6209-2023</t>
+          <t>A 47860-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44964.80540509259</v>
+        <v>45204</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12637,14 +12637,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12423-2025</t>
+          <t>A 23128-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45730.45483796296</v>
+        <v>45450.61440972222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12694,14 +12694,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 14033-2025</t>
+          <t>A 10742-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45740.36262731482</v>
+        <v>45722.41454861111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12751,14 +12751,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 24440-2025</t>
+          <t>A 15189-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45797.82753472222</v>
+        <v>45016.70493055556</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12808,14 +12808,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 24439-2025</t>
+          <t>A 16571-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45797.82457175926</v>
+        <v>45752.47685185185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12865,14 +12865,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 14029-2025</t>
+          <t>A 58712-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45740.35556712963</v>
+        <v>45251</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12922,14 +12922,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 25863-2025</t>
+          <t>A 16349-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45804.47696759259</v>
+        <v>44670</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12979,14 +12979,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 26397-2025</t>
+          <t>A 11281-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45807</v>
+        <v>45371.71887731482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13036,14 +13036,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 27413-2025</t>
+          <t>A 57423-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45812.84489583333</v>
+        <v>45246.22380787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13093,14 +13093,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 27414-2025</t>
+          <t>A 16572-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45812.84578703704</v>
+        <v>45752.48247685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13150,14 +13150,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 28942-2025</t>
+          <t>A 64387-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45820</v>
+        <v>45280.58269675926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13207,14 +13207,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 28940-2025</t>
+          <t>A 4252-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45820</v>
+        <v>45324.48243055555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>7.7</v>
+        <v>1.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13264,14 +13264,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 28941-2025</t>
+          <t>A 4957-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45820</v>
+        <v>44593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13321,14 +13321,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 32099-2025</t>
+          <t>A 29527-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45835.46706018518</v>
+        <v>45484.46942129629</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13378,14 +13378,14 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 32856-2025</t>
+          <t>A 6209-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45839.57771990741</v>
+        <v>44964.80540509259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45532.67104166667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45578</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45832.5953125</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44890</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45401</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45751.50320601852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45414.89228009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45189</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44238</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44340.69202546297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44476</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44476.84085648148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44516</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44873</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44456</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44476.83903935185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44433.46096064815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44469.44841435185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44412.36203703703</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44483</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44340.68202546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44620</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44854</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44272</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44607</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44707.73799768519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45393</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45145.88599537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45682.66153935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45543.54533564814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>45543.54836805556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45478.613125</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44964.80734953703</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44964.81168981481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>45596.84884259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>45521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>45553.62432870371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45083.51130787037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45638.55125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>45797.82753472222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>45730.45483796296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>45740.36262731482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>45797.82457175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44966</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45740.35556712963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45754.64318287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45169.36275462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45529.83986111111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45349</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45804.47696759259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>45751.54304398148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>45807</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>45754.63344907408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>45686.51674768519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>45890.52939814814</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45812.84578703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>45812.84489583333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>45726.34702546296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>45495.57349537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44742.8079050926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>45752.46914351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>45820</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>45820</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>45820</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>45694.84364583333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>45702.63168981481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>45904.40079861111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>45909.83324074074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>45048.45601851852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44964.73979166667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44964.8028587963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>45632.81232638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>45835.46706018518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45926.34168981481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>45926.34392361111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>45926.34030092593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>45596.84603009259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45928.71738425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>45553.62622685185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>45393</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>45621</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45621</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45839.57771990741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>45933.30746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45933.30634259259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44896.63857638889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45937</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45676.46021990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>45937.61747685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45937.61915509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>44700.65571759259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>45940.386875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>45337.64701388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>45349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>45446</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>45953.66415509259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44964</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44964.81380787037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>45214.86449074074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45959</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45875.54335648148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>45875.54409722222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>45877.49123842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45103.5830787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>45877.4903125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>45145.88350694445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45755.54241898148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45755.54761574074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45752.46074074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45752.46453703703</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45752.47210648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45972.43956018519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45974.62328703704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45201</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>45974.68520833334</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>45169</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45638.2815162037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>44977.385625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>45985.5115162037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>44260</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>45707.569375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>44846</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>46031.59274305555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>46031.6427662037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>46031.62291666667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>46031.63753472222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>45313</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>45637.79350694444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45716.70597222223</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>45455.42315972222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45719</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45751.5106712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>46031.4018287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>45372.77957175926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>46007.84753472222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>46009</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45740.41469907408</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44970</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44954.598125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44323.6992824074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45748.49090277778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>46014.34581018519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45313</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>45730.45248842592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44656.37567129629</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44656</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44895</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>45455.42549768519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>45305</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44869</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45673.59221064814</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45673.59290509259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44922</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>45629.47</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44954.60174768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44954.69856481482</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44998</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44237</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44865.92474537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44993.58428240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45244</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45702.60103009259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45083.5209837963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44938.6234837963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44796</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44656</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45469</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44832</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45170</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45401</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44992.45543981482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>45371.72210648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>45751.53894675926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>45219</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44952.37013888889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>45204</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45450.61440972222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>45722.41454861111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>45016.70493055556</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45752.47685185185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>45251</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44670</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45371.71887731482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>45246.22380787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>45752.48247685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>45280.58269675926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>45324.48243055555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>45484.46942129629</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>44964.80540509259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45532.67104166667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45578</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45832.5953125</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44890</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45401</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>45751.50320601852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>45414.89228009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45189</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44238</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44340.69202546297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44476</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44476.84085648148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44516</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44873</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44456</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44476.83903935185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44433.46096064815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44469.44841435185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44412.36203703703</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44483</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44340.68202546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44620</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44854</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44272</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44607</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44707.73799768519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45393</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45145.88599537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45682.66153935185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45543.54533564814</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>45543.54836805556</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45478.613125</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44964.80734953703</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44964.81168981481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>45596.84884259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>45521</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>45553.62432870371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45083.51130787037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45638.55125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>45797.82753472222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>45730.45483796296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>45740.36262731482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>45797.82457175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44966</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45740.35556712963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45754.64318287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45169.36275462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45529.83986111111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45349</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45804.47696759259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>45751.54304398148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>45807</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>45754.63344907408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>45686.51674768519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>45890.52939814814</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45812.84578703704</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>45812.84489583333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>45726.34702546296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>45495.57349537037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44742.8079050926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>45752.46914351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>45820</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>45820</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>45820</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>45694.84364583333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>45702.63168981481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>45904.40079861111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>45909.83324074074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>45048.45601851852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44964.73979166667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44964.8028587963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>45632.81232638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>45835.46706018518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45926.34168981481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>45926.34392361111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>45926.34030092593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>45596.84603009259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45928.71738425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>45553.62622685185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>45393</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45621</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>45621</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45621</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45839.57771990741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>45933.30746527778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45933.30634259259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44896.63857638889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45937</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45676.46021990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>45937.61747685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45937.61915509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>44700.65571759259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>45940.386875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>45337.64701388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>45349</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>45446</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>45953.66415509259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44964</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44964.81380787037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>45214.86449074074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45959</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45875.54335648148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>45875.54409722222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>45877.49123842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45103.5830787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>45877.4903125</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>45145.88350694445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45755.54241898148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45755.54761574074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45752.46074074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>45752.46453703703</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45752.47210648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45972.43956018519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>45974.62328703704</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>45201</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>45974.68520833334</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>45169</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45638.2815162037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>44977.385625</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>45985.5115162037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>44260</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>45707.569375</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>44846</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>46031.59274305555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>46031.6427662037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>46031.62291666667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>46031.63753472222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>45313</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>45637.79350694444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45716.70597222223</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>45455.42315972222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45719</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45751.5106712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>46031.4018287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>45372.77957175926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>46007.84753472222</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>46009</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>45740.41469907408</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>44970</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>44954.598125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>44323.6992824074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45748.49090277778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>46014.34581018519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45313</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>45730.45248842592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44656.37567129629</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44656</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44895</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>45455.42549768519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>45305</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44869</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45673.59221064814</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45673.59290509259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44922</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>45629.47</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44954.60174768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44954.69856481482</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>44998</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44237</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>44865.92474537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44993.58428240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45244</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45702.60103009259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45083.5209837963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44938.6234837963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44796</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44656</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45469</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44832</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45170</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45401</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44992.45543981482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>45371.72210648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>45751.53894675926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>45219</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44952.37013888889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>45204</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45450.61440972222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>45722.41454861111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>45016.70493055556</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45752.47685185185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>45251</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44670</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45371.71887731482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>45246.22380787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>45752.48247685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>45280.58269675926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>45324.48243055555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>45484.46942129629</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>44964.80540509259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 7365-2023</t>
+          <t>A 35828-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44971</v>
+        <v>45532.67104166667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,166 +778,166 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 35828-2024 artfynd.xlsx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 35828-2024 karta.png", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 35828-2024 FSC-klagomål.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 35828-2024 FSC-klagomål mail.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 35828-2024 tillsynsbegäran.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 35828-2024 tillsynsbegäran mail.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 7365-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 35828-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45532.67104166667</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 35828-2024 artfynd.xlsx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 35828-2024 karta.png", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 35828-2024 FSC-klagomål.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 35828-2024 FSC-klagomål mail.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 35828-2024 tillsynsbegäran.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 35828-2024 tillsynsbegäran mail.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 45507-2024</t>
+          <t>A 56244-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45578</v>
+        <v>44890</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -949,8 +949,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -962,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -974,45 +979,41 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
         <v/>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
         <v>45832.5953125</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,14 +1105,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 56244-2022</t>
+          <t>A 15498-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44890</v>
+        <v>45401</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1129,7 +1130,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1141,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1153,55 +1154,59 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 15498-2024 artfynd.xlsx", "A 15498-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 15498-2024 karta.png", "A 15498-2024")</f>
         <v/>
       </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 15498-2024 karta knärot.png", "A 15498-2024")</f>
+        <v/>
+      </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 15498-2024 FSC-klagomål.docx", "A 15498-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 15498-2024 FSC-klagomål mail.docx", "A 15498-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 15498-2024 tillsynsbegäran.docx", "A 15498-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 15498-2024 tillsynsbegäran mail.docx", "A 15498-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 15498-2024</t>
+          <t>A 13882-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45401</v>
+        <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1213,25 +1218,20 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1243,59 +1243,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 15498-2024 artfynd.xlsx", "A 15498-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 15498-2024 karta.png", "A 15498-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 15498-2024 karta knärot.png", "A 15498-2024")</f>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 15498-2024 FSC-klagomål.docx", "A 15498-2024")</f>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 15498-2024 FSC-klagomål mail.docx", "A 15498-2024")</f>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 15498-2024 tillsynsbegäran.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 15498-2024 tillsynsbegäran mail.docx", "A 15498-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 16446-2025</t>
+          <t>A 17410-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45751.50320601852</v>
+        <v>45414.89228009259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1308,7 +1304,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>11.7</v>
+        <v>7.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,130 +1338,130 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Mörk husmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 16446-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45751.50320601852</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Dvärghäxört</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 17410-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45414.89228009259</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mörk husmossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13882-2023</t>
+          <t>A 45507-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45007</v>
+        <v>45578</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,20 +1474,20 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
@@ -1502,41 +1498,45 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
         <v/>
       </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
+        <v/>
+      </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
         <v/>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>45189</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44238</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44340.69202546297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44476</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44476.84085648148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44516</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44873</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44456</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44476.83903935185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44433.46096064815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44469.44841435185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44412.36203703703</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44483</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44340.68202546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44620</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44854</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44272</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44607</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44707.73799768519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3415,14 +3415,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14230-2024</t>
+          <t>A 7278-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45393</v>
+        <v>45702.63168981481</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 35245-2023</t>
+          <t>A 39353-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45145.88599537037</v>
+        <v>44817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3837-2025</t>
+          <t>A 7268-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45682.66153935185</v>
+        <v>45702.60103009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3586,14 +3586,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37797-2024</t>
+          <t>A 46006-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45543.54533564814</v>
+        <v>44846</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 37798-2024</t>
+          <t>A 42872-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45543.54836805556</v>
+        <v>44832</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21687-2022</t>
+          <t>A 23787-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44707</v>
+        <v>45455.42315972222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28791-2024</t>
+          <t>A 57025-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45478.613125</v>
+        <v>44895</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 71048-2021</t>
+          <t>A 52385-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44538</v>
+        <v>44869</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.7</v>
+        <v>10.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>44964.80734953703</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44964.81168981481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3985,14 +3985,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49734-2024</t>
+          <t>A 6214-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45596.84884259259</v>
+        <v>44964.81380787037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33875-2024</t>
+          <t>A 26757-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45521</v>
+        <v>45469</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4099,14 +4099,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39988-2024</t>
+          <t>A 35113-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45553.62432870371</v>
+        <v>45529.83986111111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24566-2023</t>
+          <t>A 39988-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45083.51130787037</v>
+        <v>45553.62432870371</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>13.1</v>
+        <v>6.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4213,14 +4213,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 59503-2024</t>
+          <t>A 6196-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45638.55125</v>
+        <v>44964.73979166667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24440-2025</t>
+          <t>A 56145-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45797.82753472222</v>
+        <v>44889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>14.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12423-2025</t>
+          <t>A 3775-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45730.45483796296</v>
+        <v>45321</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14033-2025</t>
+          <t>A 33875-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45740.36262731482</v>
+        <v>45521</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24439-2025</t>
+          <t>A 57500-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45797.82457175926</v>
+        <v>44896.63857638889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6690-2023</t>
+          <t>A 14226-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44966</v>
+        <v>45393</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14029-2025</t>
+          <t>A 7821-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45740.35556712963</v>
+        <v>45349</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16821-2025</t>
+          <t>A 7823-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45754.64318287037</v>
+        <v>45349</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40157-2023</t>
+          <t>A 28942-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45169.36275462963</v>
+        <v>45820</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35113-2024</t>
+          <t>A 28940-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45529.83986111111</v>
+        <v>45820</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7817-2024</t>
+          <t>A 28941-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45349</v>
+        <v>45820</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.9</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4840,14 +4840,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25863-2025</t>
+          <t>A 16349-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45804.47696759259</v>
+        <v>44670</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16467-2025</t>
+          <t>A 39990-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45751.54304398148</v>
+        <v>45553.62622685185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4954,14 +4954,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 26397-2025</t>
+          <t>A 14743-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45807</v>
+        <v>44656.37567129629</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5011,14 +5011,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 16813-2025</t>
+          <t>A 14748-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45754.63344907408</v>
+        <v>44656</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5068,14 +5068,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4438-2025</t>
+          <t>A 62232-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45686.51674768519</v>
+        <v>44922</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5125,14 +5125,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39590-2025</t>
+          <t>A 21687-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45890.52939814814</v>
+        <v>44707</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27414-2025</t>
+          <t>A 39590-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45812.84578703704</v>
+        <v>45890.52939814814</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27413-2025</t>
+          <t>A 49733-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45812.84489583333</v>
+        <v>45596.84603009259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5296,14 +5296,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11227-2025</t>
+          <t>A 32099-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45726.34702546296</v>
+        <v>45835.46706018518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5353,14 +5353,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30641-2024</t>
+          <t>A 58712-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45495.57349537037</v>
+        <v>45251</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5410,14 +5410,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 27549-2022</t>
+          <t>A 32856-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44742.8079050926</v>
+        <v>45839.57771990741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5467,14 +5467,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16569-2025</t>
+          <t>A 12273-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45752.46914351852</v>
+        <v>44998</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>10.5</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5524,14 +5524,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28940-2025</t>
+          <t>A 11227-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45820</v>
+        <v>45726.34702546296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5581,14 +5581,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28941-2025</t>
+          <t>A 42155-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45820</v>
+        <v>45904.40079861111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,8 +5600,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5638,14 +5643,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 28942-2025</t>
+          <t>A 59503-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45820</v>
+        <v>45638.55125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5658,7 +5663,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5695,14 +5700,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5832-2025</t>
+          <t>A 8371-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45694.84364583333</v>
+        <v>44977.385625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5715,7 +5720,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5752,14 +5757,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7278-2025</t>
+          <t>A 8020-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45702.63168981481</v>
+        <v>45707.569375</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5772,7 +5777,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5809,14 +5814,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42155-2025</t>
+          <t>A 43134-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45904.40079861111</v>
+        <v>45909.83324074074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5826,11 +5831,6 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -5871,14 +5871,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43134-2025</t>
+          <t>A 47860-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45909.83324074074</v>
+        <v>45204</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5928,14 +5928,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 19107-2023</t>
+          <t>A 49734-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45048.45601851852</v>
+        <v>45596.84884259259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5985,14 +5985,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 6196-2023</t>
+          <t>A 37131-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44964.73979166667</v>
+        <v>45875.54335648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6042,14 +6042,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6208-2023</t>
+          <t>A 37133-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44964.8028587963</v>
+        <v>45875.54409722222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>45632.81232638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6156,14 +6156,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32099-2025</t>
+          <t>A 37427-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45835.46706018518</v>
+        <v>45877.49123842592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6213,14 +6213,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46536-2025</t>
+          <t>A 37424-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45926.34168981481</v>
+        <v>45877.4903125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6270,14 +6270,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46539-2025</t>
+          <t>A 5832-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45926.34392361111</v>
+        <v>45694.84364583333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6327,14 +6327,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46533-2025</t>
+          <t>A 55293-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45926.34030092593</v>
+        <v>45621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6384,14 +6384,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49733-2024</t>
+          <t>A 46533-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45596.84603009259</v>
+        <v>45926.34030092593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>15.1</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6441,14 +6441,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46848-2025</t>
+          <t>A 46539-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45928.71738425926</v>
+        <v>45926.34392361111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6498,14 +6498,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 39990-2024</t>
+          <t>A 46536-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45553.62622685185</v>
+        <v>45926.34168981481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6555,14 +6555,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 14226-2024</t>
+          <t>A 46848-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45393</v>
+        <v>45928.71738425926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6612,14 +6612,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55293-2024</t>
+          <t>A 48096-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45621</v>
+        <v>45933.30746527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6669,14 +6669,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 55295-2024</t>
+          <t>A 16467-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45621</v>
+        <v>45751.54304398148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6726,14 +6726,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55296-2024</t>
+          <t>A 16573-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45621</v>
+        <v>45752</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.7</v>
+        <v>9.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6783,14 +6783,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 32856-2025</t>
+          <t>A 40960-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45839.57771990741</v>
+        <v>45169</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6840,14 +6840,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 48096-2025</t>
+          <t>A 48095-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45933.30746527778</v>
+        <v>45933.30634259259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6897,14 +6897,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48095-2025</t>
+          <t>A 57423-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45933.30634259259</v>
+        <v>45246.22380787037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6954,14 +6954,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 57500-2022</t>
+          <t>A 49024-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44896.63857638889</v>
+        <v>45937.61747685185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7011,14 +7011,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 48911-2025</t>
+          <t>A 15189-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45937</v>
+        <v>45016.70493055556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7068,14 +7068,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 2642-2025</t>
+          <t>A 49025-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45676.46021990741</v>
+        <v>45937.61915509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7125,14 +7125,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49024-2025</t>
+          <t>A 48911-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45937.61747685185</v>
+        <v>45937</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7182,14 +7182,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49025-2025</t>
+          <t>A 49779-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45937.61915509259</v>
+        <v>45940.386875</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7239,14 +7239,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20671-2022</t>
+          <t>A 16813-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44700.65571759259</v>
+        <v>45754.63344907408</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7296,14 +7296,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49779-2025</t>
+          <t>A 50297-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45940.386875</v>
+        <v>44865.92474537037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7353,14 +7353,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 6222-2024</t>
+          <t>A 16567-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45337.64701388889</v>
+        <v>45752.46074074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7410,14 +7410,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7821-2024</t>
+          <t>A 16568-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45349</v>
+        <v>45752.46453703703</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>8.199999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7467,14 +7467,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7823-2024</t>
+          <t>A 16570-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45349</v>
+        <v>45752.47210648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7524,14 +7524,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 22270-2024</t>
+          <t>A 30641-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45446</v>
+        <v>45495.57349537037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7581,14 +7581,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52321-2025</t>
+          <t>A 10742-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45953.66415509259</v>
+        <v>45722.41454861111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7638,14 +7638,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 6194-2023</t>
+          <t>A 2495-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44964</v>
+        <v>45313</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7695,14 +7695,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 6214-2023</t>
+          <t>A 52321-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44964.81380787037</v>
+        <v>45953.66415509259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7752,14 +7752,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 49925-2023</t>
+          <t>A 16449-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45214.86449074074</v>
+        <v>45751.5106712963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7809,14 +7809,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 53538-2025</t>
+          <t>A 4355-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45959</v>
+        <v>44954.598125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7866,14 +7866,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 37131-2025</t>
+          <t>A 53538-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45875.54335648148</v>
+        <v>45959</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7923,14 +7923,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37133-2025</t>
+          <t>A 14230-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45875.54409722222</v>
+        <v>45393</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7980,14 +7980,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 37427-2025</t>
+          <t>A 11117-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45877.49123842592</v>
+        <v>44992.45543981482</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8037,14 +8037,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28605-2023</t>
+          <t>A 1794-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45103.5830787037</v>
+        <v>44938.6234837963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8094,14 +8094,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 37424-2025</t>
+          <t>A 35245-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45877.4903125</v>
+        <v>45145.88599537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8151,14 +8151,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35244-2023</t>
+          <t>A 55693-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45145.88350694445</v>
+        <v>45972.43956018519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8208,14 +8208,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17007-2025</t>
+          <t>A 1489-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45755.54241898148</v>
+        <v>45305</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8265,14 +8265,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17011-2025</t>
+          <t>A 56310-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45755.54761574074</v>
+        <v>45974.62328703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8322,14 +8322,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 16567-2025</t>
+          <t>A 56373-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45752.46074074074</v>
+        <v>45974.68520833334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8379,14 +8379,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 16568-2025</t>
+          <t>A 19107-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45752.46453703703</v>
+        <v>45048.45601851852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8436,14 +8436,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 16570-2025</t>
+          <t>A 59349-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45752.47210648148</v>
+        <v>45638.2815162037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8493,14 +8493,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55693-2025</t>
+          <t>A 15489-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45972.43956018519</v>
+        <v>45401</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8550,14 +8550,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 56310-2025</t>
+          <t>A 37797-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45974.62328703704</v>
+        <v>45543.54533564814</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8607,14 +8607,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 46901-2023</t>
+          <t>A 37798-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45201</v>
+        <v>45543.54836805556</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8664,14 +8664,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56373-2025</t>
+          <t>A 16571-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45974.68520833334</v>
+        <v>45752.47685185185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8721,14 +8721,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10207-2025</t>
+          <t>A 57195-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45719</v>
+        <v>45629.47</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8740,8 +8740,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8778,14 +8783,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 40960-2023</t>
+          <t>A 58356-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45169</v>
+        <v>45985.5115162037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8798,7 +8803,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8835,14 +8840,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 59349-2024</t>
+          <t>A 10207-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45638.2815162037</v>
+        <v>45719</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8855,7 +8860,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8892,14 +8897,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8371-2023</t>
+          <t>A 35244-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44977.385625</v>
+        <v>45145.88350694445</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8912,7 +8917,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8949,14 +8954,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 58356-2025</t>
+          <t>A 1394-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45985.5115162037</v>
+        <v>46031.63753472222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8969,7 +8974,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9006,14 +9011,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16573-2025</t>
+          <t>A 1384-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45752</v>
+        <v>46031.62291666667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9026,7 +9031,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9063,14 +9068,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 11075-2021</t>
+          <t>A 1400-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44260</v>
+        <v>46031.6427662037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9083,7 +9088,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9120,14 +9125,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8020-2025</t>
+          <t>A 1347-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45707.569375</v>
+        <v>46031.59274305555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9177,14 +9182,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46006-2022</t>
+          <t>A 7817-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44846</v>
+        <v>45349</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9197,7 +9202,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>8.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9234,14 +9239,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1347-2026</t>
+          <t>A 46901-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46031.59274305555</v>
+        <v>45201</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9254,7 +9259,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9291,14 +9296,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 16350-2022</t>
+          <t>A 40661-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44670</v>
+        <v>45170</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9311,7 +9316,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9348,14 +9353,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1400-2026</t>
+          <t>A 11282-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46031.6427662037</v>
+        <v>45371.72210648148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9368,7 +9373,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9405,14 +9410,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 1384-2026</t>
+          <t>A 3837-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46031.62291666667</v>
+        <v>45682.66153935185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9425,7 +9430,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9462,14 +9467,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1394-2026</t>
+          <t>A 12420-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46031.63753472222</v>
+        <v>45730.45248842592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9487,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9519,14 +9524,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 2495-2024</t>
+          <t>A 2293-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45313</v>
+        <v>45673.59221064814</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9539,7 +9544,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9576,14 +9581,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 59332-2024</t>
+          <t>A 2294-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45637.79350694444</v>
+        <v>45673.59290509259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9596,7 +9601,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9633,14 +9638,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 9892-2025</t>
+          <t>A 1221-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45716.70597222223</v>
+        <v>46031.4018287037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9652,8 +9657,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9690,14 +9700,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 23787-2024</t>
+          <t>A 40157-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45455.42315972222</v>
+        <v>45169.36275462963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9710,7 +9720,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9747,14 +9757,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 10206-2025</t>
+          <t>A 4438-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45719</v>
+        <v>45686.51674768519</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9767,7 +9777,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9804,14 +9814,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 16449-2025</t>
+          <t>A 14742-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45751.5106712963</v>
+        <v>44656</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9824,7 +9834,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9861,14 +9871,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1221-2026</t>
+          <t>A 16465-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46031.4018287037</v>
+        <v>45751.53894675926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9880,13 +9890,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9923,14 +9928,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 11515-2024</t>
+          <t>A 14745-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45372.77957175926</v>
+        <v>44656</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9942,13 +9947,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9985,14 +9985,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 62586-2025</t>
+          <t>A 49925-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46007.84753472222</v>
+        <v>45214.86449074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10042,14 +10042,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62956-2025</t>
+          <t>A 59332-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46009</v>
+        <v>45637.79350694444</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10099,14 +10099,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 14064-2025</t>
+          <t>A 24566-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45740.41469907408</v>
+        <v>45083.51130787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>13.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10156,1298 +10156,1298 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
+          <t>A 16350-2022</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>44670</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" s="2" t="inlineStr"/>
+    </row>
+    <row r="164" ht="15" customHeight="1">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>A 14064-2025</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>45740.41469907408</v>
+      </c>
+      <c r="C164" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" s="2" t="inlineStr"/>
+    </row>
+    <row r="165" ht="15" customHeight="1">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>A 16572-2025</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>45752.48247685185</v>
+      </c>
+      <c r="C165" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" s="2" t="inlineStr"/>
+    </row>
+    <row r="166" ht="15" customHeight="1">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>A 16569-2025</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>45752.46914351852</v>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" s="2" t="inlineStr"/>
+    </row>
+    <row r="167" ht="15" customHeight="1">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>A 6222-2024</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>45337.64701388889</v>
+      </c>
+      <c r="C167" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" s="2" t="inlineStr"/>
+    </row>
+    <row r="168" ht="15" customHeight="1">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>A 62586-2025</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>46007.84753472222</v>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" s="2" t="inlineStr"/>
+    </row>
+    <row r="169" ht="15" customHeight="1">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>A 34914-2022</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C169" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" s="2" t="inlineStr"/>
+    </row>
+    <row r="170" ht="15" customHeight="1">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>A 16821-2025</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>45754.64318287037</v>
+      </c>
+      <c r="C170" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" s="2" t="inlineStr"/>
+    </row>
+    <row r="171" ht="15" customHeight="1">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>A 62956-2025</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C171" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>7</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172" ht="15" customHeight="1">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>A 11515-2024</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>45372.77957175926</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" s="2" t="inlineStr"/>
+    </row>
+    <row r="173" ht="15" customHeight="1">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>A 63613-2025</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>46014.34581018519</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" s="2" t="inlineStr"/>
+    </row>
+    <row r="174" ht="15" customHeight="1">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>A 15707-2025</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>45748.49090277778</v>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" s="2" t="inlineStr"/>
+    </row>
+    <row r="175" ht="15" customHeight="1">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>A 2497-2024</t>
+        </is>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C175" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" s="2" t="inlineStr"/>
+    </row>
+    <row r="176" ht="15" customHeight="1">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>A 6690-2023</t>
+        </is>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C176" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" s="2" t="inlineStr"/>
+    </row>
+    <row r="177" ht="15" customHeight="1">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>A 28791-2024</t>
+        </is>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>45478.613125</v>
+      </c>
+      <c r="C177" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" s="2" t="inlineStr"/>
+    </row>
+    <row r="178" ht="15" customHeight="1">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>A 9892-2025</t>
+        </is>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>45716.70597222223</v>
+      </c>
+      <c r="C178" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" s="2" t="inlineStr"/>
+    </row>
+    <row r="179" ht="15" customHeight="1">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>A 11281-2024</t>
+        </is>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>45371.71887731482</v>
+      </c>
+      <c r="C179" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>2</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" s="2" t="inlineStr"/>
+    </row>
+    <row r="180" ht="15" customHeight="1">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>A 4356-2023</t>
+        </is>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>44954.60174768518</v>
+      </c>
+      <c r="C180" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>3</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" s="2" t="inlineStr"/>
+    </row>
+    <row r="181" ht="15" customHeight="1">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>A 11457-2023</t>
+        </is>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>44993.58428240741</v>
+      </c>
+      <c r="C181" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" s="2" t="inlineStr"/>
+    </row>
+    <row r="182" ht="15" customHeight="1">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>A 6194-2023</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>6</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" s="2" t="inlineStr"/>
+    </row>
+    <row r="183" ht="15" customHeight="1">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>A 23128-2024</t>
+        </is>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>45450.61440972222</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" s="2" t="inlineStr"/>
+    </row>
+    <row r="184" ht="15" customHeight="1">
+      <c r="A184" t="inlineStr">
+        <is>
           <t>A 7181-2023</t>
         </is>
       </c>
-      <c r="B163" s="1" t="n">
+      <c r="B184" s="1" t="n">
         <v>44970</v>
       </c>
-      <c r="C163" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
+      <c r="C184" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G163" t="n">
+      <c r="G184" t="n">
         <v>2</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>0</v>
-      </c>
-      <c r="M163" t="n">
-        <v>0</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0</v>
-      </c>
-      <c r="O163" t="n">
-        <v>0</v>
-      </c>
-      <c r="P163" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>0</v>
-      </c>
-      <c r="R163" s="2" t="inlineStr"/>
-      <c r="U163">
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" s="2" t="inlineStr"/>
+      <c r="U184">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="V163">
+      <c r="V184">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="W163">
+      <c r="W184">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="X163">
+      <c r="X184">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="Y163">
+      <c r="Y184">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="164" ht="15" customHeight="1">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>A 4355-2023</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>44954.598125</v>
-      </c>
-      <c r="C164" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M164" t="n">
-        <v>0</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0</v>
-      </c>
-      <c r="O164" t="n">
-        <v>0</v>
-      </c>
-      <c r="P164" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>0</v>
-      </c>
-      <c r="R164" s="2" t="inlineStr"/>
-    </row>
-    <row r="165" ht="15" customHeight="1">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>A 22110-2021</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>44323.6992824074</v>
-      </c>
-      <c r="C165" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0</v>
-      </c>
-      <c r="L165" t="n">
-        <v>0</v>
-      </c>
-      <c r="M165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0</v>
-      </c>
-      <c r="O165" t="n">
-        <v>0</v>
-      </c>
-      <c r="P165" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>0</v>
-      </c>
-      <c r="R165" s="2" t="inlineStr"/>
-    </row>
-    <row r="166" ht="15" customHeight="1">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>A 15707-2025</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>45748.49090277778</v>
-      </c>
-      <c r="C166" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P166" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>0</v>
-      </c>
-      <c r="R166" s="2" t="inlineStr"/>
-    </row>
-    <row r="167" ht="15" customHeight="1">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>A 63613-2025</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>46014.34581018519</v>
-      </c>
-      <c r="C167" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0</v>
-      </c>
-      <c r="L167" t="n">
-        <v>0</v>
-      </c>
-      <c r="M167" t="n">
-        <v>0</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0</v>
-      </c>
-      <c r="O167" t="n">
-        <v>0</v>
-      </c>
-      <c r="P167" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>0</v>
-      </c>
-      <c r="R167" s="2" t="inlineStr"/>
-    </row>
-    <row r="168" ht="15" customHeight="1">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>A 2497-2024</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>45313</v>
-      </c>
-      <c r="C168" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>0</v>
-      </c>
-      <c r="M168" t="n">
-        <v>0</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0</v>
-      </c>
-      <c r="O168" t="n">
-        <v>0</v>
-      </c>
-      <c r="P168" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>0</v>
-      </c>
-      <c r="R168" s="2" t="inlineStr"/>
-    </row>
-    <row r="169" ht="15" customHeight="1">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>A 12420-2025</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>45730.45248842592</v>
-      </c>
-      <c r="C169" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0</v>
-      </c>
-      <c r="M169" t="n">
-        <v>0</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0</v>
-      </c>
-      <c r="O169" t="n">
-        <v>0</v>
-      </c>
-      <c r="P169" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>0</v>
-      </c>
-      <c r="R169" s="2" t="inlineStr"/>
-    </row>
-    <row r="170" ht="15" customHeight="1">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>A 14743-2022</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>44656.37567129629</v>
-      </c>
-      <c r="C170" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0</v>
-      </c>
-      <c r="M170" t="n">
-        <v>0</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O170" t="n">
-        <v>0</v>
-      </c>
-      <c r="P170" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>0</v>
-      </c>
-      <c r="R170" s="2" t="inlineStr"/>
-    </row>
-    <row r="171" ht="15" customHeight="1">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>A 14748-2022</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="C171" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>0</v>
-      </c>
-      <c r="M171" t="n">
-        <v>0</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0</v>
-      </c>
-      <c r="O171" t="n">
-        <v>0</v>
-      </c>
-      <c r="P171" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>0</v>
-      </c>
-      <c r="R171" s="2" t="inlineStr"/>
-    </row>
-    <row r="172" ht="15" customHeight="1">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>A 39353-2022</t>
-        </is>
-      </c>
-      <c r="B172" s="1" t="n">
-        <v>44817</v>
-      </c>
-      <c r="C172" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0</v>
-      </c>
-      <c r="L172" t="n">
-        <v>0</v>
-      </c>
-      <c r="M172" t="n">
-        <v>0</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0</v>
-      </c>
-      <c r="P172" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>0</v>
-      </c>
-      <c r="R172" s="2" t="inlineStr"/>
-    </row>
-    <row r="173" ht="15" customHeight="1">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>A 57025-2022</t>
-        </is>
-      </c>
-      <c r="B173" s="1" t="n">
-        <v>44895</v>
-      </c>
-      <c r="C173" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0</v>
-      </c>
-      <c r="M173" t="n">
-        <v>0</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0</v>
-      </c>
-      <c r="P173" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>0</v>
-      </c>
-      <c r="R173" s="2" t="inlineStr"/>
-    </row>
-    <row r="174" ht="15" customHeight="1">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>A 23789-2024</t>
-        </is>
-      </c>
-      <c r="B174" s="1" t="n">
-        <v>45455.42549768519</v>
-      </c>
-      <c r="C174" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0</v>
-      </c>
-      <c r="M174" t="n">
-        <v>0</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0</v>
-      </c>
-      <c r="O174" t="n">
-        <v>0</v>
-      </c>
-      <c r="P174" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q174" t="n">
-        <v>0</v>
-      </c>
-      <c r="R174" s="2" t="inlineStr"/>
-    </row>
-    <row r="175" ht="15" customHeight="1">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>A 1489-2024</t>
-        </is>
-      </c>
-      <c r="B175" s="1" t="n">
-        <v>45305</v>
-      </c>
-      <c r="C175" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0</v>
-      </c>
-      <c r="P175" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q175" t="n">
-        <v>0</v>
-      </c>
-      <c r="R175" s="2" t="inlineStr"/>
-    </row>
-    <row r="176" ht="15" customHeight="1">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>A 52385-2022</t>
-        </is>
-      </c>
-      <c r="B176" s="1" t="n">
-        <v>44869</v>
-      </c>
-      <c r="C176" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0</v>
-      </c>
-      <c r="L176" t="n">
-        <v>0</v>
-      </c>
-      <c r="M176" t="n">
-        <v>0</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0</v>
-      </c>
-      <c r="O176" t="n">
-        <v>0</v>
-      </c>
-      <c r="P176" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q176" t="n">
-        <v>0</v>
-      </c>
-      <c r="R176" s="2" t="inlineStr"/>
-    </row>
-    <row r="177" ht="15" customHeight="1">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>A 2293-2025</t>
-        </is>
-      </c>
-      <c r="B177" s="1" t="n">
-        <v>45673.59221064814</v>
-      </c>
-      <c r="C177" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0</v>
-      </c>
-      <c r="L177" t="n">
-        <v>0</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0</v>
-      </c>
-      <c r="O177" t="n">
-        <v>0</v>
-      </c>
-      <c r="P177" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q177" t="n">
-        <v>0</v>
-      </c>
-      <c r="R177" s="2" t="inlineStr"/>
-    </row>
-    <row r="178" ht="15" customHeight="1">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>A 2294-2025</t>
-        </is>
-      </c>
-      <c r="B178" s="1" t="n">
-        <v>45673.59290509259</v>
-      </c>
-      <c r="C178" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0</v>
-      </c>
-      <c r="L178" t="n">
-        <v>0</v>
-      </c>
-      <c r="M178" t="n">
-        <v>0</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0</v>
-      </c>
-      <c r="O178" t="n">
-        <v>0</v>
-      </c>
-      <c r="P178" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q178" t="n">
-        <v>0</v>
-      </c>
-      <c r="R178" s="2" t="inlineStr"/>
-    </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>A 56145-2022</t>
-        </is>
-      </c>
-      <c r="B179" s="1" t="n">
-        <v>44889</v>
-      </c>
-      <c r="C179" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0</v>
-      </c>
-      <c r="M179" t="n">
-        <v>0</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0</v>
-      </c>
-      <c r="O179" t="n">
-        <v>0</v>
-      </c>
-      <c r="P179" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>0</v>
-      </c>
-      <c r="R179" s="2" t="inlineStr"/>
-    </row>
-    <row r="180" ht="15" customHeight="1">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>A 62232-2022</t>
-        </is>
-      </c>
-      <c r="B180" s="1" t="n">
-        <v>44922</v>
-      </c>
-      <c r="C180" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0</v>
-      </c>
-      <c r="M180" t="n">
-        <v>0</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0</v>
-      </c>
-      <c r="P180" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q180" t="n">
-        <v>0</v>
-      </c>
-      <c r="R180" s="2" t="inlineStr"/>
-    </row>
-    <row r="181" ht="15" customHeight="1">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>A 57195-2024</t>
-        </is>
-      </c>
-      <c r="B181" s="1" t="n">
-        <v>45629.47</v>
-      </c>
-      <c r="C181" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0</v>
-      </c>
-      <c r="M181" t="n">
-        <v>0</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0</v>
-      </c>
-      <c r="P181" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>0</v>
-      </c>
-      <c r="R181" s="2" t="inlineStr"/>
-    </row>
-    <row r="182" ht="15" customHeight="1">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>A 4356-2023</t>
-        </is>
-      </c>
-      <c r="B182" s="1" t="n">
-        <v>44954.60174768518</v>
-      </c>
-      <c r="C182" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>3</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0</v>
-      </c>
-      <c r="M182" t="n">
-        <v>0</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0</v>
-      </c>
-      <c r="P182" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>0</v>
-      </c>
-      <c r="R182" s="2" t="inlineStr"/>
-    </row>
-    <row r="183" ht="15" customHeight="1">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>A 4359-2023</t>
-        </is>
-      </c>
-      <c r="B183" s="1" t="n">
-        <v>44954.69856481482</v>
-      </c>
-      <c r="C183" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0</v>
-      </c>
-      <c r="M183" t="n">
-        <v>0</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0</v>
-      </c>
-      <c r="P183" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q183" t="n">
-        <v>0</v>
-      </c>
-      <c r="R183" s="2" t="inlineStr"/>
-    </row>
-    <row r="184" ht="15" customHeight="1">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>A 12273-2023</t>
-        </is>
-      </c>
-      <c r="B184" s="1" t="n">
-        <v>44998</v>
-      </c>
-      <c r="C184" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0</v>
-      </c>
-      <c r="M184" t="n">
-        <v>0</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0</v>
-      </c>
-      <c r="P184" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>0</v>
-      </c>
-      <c r="R184" s="2" t="inlineStr"/>
-    </row>
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 6980-2021</t>
+          <t>A 28605-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44237</v>
+        <v>45103.5830787037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11497,14 +11497,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 50297-2022</t>
+          <t>A 71048-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44865.92474537037</v>
+        <v>44538</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11554,14 +11554,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11457-2023</t>
+          <t>A 11075-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44993.58428240741</v>
+        <v>44260</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11611,14 +11611,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 56876-2023</t>
+          <t>A 6980-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45244</v>
+        <v>44237</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11668,14 +11668,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 7268-2025</t>
+          <t>A 51118-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45702.60103009259</v>
+        <v>45219</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11725,14 +11725,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 24568-2023</t>
+          <t>A 56876-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45083.5209837963</v>
+        <v>45244</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11782,14 +11782,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1794-2023</t>
+          <t>A 24568-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44938.6234837963</v>
+        <v>45083.5209837963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11839,14 +11839,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 34914-2022</t>
+          <t>A 23789-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44796</v>
+        <v>45455.42549768519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11896,14 +11896,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 14742-2022</t>
+          <t>A 4359-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44656</v>
+        <v>44954.69856481482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11953,14 +11953,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14745-2022</t>
+          <t>A 6208-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44656</v>
+        <v>44964.8028587963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12010,14 +12010,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 26757-2024</t>
+          <t>A 17007-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45469</v>
+        <v>45755.54241898148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12067,14 +12067,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 42872-2022</t>
+          <t>A 17011-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44832</v>
+        <v>45755.54761574074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12124,14 +12124,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3775-2024</t>
+          <t>A 22270-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45321</v>
+        <v>45446</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12181,14 +12181,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 40661-2023</t>
+          <t>A 2642-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45170</v>
+        <v>45676.46021990741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12238,14 +12238,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 15489-2024</t>
+          <t>A 22110-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45401</v>
+        <v>44323.6992824074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12295,14 +12295,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 11117-2023</t>
+          <t>A 27549-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44992.45543981482</v>
+        <v>44742.8079050926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12352,14 +12352,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 11282-2024</t>
+          <t>A 20671-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45371.72210648148</v>
+        <v>44700.65571759259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12409,14 +12409,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 16465-2025</t>
+          <t>A 3946-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45751.53894675926</v>
+        <v>44952.37013888889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12466,14 +12466,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 51118-2023</t>
+          <t>A 55295-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45219</v>
+        <v>45621</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12523,14 +12523,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 3946-2023</t>
+          <t>A 55296-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44952.37013888889</v>
+        <v>45621</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12580,14 +12580,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 47860-2023</t>
+          <t>A 10206-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45204</v>
+        <v>45719</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12637,14 +12637,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 23128-2024</t>
+          <t>A 64387-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45450.61440972222</v>
+        <v>45280.58269675926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12694,14 +12694,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 10742-2025</t>
+          <t>A 4252-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45722.41454861111</v>
+        <v>45324.48243055555</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12751,14 +12751,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 15189-2023</t>
+          <t>A 4957-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45016.70493055556</v>
+        <v>44593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12808,14 +12808,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 16571-2025</t>
+          <t>A 29527-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45752.47685185185</v>
+        <v>45484.46942129629</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12865,14 +12865,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 58712-2023</t>
+          <t>A 6209-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45251</v>
+        <v>44964.80540509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12922,14 +12922,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 16349-2022</t>
+          <t>A 12423-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44670</v>
+        <v>45730.45483796296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12979,14 +12979,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 11281-2024</t>
+          <t>A 14033-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45371.71887731482</v>
+        <v>45740.36262731482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13036,14 +13036,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 57423-2023</t>
+          <t>A 24440-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45246.22380787037</v>
+        <v>45797.82753472222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13093,14 +13093,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16572-2025</t>
+          <t>A 24439-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45752.48247685185</v>
+        <v>45797.82457175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13150,14 +13150,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 64387-2023</t>
+          <t>A 14029-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45280.58269675926</v>
+        <v>45740.35556712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13207,14 +13207,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 4252-2024</t>
+          <t>A 25863-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45324.48243055555</v>
+        <v>45804.47696759259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13264,14 +13264,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 4957-2022</t>
+          <t>A 26397-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44593</v>
+        <v>45807</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13321,14 +13321,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 29527-2024</t>
+          <t>A 27413-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45484.46942129629</v>
+        <v>45812.84489583333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13378,14 +13378,14 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 6209-2023</t>
+          <t>A 27414-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44964.80540509259</v>
+        <v>45812.84578703704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z219"/>
+  <dimension ref="A1:Z218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35828-2024</t>
+          <t>A 7365-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45532.67104166667</v>
+        <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,22 +778,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -802,142 +802,142 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 35828-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45532.67104166667</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Svinrot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 35828-2024 artfynd.xlsx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 35828-2024 karta.png", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 35828-2024 FSC-klagomål.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 35828-2024 FSC-klagomål mail.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 35828-2024 tillsynsbegäran.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 35828-2024 tillsynsbegäran mail.docx", "A 35828-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 7365-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44971</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 56244-2022</t>
+          <t>A 13882-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44890</v>
+        <v>45007</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -949,19 +949,14 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -989,647 +984,652 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 44654-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 44654-2023 artfynd.xlsx", "A 44654-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 44654-2023 karta.png", "A 44654-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 44654-2023 FSC-klagomål.docx", "A 44654-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 44654-2023 FSC-klagomål mail.docx", "A 44654-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 44654-2023 tillsynsbegäran.docx", "A 44654-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 44654-2023 tillsynsbegäran mail.docx", "A 44654-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 45507-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45578</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 31093-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45832.5953125</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 56244-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 31093-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45832.5953125</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 15498-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 15498-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 15498-2024 artfynd.xlsx", "A 15498-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 15498-2024 karta.png", "A 15498-2024")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 15498-2024 karta knärot.png", "A 15498-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 15498-2024 FSC-klagomål.docx", "A 15498-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 15498-2024 FSC-klagomål mail.docx", "A 15498-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 15498-2024 tillsynsbegäran.docx", "A 15498-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 15498-2024 tillsynsbegäran mail.docx", "A 15498-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 13882-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45007</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 16446-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45751.50320601852</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Dvärghäxört</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 17410-2024</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45414.89228009259</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>7.3</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Mörk husmossa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 16446-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45751.50320601852</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Dvärghäxört</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 45507-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45578</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 44654-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 44654-2023 artfynd.xlsx", "A 44654-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 44654-2023 karta.png", "A 44654-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 44654-2023 FSC-klagomål.docx", "A 44654-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 44654-2023 FSC-klagomål mail.docx", "A 44654-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 44654-2023 tillsynsbegäran.docx", "A 44654-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 44654-2023 tillsynsbegäran mail.docx", "A 44654-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44238</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44340.69202546297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44476</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44476.84085648148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44516</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44817</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44873</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44456</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44476.83903935185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44433.46096064815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44469.44841435185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44412.36203703703</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44483</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44340.68202546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44391</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44620</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44854</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44272</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44607</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44503</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44707.73799768519</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44665</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3415,14 +3415,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7278-2025</t>
+          <t>A 11227-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45702.63168981481</v>
+        <v>45726.34702546296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 39353-2022</t>
+          <t>A 47860-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44817</v>
+        <v>45204</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7268-2025</t>
+          <t>A 14230-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45702.60103009259</v>
+        <v>45393</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 46006-2022</t>
+          <t>A 23128-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44846</v>
+        <v>45450.61440972222</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 42872-2022</t>
+          <t>A 10742-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44832</v>
+        <v>45722.41454861111</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 23787-2024</t>
+          <t>A 35245-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45455.42315972222</v>
+        <v>45145.88599537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 57025-2022</t>
+          <t>A 15189-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44895</v>
+        <v>45016.70493055556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52385-2022</t>
+          <t>A 3837-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44869</v>
+        <v>45682.66153935185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>10.9</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3871,14 +3871,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 6210-2023</t>
+          <t>A 16571-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44964.80734953703</v>
+        <v>45752.47685185185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3928,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6212-2023</t>
+          <t>A 58712-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44964.81168981481</v>
+        <v>45251</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3985,14 +3985,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6214-2023</t>
+          <t>A 37797-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44964.81380787037</v>
+        <v>45543.54533564814</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>6.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 26757-2024</t>
+          <t>A 37798-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45469</v>
+        <v>45543.54836805556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4099,14 +4099,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35113-2024</t>
+          <t>A 28791-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45529.83986111111</v>
+        <v>45478.613125</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39988-2024</t>
+          <t>A 39590-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45553.62432870371</v>
+        <v>45890.52939814814</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4213,14 +4213,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6196-2023</t>
+          <t>A 21687-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44964.73979166667</v>
+        <v>44707</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56145-2022</t>
+          <t>A 16349-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44889</v>
+        <v>44670</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>14.1</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3775-2024</t>
+          <t>A 71048-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45321</v>
+        <v>44538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 33875-2024</t>
+          <t>A 11281-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45521</v>
+        <v>45371.71887731482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57500-2022</t>
+          <t>A 6210-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44896.63857638889</v>
+        <v>44964.80734953703</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14226-2024</t>
+          <t>A 6212-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45393</v>
+        <v>44964.81168981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 7821-2024</t>
+          <t>A 57423-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45349</v>
+        <v>45246.22380787037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 7823-2024</t>
+          <t>A 16572-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45349</v>
+        <v>45752.48247685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28942-2025</t>
+          <t>A 42155-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45820</v>
+        <v>45904.40079861111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,8 +4688,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4726,14 +4731,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28940-2025</t>
+          <t>A 49734-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45820</v>
+        <v>45596.84884259259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4746,7 +4751,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.7</v>
+        <v>4.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4783,14 +4788,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28941-2025</t>
+          <t>A 64387-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45820</v>
+        <v>45280.58269675926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4803,7 +4808,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4840,14 +4845,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 16349-2022</t>
+          <t>A 4252-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44670</v>
+        <v>45324.48243055555</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4860,7 +4865,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4897,14 +4902,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39990-2024</t>
+          <t>A 33875-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45553.62622685185</v>
+        <v>45521</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4917,7 +4922,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4954,14 +4959,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 14743-2022</t>
+          <t>A 4957-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44656.37567129629</v>
+        <v>44593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4974,7 +4979,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5011,14 +5016,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14748-2022</t>
+          <t>A 59503-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44656</v>
+        <v>45638.55125</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5031,7 +5036,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5068,14 +5073,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 62232-2022</t>
+          <t>A 43134-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44922</v>
+        <v>45909.83324074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5088,7 +5093,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5125,14 +5130,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 21687-2022</t>
+          <t>A 39988-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44707</v>
+        <v>45553.62432870371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5145,7 +5150,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5182,14 +5187,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39590-2025</t>
+          <t>A 24566-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45890.52939814814</v>
+        <v>45083.51130787037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5202,7 +5207,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.2</v>
+        <v>13.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5239,14 +5244,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49733-2024</t>
+          <t>A 6690-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45596.84603009259</v>
+        <v>44966</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5259,7 +5264,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>15.1</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5296,14 +5301,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 32099-2025</t>
+          <t>A 29527-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45835.46706018518</v>
+        <v>45484.46942129629</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5316,7 +5321,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5353,14 +5358,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58712-2023</t>
+          <t>A 6209-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45251</v>
+        <v>44964.80540509259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5373,7 +5378,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5410,14 +5415,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32856-2025</t>
+          <t>A 16821-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45839.57771990741</v>
+        <v>45754.64318287037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5430,7 +5435,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5467,14 +5472,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12273-2023</t>
+          <t>A 40157-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44998</v>
+        <v>45169.36275462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5487,7 +5492,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5524,14 +5529,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 11227-2025</t>
+          <t>A 35113-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45726.34702546296</v>
+        <v>45529.83986111111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5544,7 +5549,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5581,14 +5586,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42155-2025</t>
+          <t>A 7817-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45904.40079861111</v>
+        <v>45349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,13 +5605,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>8.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5643,14 +5643,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 59503-2024</t>
+          <t>A 16467-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45638.55125</v>
+        <v>45751.54304398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5700,14 +5700,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8371-2023</t>
+          <t>A 24440-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44977.385625</v>
+        <v>45797.82753472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5757,14 +5757,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 8020-2025</t>
+          <t>A 12423-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45707.569375</v>
+        <v>45730.45483796296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5814,14 +5814,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43134-2025</t>
+          <t>A 14033-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45909.83324074074</v>
+        <v>45740.36262731482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5871,14 +5871,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47860-2023</t>
+          <t>A 24439-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45204</v>
+        <v>45797.82457175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5928,14 +5928,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 49734-2024</t>
+          <t>A 14029-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45596.84884259259</v>
+        <v>45740.35556712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5985,14 +5985,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 37131-2025</t>
+          <t>A 16813-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45875.54335648148</v>
+        <v>45754.63344907408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6042,14 +6042,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 37133-2025</t>
+          <t>A 4438-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45875.54409722222</v>
+        <v>45686.51674768519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6099,14 +6099,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58378-2024</t>
+          <t>A 30641-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45632.81232638889</v>
+        <v>45495.57349537037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6156,14 +6156,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 37427-2025</t>
+          <t>A 25863-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45877.49123842592</v>
+        <v>45804.47696759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6213,14 +6213,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 37424-2025</t>
+          <t>A 26397-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45877.4903125</v>
+        <v>45807</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6270,14 +6270,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5832-2025</t>
+          <t>A 27549-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45694.84364583333</v>
+        <v>44742.8079050926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6327,14 +6327,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 55293-2024</t>
+          <t>A 16569-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45621</v>
+        <v>45752.46914351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>10.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6384,14 +6384,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46533-2025</t>
+          <t>A 27414-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45926.34030092593</v>
+        <v>45812.84578703704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6441,14 +6441,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46539-2025</t>
+          <t>A 27413-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45926.34392361111</v>
+        <v>45812.84489583333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6498,14 +6498,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46536-2025</t>
+          <t>A 5832-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45926.34168981481</v>
+        <v>45694.84364583333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6555,14 +6555,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46848-2025</t>
+          <t>A 7278-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45928.71738425926</v>
+        <v>45702.63168981481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6612,14 +6612,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 48096-2025</t>
+          <t>A 28940-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45933.30746527778</v>
+        <v>45820</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>7.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6669,14 +6669,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 16467-2025</t>
+          <t>A 28941-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45751.54304398148</v>
+        <v>45820</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6726,14 +6726,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16573-2025</t>
+          <t>A 28942-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45752</v>
+        <v>45820</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>9.6</v>
+        <v>4.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6783,14 +6783,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40960-2023</t>
+          <t>A 46536-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45169</v>
+        <v>45926.34168981481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6840,14 +6840,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 48095-2025</t>
+          <t>A 46539-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45933.30634259259</v>
+        <v>45926.34392361111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6897,14 +6897,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 57423-2023</t>
+          <t>A 19107-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45246.22380787037</v>
+        <v>45048.45601851852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6954,14 +6954,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49024-2025</t>
+          <t>A 46533-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45937.61747685185</v>
+        <v>45926.34030092593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7011,14 +7011,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 15189-2023</t>
+          <t>A 46848-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45016.70493055556</v>
+        <v>45928.71738425926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7068,14 +7068,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 49025-2025</t>
+          <t>A 6196-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45937.61915509259</v>
+        <v>44964.73979166667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7125,14 +7125,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48911-2025</t>
+          <t>A 6208-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45937</v>
+        <v>44964.8028587963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7182,14 +7182,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49779-2025</t>
+          <t>A 58378-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45940.386875</v>
+        <v>45632.81232638889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7239,14 +7239,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16813-2025</t>
+          <t>A 32099-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45754.63344907408</v>
+        <v>45835.46706018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7296,14 +7296,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 50297-2022</t>
+          <t>A 48096-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44865.92474537037</v>
+        <v>45933.30746527778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7353,14 +7353,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16567-2025</t>
+          <t>A 48095-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45752.46074074074</v>
+        <v>45933.30634259259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7410,14 +7410,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 16568-2025</t>
+          <t>A 49733-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45752.46453703703</v>
+        <v>45596.84603009259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.6</v>
+        <v>15.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7467,14 +7467,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 16570-2025</t>
+          <t>A 32856-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45752.47210648148</v>
+        <v>45839.57771990741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7524,14 +7524,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 30641-2024</t>
+          <t>A 39990-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45495.57349537037</v>
+        <v>45553.62622685185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7581,14 +7581,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10742-2025</t>
+          <t>A 14226-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45722.41454861111</v>
+        <v>45393</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7638,14 +7638,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 2495-2024</t>
+          <t>A 48911-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45313</v>
+        <v>45937</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7695,14 +7695,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52321-2025</t>
+          <t>A 55293-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45953.66415509259</v>
+        <v>45621</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7752,14 +7752,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 16449-2025</t>
+          <t>A 55295-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45751.5106712963</v>
+        <v>45621</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7809,14 +7809,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4355-2023</t>
+          <t>A 55296-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44954.598125</v>
+        <v>45621</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7866,14 +7866,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 53538-2025</t>
+          <t>A 49024-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45959</v>
+        <v>45937.61747685185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7923,14 +7923,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 14230-2024</t>
+          <t>A 57500-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45393</v>
+        <v>44896.63857638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7980,14 +7980,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 11117-2023</t>
+          <t>A 2642-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44992.45543981482</v>
+        <v>45676.46021990741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8037,14 +8037,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1794-2023</t>
+          <t>A 49025-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44938.6234837963</v>
+        <v>45937.61915509259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8094,14 +8094,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 35245-2023</t>
+          <t>A 20671-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45145.88599537037</v>
+        <v>44700.65571759259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8151,14 +8151,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 55693-2025</t>
+          <t>A 6222-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45972.43956018519</v>
+        <v>45337.64701388889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8208,14 +8208,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 1489-2024</t>
+          <t>A 49779-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45305</v>
+        <v>45940.386875</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8265,14 +8265,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56310-2025</t>
+          <t>A 7821-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45974.62328703704</v>
+        <v>45349</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8322,14 +8322,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 56373-2025</t>
+          <t>A 7823-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45974.68520833334</v>
+        <v>45349</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8379,14 +8379,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 19107-2023</t>
+          <t>A 37131-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45048.45601851852</v>
+        <v>45875.54335648148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8436,14 +8436,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 59349-2024</t>
+          <t>A 22270-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45638.2815162037</v>
+        <v>45446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8493,14 +8493,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 15489-2024</t>
+          <t>A 37133-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45401</v>
+        <v>45875.54409722222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8550,14 +8550,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37797-2024</t>
+          <t>A 6194-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45543.54533564814</v>
+        <v>44964</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8607,14 +8607,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37798-2024</t>
+          <t>A 6214-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45543.54836805556</v>
+        <v>44964.81380787037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8664,14 +8664,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16571-2025</t>
+          <t>A 49925-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45752.47685185185</v>
+        <v>45214.86449074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8721,14 +8721,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 57195-2024</t>
+          <t>A 37427-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45629.47</v>
+        <v>45877.49123842592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8740,13 +8740,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8783,14 +8778,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 58356-2025</t>
+          <t>A 37424-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45985.5115162037</v>
+        <v>45877.4903125</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8798,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8840,14 +8835,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 10207-2025</t>
+          <t>A 28605-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45719</v>
+        <v>45103.5830787037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8855,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8897,14 +8892,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 35244-2023</t>
+          <t>A 52321-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45145.88350694445</v>
+        <v>45953.66415509259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8912,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8954,14 +8949,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1394-2026</t>
+          <t>A 35244-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46031.63753472222</v>
+        <v>45145.88350694445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8969,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9011,14 +9006,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1384-2026</t>
+          <t>A 17007-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46031.62291666667</v>
+        <v>45755.54241898148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9026,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9068,14 +9063,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1400-2026</t>
+          <t>A 17011-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46031.6427662037</v>
+        <v>45755.54761574074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9083,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9125,14 +9120,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1347-2026</t>
+          <t>A 16567-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46031.59274305555</v>
+        <v>45752.46074074074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9140,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9182,14 +9177,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 7817-2024</t>
+          <t>A 16568-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45349</v>
+        <v>45752.46453703703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9197,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>8.9</v>
+        <v>2.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9239,14 +9234,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 46901-2023</t>
+          <t>A 16570-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45201</v>
+        <v>45752.47210648148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9254,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9296,14 +9291,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 40661-2023</t>
+          <t>A 53538-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45170</v>
+        <v>45959</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9311,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9353,14 +9348,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 11282-2024</t>
+          <t>A 46901-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45371.72210648148</v>
+        <v>45201</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9410,14 +9405,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 3837-2025</t>
+          <t>A 10207-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45682.66153935185</v>
+        <v>45719</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9425,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9467,14 +9462,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 12420-2025</t>
+          <t>A 40960-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45730.45248842592</v>
+        <v>45169</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9482,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9524,14 +9519,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 2293-2025</t>
+          <t>A 59349-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45673.59221064814</v>
+        <v>45638.2815162037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9539,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9581,14 +9576,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2294-2025</t>
+          <t>A 8371-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45673.59290509259</v>
+        <v>44977.385625</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9596,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9638,14 +9633,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 1221-2026</t>
+          <t>A 55693-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46031.4018287037</v>
+        <v>45972.43956018519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9657,13 +9652,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9700,14 +9690,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 40157-2023</t>
+          <t>A 56310-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45169.36275462963</v>
+        <v>45974.62328703704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9720,7 +9710,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9757,14 +9747,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 4438-2025</t>
+          <t>A 56373-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45686.51674768519</v>
+        <v>45974.68520833334</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9777,7 +9767,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9814,14 +9804,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 14742-2022</t>
+          <t>A 16573-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44656</v>
+        <v>45752</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9834,7 +9824,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>9.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9871,14 +9861,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 16465-2025</t>
+          <t>A 11075-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45751.53894675926</v>
+        <v>44260</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9891,7 +9881,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9928,14 +9918,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 14745-2022</t>
+          <t>A 8020-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44656</v>
+        <v>45707.569375</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9948,7 +9938,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9985,14 +9975,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 49925-2023</t>
+          <t>A 46006-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45214.86449074074</v>
+        <v>44846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10005,7 +9995,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10042,14 +10032,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 59332-2024</t>
+          <t>A 58356-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45637.79350694444</v>
+        <v>45985.5115162037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10062,7 +10052,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10099,14 +10089,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 24566-2023</t>
+          <t>A 16350-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45083.51130787037</v>
+        <v>44670</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10119,7 +10109,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>13.1</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10156,14 +10146,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16350-2022</t>
+          <t>A 2495-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44670</v>
+        <v>45313</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10176,7 +10166,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10213,14 +10203,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 14064-2025</t>
+          <t>A 1347-2026</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45740.41469907408</v>
+        <v>46031.59274305555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10233,7 +10223,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10270,14 +10260,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 16572-2025</t>
+          <t>A 1400-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45752.48247685185</v>
+        <v>46031.6427662037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10290,7 +10280,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10327,14 +10317,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 16569-2025</t>
+          <t>A 1384-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45752.46914351852</v>
+        <v>46031.62291666667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10347,7 +10337,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10384,14 +10374,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 6222-2024</t>
+          <t>A 1394-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45337.64701388889</v>
+        <v>46031.63753472222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10404,7 +10394,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10441,14 +10431,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 62586-2025</t>
+          <t>A 59332-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46007.84753472222</v>
+        <v>45637.79350694444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10461,7 +10451,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10498,14 +10488,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34914-2022</t>
+          <t>A 9892-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44796</v>
+        <v>45716.70597222223</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10518,7 +10508,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10555,14 +10545,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 16821-2025</t>
+          <t>A 23787-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45754.64318287037</v>
+        <v>45455.42315972222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10575,7 +10565,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10612,14 +10602,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62956-2025</t>
+          <t>A 10206-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46009</v>
+        <v>45719</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10632,7 +10622,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10669,14 +10659,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 11515-2024</t>
+          <t>A 16449-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45372.77957175926</v>
+        <v>45751.5106712963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10688,13 +10678,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10731,14 +10716,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63613-2025</t>
+          <t>A 1221-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46014.34581018519</v>
+        <v>46031.4018287037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10750,8 +10735,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10788,14 +10778,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 15707-2025</t>
+          <t>A 11515-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45748.49090277778</v>
+        <v>45372.77957175926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10807,8 +10797,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.7</v>
+        <v>7.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10845,14 +10840,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 2497-2024</t>
+          <t>A 14064-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45313</v>
+        <v>45740.41469907408</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10865,7 +10860,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10902,14 +10897,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6690-2023</t>
+          <t>A 7181-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44966</v>
+        <v>44970</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10921,8 +10916,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10955,18 +10955,38 @@
         <v>0</v>
       </c>
       <c r="R176" s="2" t="inlineStr"/>
+      <c r="U176">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="V176">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="W176">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="X176">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="Y176">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 28791-2024</t>
+          <t>A 62586-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45478.613125</v>
+        <v>46007.84753472222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10979,7 +10999,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11016,14 +11036,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 9892-2025</t>
+          <t>A 62956-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45716.70597222223</v>
+        <v>46009</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11036,7 +11056,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11073,14 +11093,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 11281-2024</t>
+          <t>A 4355-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45371.71887731482</v>
+        <v>44954.598125</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11093,7 +11113,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11130,14 +11150,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 4356-2023</t>
+          <t>A 22110-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44954.60174768518</v>
+        <v>44323.6992824074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11150,7 +11170,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11187,14 +11207,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11457-2023</t>
+          <t>A 2497-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44993.58428240741</v>
+        <v>45313</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11207,7 +11227,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11244,14 +11264,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6194-2023</t>
+          <t>A 12420-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44964</v>
+        <v>45730.45248842592</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11264,7 +11284,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11301,14 +11321,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 23128-2024</t>
+          <t>A 14743-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45450.61440972222</v>
+        <v>44656.37567129629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11321,7 +11341,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11358,14 +11378,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 7181-2023</t>
+          <t>A 14748-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44970</v>
+        <v>44656</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11377,13 +11397,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11416,38 +11431,18 @@
         <v>0</v>
       </c>
       <c r="R184" s="2" t="inlineStr"/>
-      <c r="U184">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="V184">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="W184">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="X184">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="Y184">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 28605-2023</t>
+          <t>A 39353-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45103.5830787037</v>
+        <v>44817</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11460,7 +11455,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11497,14 +11492,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 71048-2021</t>
+          <t>A 57025-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44538</v>
+        <v>44895</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11517,7 +11512,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11554,14 +11549,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11075-2021</t>
+          <t>A 23789-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44260</v>
+        <v>45455.42549768519</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11574,7 +11569,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11611,14 +11606,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 6980-2021</t>
+          <t>A 1489-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44237</v>
+        <v>45305</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11631,7 +11626,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11668,14 +11663,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 51118-2023</t>
+          <t>A 52385-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45219</v>
+        <v>44869</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11688,7 +11683,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>10.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11725,14 +11720,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 56876-2023</t>
+          <t>A 2293-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45244</v>
+        <v>45673.59221064814</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11745,7 +11740,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11782,14 +11777,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 24568-2023</t>
+          <t>A 2294-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45083.5209837963</v>
+        <v>45673.59290509259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11802,7 +11797,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11839,14 +11834,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 23789-2024</t>
+          <t>A 15707-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45455.42549768519</v>
+        <v>45748.49090277778</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11859,7 +11854,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11896,14 +11891,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 4359-2023</t>
+          <t>A 56145-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44954.69856481482</v>
+        <v>44889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11916,7 +11911,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.5</v>
+        <v>14.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11953,14 +11948,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 6208-2023</t>
+          <t>A 63613-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44964.8028587963</v>
+        <v>46014.34581018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11973,7 +11968,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12010,14 +12005,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 17007-2025</t>
+          <t>A 62232-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45755.54241898148</v>
+        <v>44922</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12030,7 +12025,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12067,14 +12062,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 17011-2025</t>
+          <t>A 57195-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45755.54761574074</v>
+        <v>45629.47</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12086,8 +12081,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12124,14 +12124,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 22270-2024</t>
+          <t>A 4356-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45446</v>
+        <v>44954.60174768518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12181,14 +12181,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 2642-2025</t>
+          <t>A 4359-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45676.46021990741</v>
+        <v>44954.69856481482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12238,14 +12238,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 22110-2021</t>
+          <t>A 12273-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44323.6992824074</v>
+        <v>44998</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12295,14 +12295,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 27549-2022</t>
+          <t>A 50297-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44742.8079050926</v>
+        <v>44865.92474537037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12352,14 +12352,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 20671-2022</t>
+          <t>A 11457-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44700.65571759259</v>
+        <v>44993.58428240741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12409,14 +12409,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 3946-2023</t>
+          <t>A 56876-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44952.37013888889</v>
+        <v>45244</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12466,14 +12466,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 55295-2024</t>
+          <t>A 7268-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45621</v>
+        <v>45702.60103009259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12523,14 +12523,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 55296-2024</t>
+          <t>A 24568-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45621</v>
+        <v>45083.5209837963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12580,14 +12580,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 10206-2025</t>
+          <t>A 1794-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45719</v>
+        <v>44938.6234837963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12637,14 +12637,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 64387-2023</t>
+          <t>A 34914-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45280.58269675926</v>
+        <v>44796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12694,14 +12694,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 4252-2024</t>
+          <t>A 14742-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45324.48243055555</v>
+        <v>44656</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12751,14 +12751,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 4957-2022</t>
+          <t>A 14745-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44593</v>
+        <v>44656</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12808,14 +12808,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 29527-2024</t>
+          <t>A 26757-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45484.46942129629</v>
+        <v>45469</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12865,14 +12865,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 6209-2023</t>
+          <t>A 42872-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44964.80540509259</v>
+        <v>44832</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12922,14 +12922,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 12423-2025</t>
+          <t>A 3775-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45730.45483796296</v>
+        <v>45321</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12979,14 +12979,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 14033-2025</t>
+          <t>A 40661-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45740.36262731482</v>
+        <v>45170</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13036,14 +13036,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 24440-2025</t>
+          <t>A 15489-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45797.82753472222</v>
+        <v>45401</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13093,14 +13093,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 24439-2025</t>
+          <t>A 11117-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45797.82457175926</v>
+        <v>44992.45543981482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13150,14 +13150,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 14029-2025</t>
+          <t>A 11282-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45740.35556712963</v>
+        <v>45371.72210648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13207,14 +13207,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 25863-2025</t>
+          <t>A 16465-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45804.47696759259</v>
+        <v>45751.53894675926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13264,14 +13264,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 26397-2025</t>
+          <t>A 51118-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45807</v>
+        <v>45219</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13318,17 +13318,17 @@
       </c>
       <c r="R217" s="2" t="inlineStr"/>
     </row>
-    <row r="218" ht="15" customHeight="1">
+    <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 27413-2025</t>
+          <t>A 3946-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45812.84489583333</v>
+        <v>44952.37013888889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13374,63 +13374,6 @@
         <v>0</v>
       </c>
       <c r="R218" s="2" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>A 27414-2025</t>
-        </is>
-      </c>
-      <c r="B219" s="1" t="n">
-        <v>45812.84578703704</v>
-      </c>
-      <c r="C219" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
-        <v>5</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0</v>
-      </c>
-      <c r="L219" t="n">
-        <v>0</v>
-      </c>
-      <c r="M219" t="n">
-        <v>0</v>
-      </c>
-      <c r="N219" t="n">
-        <v>0</v>
-      </c>
-      <c r="O219" t="n">
-        <v>0</v>
-      </c>
-      <c r="P219" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q219" t="n">
-        <v>0</v>
-      </c>
-      <c r="R219" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z218"/>
+  <dimension ref="A1:Z217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 7365-2023</t>
+          <t>A 35828-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44971</v>
+        <v>45532.67104166667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,166 +778,166 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 35828-2024 artfynd.xlsx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 35828-2024 karta.png", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 35828-2024 FSC-klagomål.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 35828-2024 FSC-klagomål mail.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 35828-2024 tillsynsbegäran.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 35828-2024 tillsynsbegäran mail.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 7365-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 35828-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45532.67104166667</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 35828-2024 artfynd.xlsx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 35828-2024 karta.png", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 35828-2024 FSC-klagomål.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 35828-2024 FSC-klagomål mail.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 35828-2024 tillsynsbegäran.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 35828-2024 tillsynsbegäran mail.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 13882-2023</t>
+          <t>A 56244-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45007</v>
+        <v>44890</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -949,14 +949,19 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -984,652 +989,647 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 13882-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 31093-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45832.5953125</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 15498-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 15498-2024 artfynd.xlsx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 15498-2024 karta.png", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 15498-2024 karta knärot.png", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 15498-2024 FSC-klagomål.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 15498-2024 FSC-klagomål mail.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 15498-2024 tillsynsbegäran.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 15498-2024 tillsynsbegäran mail.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 17410-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45414.89228009259</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Mörk husmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 16446-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45751.50320601852</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Dvärghäxört</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 45507-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45578</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 44654-2023</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45189</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G13" t="n">
         <v>4.7</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Igelkott</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 44654-2023 artfynd.xlsx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 44654-2023 karta.png", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 44654-2023 FSC-klagomål.docx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 44654-2023 FSC-klagomål mail.docx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 44654-2023 tillsynsbegäran.docx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 44654-2023 tillsynsbegäran mail.docx", "A 44654-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 45507-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45578</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 31093-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45832.5953125</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 56244-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44890</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 15498-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 15498-2024 artfynd.xlsx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 15498-2024 karta.png", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 15498-2024 karta knärot.png", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 15498-2024 FSC-klagomål.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 15498-2024 FSC-klagomål mail.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 15498-2024 tillsynsbegäran.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 15498-2024 tillsynsbegäran mail.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 16446-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45751.50320601852</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Dvärghäxört</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 17410-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45414.89228009259</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Mörk husmossa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1804,14 +1804,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 7176-2021</t>
+          <t>A 24817-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44238</v>
+        <v>44340.69202546297</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1861,14 +1861,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24817-2021</t>
+          <t>A 55888-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44340.69202546297</v>
+        <v>44476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1918,14 +1918,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 55888-2021</t>
+          <t>A 55897-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44476</v>
+        <v>44476.84085648148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1975,14 +1975,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 55897-2021</t>
+          <t>A 65495-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44476.84085648148</v>
+        <v>44516</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1994,8 +1994,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2032,14 +2037,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 65495-2021</t>
+          <t>A 65493-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2057,7 +2062,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2094,14 +2099,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 65493-2021</t>
+          <t>A 39354-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44516</v>
+        <v>44817</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2113,13 +2118,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2156,14 +2156,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 39354-2022</t>
+          <t>A 52062-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44817</v>
+        <v>44873</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2213,14 +2213,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 52062-2022</t>
+          <t>A 15468-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44873</v>
+        <v>44285.43929398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2270,14 +2270,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 15468-2021</t>
+          <t>A 52058-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44285.43929398148</v>
+        <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2327,14 +2327,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 52058-2022</t>
+          <t>A 13095-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44873</v>
+        <v>44272</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2384,14 +2384,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 50161-2021</t>
+          <t>A 57229-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44456</v>
+        <v>44483</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,13 +2403,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2446,14 +2441,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 55896-2021</t>
+          <t>A 7654-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44476.83903935185</v>
+        <v>44607</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2466,7 +2461,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2503,14 +2498,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 43594-2021</t>
+          <t>A 50161-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44433.46096064815</v>
+        <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2522,8 +2517,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2560,14 +2560,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 53664-2021</t>
+          <t>A 55896-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44469.44841435185</v>
+        <v>44476.83903935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2617,14 +2617,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 38996-2021</t>
+          <t>A 36580-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44412.36203703703</v>
+        <v>44391</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2674,14 +2674,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 57229-2021</t>
+          <t>A 9903-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44483</v>
+        <v>44620</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>16.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2731,14 +2731,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 24816-2021</t>
+          <t>A 43594-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44340.68202546296</v>
+        <v>44433.46096064815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2788,14 +2788,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 36580-2021</t>
+          <t>A 47692-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44391</v>
+        <v>44854</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2845,14 +2845,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 9903-2022</t>
+          <t>A 53664-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44620</v>
+        <v>44469.44841435185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>16.8</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2902,14 +2902,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 47692-2022</t>
+          <t>A 38996-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44854</v>
+        <v>44412.36203703703</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2959,14 +2959,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13095-2021</t>
+          <t>A 24816-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44272</v>
+        <v>44340.68202546296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3016,14 +3016,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7654-2022</t>
+          <t>A 13811-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44607</v>
+        <v>44649.5895949074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3073,14 +3073,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 13811-2022</t>
+          <t>A 62452-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44649.5895949074</v>
+        <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3130,14 +3130,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62452-2021</t>
+          <t>A 21691-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44503</v>
+        <v>44707.73799768519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3187,14 +3187,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 27760-2022</t>
+          <t>A 16133-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44743</v>
+        <v>44665</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3244,14 +3244,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21691-2022</t>
+          <t>A 57025-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44707.73799768519</v>
+        <v>44895</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3301,14 +3301,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 16133-2022</t>
+          <t>A 27760-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44665</v>
+        <v>44743</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3415,14 +3415,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11227-2025</t>
+          <t>A 16813-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45726.34702546296</v>
+        <v>45754.63344907408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47860-2023</t>
+          <t>A 50297-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45204</v>
+        <v>44865.92474537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 14230-2024</t>
+          <t>A 6210-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45393</v>
+        <v>44964.80734953703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23128-2024</t>
+          <t>A 6212-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45450.61440972222</v>
+        <v>44964.81168981481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,14 +3643,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10742-2025</t>
+          <t>A 6214-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45722.41454861111</v>
+        <v>44964.81380787037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35245-2023</t>
+          <t>A 52385-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45145.88599537037</v>
+        <v>44869</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>10.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15189-2023</t>
+          <t>A 16567-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45016.70493055556</v>
+        <v>45752.46074074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 3837-2025</t>
+          <t>A 16568-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45682.66153935185</v>
+        <v>45752.46453703703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3871,14 +3871,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 16571-2025</t>
+          <t>A 16570-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45752.47685185185</v>
+        <v>45752.47210648148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3928,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58712-2023</t>
+          <t>A 7278-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45251</v>
+        <v>45702.63168981481</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3985,14 +3985,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37797-2024</t>
+          <t>A 26757-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45543.54533564814</v>
+        <v>45469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37798-2024</t>
+          <t>A 35113-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45543.54836805556</v>
+        <v>45529.83986111111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4099,14 +4099,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28791-2024</t>
+          <t>A 39988-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45478.613125</v>
+        <v>45553.62432870371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39590-2025</t>
+          <t>A 30641-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45890.52939814814</v>
+        <v>45495.57349537037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4213,14 +4213,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 21687-2022</t>
+          <t>A 56145-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44707</v>
+        <v>44889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>14.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16349-2022</t>
+          <t>A 10742-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44670</v>
+        <v>45722.41454861111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 71048-2021</t>
+          <t>A 2495-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44538</v>
+        <v>45313</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11281-2024</t>
+          <t>A 16449-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45371.71887731482</v>
+        <v>45751.5106712963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 6210-2023</t>
+          <t>A 33875-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44964.80734953703</v>
+        <v>45521</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6212-2023</t>
+          <t>A 6196-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44964.81168981481</v>
+        <v>44964.73979166667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57423-2023</t>
+          <t>A 4355-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45246.22380787037</v>
+        <v>44954.598125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16572-2025</t>
+          <t>A 3775-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45752.48247685185</v>
+        <v>45321</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42155-2025</t>
+          <t>A 39353-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45904.40079861111</v>
+        <v>44817</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,13 +4688,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4731,14 +4726,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49734-2024</t>
+          <t>A 57500-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45596.84884259259</v>
+        <v>44896.63857638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4751,7 +4746,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4788,14 +4783,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 64387-2023</t>
+          <t>A 14226-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45280.58269675926</v>
+        <v>45393</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4808,7 +4803,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5.8</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4845,14 +4840,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4252-2024</t>
+          <t>A 7268-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45324.48243055555</v>
+        <v>45702.60103009259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4865,7 +4860,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4902,14 +4897,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33875-2024</t>
+          <t>A 14230-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45521</v>
+        <v>45393</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4922,7 +4917,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4959,14 +4954,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4957-2022</t>
+          <t>A 11117-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44593</v>
+        <v>44992.45543981482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4979,7 +4974,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5016,14 +5011,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59503-2024</t>
+          <t>A 1794-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45638.55125</v>
+        <v>44938.6234837963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5036,7 +5031,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5073,14 +5068,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43134-2025</t>
+          <t>A 35245-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45909.83324074074</v>
+        <v>45145.88599537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5093,7 +5088,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5130,14 +5125,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39988-2024</t>
+          <t>A 46006-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45553.62432870371</v>
+        <v>44846</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5150,7 +5145,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5187,14 +5182,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24566-2023</t>
+          <t>A 7821-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45083.51130787037</v>
+        <v>45349</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5207,7 +5202,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>13.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5244,14 +5239,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6690-2023</t>
+          <t>A 7823-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44966</v>
+        <v>45349</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5264,7 +5259,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5301,14 +5296,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 29527-2024</t>
+          <t>A 42872-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45484.46942129629</v>
+        <v>44832</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5321,7 +5316,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5358,14 +5353,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6209-2023</t>
+          <t>A 1489-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44964.80540509259</v>
+        <v>45305</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5378,7 +5373,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5415,14 +5410,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16821-2025</t>
+          <t>A 23787-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45754.64318287037</v>
+        <v>45455.42315972222</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5435,7 +5430,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5472,14 +5467,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40157-2023</t>
+          <t>A 28605-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45169.36275462963</v>
+        <v>45103.5830787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5492,7 +5487,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5529,14 +5524,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35113-2024</t>
+          <t>A 16349-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45529.83986111111</v>
+        <v>44670</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5549,7 +5544,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5586,14 +5581,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7817-2024</t>
+          <t>A 39990-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45349</v>
+        <v>45553.62622685185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5606,7 +5601,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.9</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5643,14 +5638,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 16467-2025</t>
+          <t>A 19107-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45751.54304398148</v>
+        <v>45048.45601851852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5663,7 +5658,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5700,14 +5695,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 24440-2025</t>
+          <t>A 26397-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45797.82753472222</v>
+        <v>45807</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5720,7 +5715,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5757,14 +5752,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12423-2025</t>
+          <t>A 59349-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45730.45483796296</v>
+        <v>45638.2815162037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5777,7 +5772,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5814,14 +5809,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14033-2025</t>
+          <t>A 15489-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45740.36262731482</v>
+        <v>45401</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5834,7 +5829,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5871,14 +5866,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24439-2025</t>
+          <t>A 14743-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45797.82457175926</v>
+        <v>44656.37567129629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5891,7 +5886,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5928,14 +5923,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14029-2025</t>
+          <t>A 14748-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45740.35556712963</v>
+        <v>44656</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5948,7 +5943,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5985,14 +5980,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 16813-2025</t>
+          <t>A 62232-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45754.63344907408</v>
+        <v>44922</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6005,7 +6000,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6042,14 +6037,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4438-2025</t>
+          <t>A 27413-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45686.51674768519</v>
+        <v>45812.84489583333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6062,7 +6057,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6099,14 +6094,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30641-2024</t>
+          <t>A 27414-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45495.57349537037</v>
+        <v>45812.84578703704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6119,7 +6114,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6156,14 +6151,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25863-2025</t>
+          <t>A 21687-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45804.47696759259</v>
+        <v>44707</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6176,7 +6171,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6213,14 +6208,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 26397-2025</t>
+          <t>A 37797-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45807</v>
+        <v>45543.54533564814</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6233,7 +6228,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>6.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6270,14 +6265,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27549-2022</t>
+          <t>A 37798-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44742.8079050926</v>
+        <v>45543.54836805556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6290,7 +6285,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6327,14 +6322,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16569-2025</t>
+          <t>A 16571-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45752.46914351852</v>
+        <v>45752.47685185185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6347,7 +6342,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>10.5</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6384,14 +6379,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27414-2025</t>
+          <t>A 49733-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45812.84578703704</v>
+        <v>45596.84603009259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6404,7 +6399,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>15.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6441,14 +6436,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 27413-2025</t>
+          <t>A 28942-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45812.84489583333</v>
+        <v>45820</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6461,7 +6456,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6498,14 +6493,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5832-2025</t>
+          <t>A 58712-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45694.84364583333</v>
+        <v>45251</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6518,7 +6513,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6555,14 +6550,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7278-2025</t>
+          <t>A 28940-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45702.63168981481</v>
+        <v>45820</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6575,7 +6570,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6612,14 +6607,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28940-2025</t>
+          <t>A 28941-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>45820</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6632,7 +6627,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.7</v>
+        <v>2.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6669,14 +6664,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28941-2025</t>
+          <t>A 71048-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45820</v>
+        <v>44538</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6689,7 +6684,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6726,14 +6721,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28942-2025</t>
+          <t>A 12273-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45820</v>
+        <v>44998</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6746,7 +6741,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6783,14 +6778,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46536-2025</t>
+          <t>A 57195-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45926.34168981481</v>
+        <v>45629.47</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,8 +6797,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6840,14 +6840,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 46539-2025</t>
+          <t>A 10207-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45926.34392361111</v>
+        <v>45719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6897,14 +6897,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 19107-2023</t>
+          <t>A 11075-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45048.45601851852</v>
+        <v>44260</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6954,14 +6954,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 46533-2025</t>
+          <t>A 35244-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45926.34030092593</v>
+        <v>45145.88350694445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7011,14 +7011,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46848-2025</t>
+          <t>A 51118-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45928.71738425926</v>
+        <v>45219</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7068,14 +7068,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6196-2023</t>
+          <t>A 7817-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44964.73979166667</v>
+        <v>45349</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>8.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7125,14 +7125,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 6208-2023</t>
+          <t>A 46901-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44964.8028587963</v>
+        <v>45201</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7182,14 +7182,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 58378-2024</t>
+          <t>A 59503-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45632.81232638889</v>
+        <v>45638.55125</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7239,14 +7239,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32099-2025</t>
+          <t>A 8371-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45835.46706018518</v>
+        <v>44977.385625</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7296,14 +7296,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 48096-2025</t>
+          <t>A 40661-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45933.30746527778</v>
+        <v>45170</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7353,14 +7353,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48095-2025</t>
+          <t>A 56876-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45933.30634259259</v>
+        <v>45244</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7410,14 +7410,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 49733-2024</t>
+          <t>A 11282-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45596.84603009259</v>
+        <v>45371.72210648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>15.1</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7467,14 +7467,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 32856-2025</t>
+          <t>A 24568-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45839.57771990741</v>
+        <v>45083.5209837963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7524,14 +7524,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 39990-2024</t>
+          <t>A 3837-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45553.62622685185</v>
+        <v>45682.66153935185</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7581,14 +7581,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 14226-2024</t>
+          <t>A 32099-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45393</v>
+        <v>45835.46706018518</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7638,14 +7638,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 48911-2025</t>
+          <t>A 23789-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45937</v>
+        <v>45455.42549768519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7695,14 +7695,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 55293-2024</t>
+          <t>A 32856-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45621</v>
+        <v>45839.57771990741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7752,14 +7752,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 55295-2024</t>
+          <t>A 12420-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45621</v>
+        <v>45730.45248842592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7809,14 +7809,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 55296-2024</t>
+          <t>A 2293-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45621</v>
+        <v>45673.59221064814</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7866,14 +7866,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 49024-2025</t>
+          <t>A 2294-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45937.61747685185</v>
+        <v>45673.59290509259</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7923,14 +7923,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 57500-2022</t>
+          <t>A 40157-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44896.63857638889</v>
+        <v>45169.36275462963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7980,14 +7980,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 2642-2025</t>
+          <t>A 8020-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45676.46021990741</v>
+        <v>45707.569375</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8037,14 +8037,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 49025-2025</t>
+          <t>A 4438-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45937.61915509259</v>
+        <v>45686.51674768519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8094,14 +8094,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 20671-2022</t>
+          <t>A 14742-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44700.65571759259</v>
+        <v>44656</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8151,14 +8151,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6222-2024</t>
+          <t>A 16465-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45337.64701388889</v>
+        <v>45751.53894675926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8208,14 +8208,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 49779-2025</t>
+          <t>A 14745-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45940.386875</v>
+        <v>44656</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8265,14 +8265,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 7821-2024</t>
+          <t>A 49925-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45349</v>
+        <v>45214.86449074074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>8.199999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8322,14 +8322,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 7823-2024</t>
+          <t>A 59332-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45349</v>
+        <v>45637.79350694444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8379,14 +8379,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 37131-2025</t>
+          <t>A 4359-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45875.54335648148</v>
+        <v>44954.69856481482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8436,14 +8436,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 22270-2024</t>
+          <t>A 6208-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45446</v>
+        <v>44964.8028587963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8493,14 +8493,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37133-2025</t>
+          <t>A 17007-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45875.54409722222</v>
+        <v>45755.54241898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8550,14 +8550,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 6194-2023</t>
+          <t>A 17011-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44964</v>
+        <v>45755.54761574074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8607,14 +8607,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 6214-2023</t>
+          <t>A 24566-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44964.81380787037</v>
+        <v>45083.51130787037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>13.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8664,14 +8664,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49925-2023</t>
+          <t>A 16350-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45214.86449074074</v>
+        <v>44670</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8721,14 +8721,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37427-2025</t>
+          <t>A 47860-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45877.49123842592</v>
+        <v>45204</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8778,14 +8778,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 37424-2025</t>
+          <t>A 49734-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45877.4903125</v>
+        <v>45596.84884259259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8835,14 +8835,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 28605-2023</t>
+          <t>A 58378-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45103.5830787037</v>
+        <v>45632.81232638889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8892,14 +8892,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 52321-2025</t>
+          <t>A 14064-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45953.66415509259</v>
+        <v>45740.41469907408</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8949,14 +8949,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35244-2023</t>
+          <t>A 16572-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45145.88350694445</v>
+        <v>45752.48247685185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9006,14 +9006,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 17007-2025</t>
+          <t>A 5832-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45755.54241898148</v>
+        <v>45694.84364583333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9063,14 +9063,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 17011-2025</t>
+          <t>A 16569-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45755.54761574074</v>
+        <v>45752.46914351852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.7</v>
+        <v>10.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9120,14 +9120,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16567-2025</t>
+          <t>A 55293-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45752.46074074074</v>
+        <v>45621</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9177,14 +9177,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 16568-2025</t>
+          <t>A 6222-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45752.46453703703</v>
+        <v>45337.64701388889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9234,14 +9234,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 16570-2025</t>
+          <t>A 34914-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45752.47210648148</v>
+        <v>44796</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9291,14 +9291,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 53538-2025</t>
+          <t>A 37131-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45959</v>
+        <v>45875.54335648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 46901-2023</t>
+          <t>A 37133-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45201</v>
+        <v>45875.54409722222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9405,14 +9405,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 10207-2025</t>
+          <t>A 16821-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45719</v>
+        <v>45754.64318287037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9462,14 +9462,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 40960-2023</t>
+          <t>A 37427-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45169</v>
+        <v>45877.49123842592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9519,14 +9519,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 59349-2024</t>
+          <t>A 37424-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45638.2815162037</v>
+        <v>45877.4903125</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 8371-2023</t>
+          <t>A 11515-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44977.385625</v>
+        <v>45372.77957175926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9595,8 +9595,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9633,14 +9638,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 55693-2025</t>
+          <t>A 2497-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45972.43956018519</v>
+        <v>45313</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9653,7 +9658,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9690,14 +9695,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56310-2025</t>
+          <t>A 16467-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45974.62328703704</v>
+        <v>45751.54304398148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9710,7 +9715,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9747,14 +9752,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56373-2025</t>
+          <t>A 16573-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45974.68520833334</v>
+        <v>45752</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9767,7 +9772,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.9</v>
+        <v>9.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9804,14 +9809,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 16573-2025</t>
+          <t>A 40960-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45752</v>
+        <v>45169</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9824,7 +9829,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>9.6</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9861,14 +9866,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 11075-2021</t>
+          <t>A 57423-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44260</v>
+        <v>45246.22380787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9881,7 +9886,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9918,14 +9923,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 8020-2025</t>
+          <t>A 15189-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45707.569375</v>
+        <v>45016.70493055556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9938,7 +9943,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9975,14 +9980,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 46006-2022</t>
+          <t>A 6690-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44846</v>
+        <v>44966</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9995,7 +10000,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10032,14 +10037,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 58356-2025</t>
+          <t>A 22270-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45985.5115162037</v>
+        <v>45446</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10052,7 +10057,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10089,14 +10094,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 16350-2022</t>
+          <t>A 28791-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44670</v>
+        <v>45478.613125</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10146,14 +10151,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 2495-2024</t>
+          <t>A 9892-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45313</v>
+        <v>45716.70597222223</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10166,7 +10171,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10203,14 +10208,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 1347-2026</t>
+          <t>A 11281-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46031.59274305555</v>
+        <v>45371.71887731482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10223,7 +10228,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10260,14 +10265,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 1400-2026</t>
+          <t>A 4356-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46031.6427662037</v>
+        <v>44954.60174768518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10280,7 +10285,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10317,14 +10322,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 1384-2026</t>
+          <t>A 2642-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46031.62291666667</v>
+        <v>45676.46021990741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10337,7 +10342,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10374,14 +10379,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 1394-2026</t>
+          <t>A 11457-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46031.63753472222</v>
+        <v>44993.58428240741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10394,7 +10399,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10431,14 +10436,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 59332-2024</t>
+          <t>A 6194-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45637.79350694444</v>
+        <v>44964</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10451,7 +10456,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10488,14 +10493,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 9892-2025</t>
+          <t>A 23128-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45716.70597222223</v>
+        <v>45450.61440972222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10508,7 +10513,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10545,14 +10550,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 23787-2024</t>
+          <t>A 39590-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45455.42315972222</v>
+        <v>45890.52939814814</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10565,7 +10570,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10602,14 +10607,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 10206-2025</t>
+          <t>A 7181-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45719</v>
+        <v>44970</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10621,8 +10626,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10655,18 +10665,38 @@
         <v>0</v>
       </c>
       <c r="R171" s="2" t="inlineStr"/>
+      <c r="U171">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="V171">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="W171">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="X171">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="Y171">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 16449-2025</t>
+          <t>A 11227-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45751.5106712963</v>
+        <v>45726.34702546296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10679,7 +10709,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.7</v>
+        <v>6.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10716,14 +10746,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 1221-2026</t>
+          <t>A 22110-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46031.4018287037</v>
+        <v>44323.6992824074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10735,13 +10765,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10778,14 +10803,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 11515-2024</t>
+          <t>A 27549-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45372.77957175926</v>
+        <v>44742.8079050926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10797,13 +10822,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10840,14 +10860,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 14064-2025</t>
+          <t>A 42155-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45740.41469907408</v>
+        <v>45904.40079861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10859,8 +10879,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10897,14 +10922,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 7181-2023</t>
+          <t>A 20671-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44970</v>
+        <v>44700.65571759259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10916,13 +10941,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10955,38 +10975,18 @@
         <v>0</v>
       </c>
       <c r="R176" s="2" t="inlineStr"/>
-      <c r="U176">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="V176">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="W176">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="X176">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="Y176">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62586-2025</t>
+          <t>A 3946-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46007.84753472222</v>
+        <v>44952.37013888889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11036,14 +11036,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 62956-2025</t>
+          <t>A 43134-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46009</v>
+        <v>45909.83324074074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11093,14 +11093,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 4355-2023</t>
+          <t>A 55295-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44954.598125</v>
+        <v>45621</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11150,14 +11150,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 22110-2021</t>
+          <t>A 55296-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44323.6992824074</v>
+        <v>45621</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11207,14 +11207,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 2497-2024</t>
+          <t>A 10206-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45313</v>
+        <v>45719</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11264,14 +11264,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 12420-2025</t>
+          <t>A 46533-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45730.45248842592</v>
+        <v>45926.34030092593</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11321,14 +11321,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 14743-2022</t>
+          <t>A 46539-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44656.37567129629</v>
+        <v>45926.34392361111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11378,14 +11378,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 14748-2022</t>
+          <t>A 46536-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44656</v>
+        <v>45926.34168981481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11435,14 +11435,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 39353-2022</t>
+          <t>A 64387-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44817</v>
+        <v>45280.58269675926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11492,14 +11492,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 57025-2022</t>
+          <t>A 46848-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44895</v>
+        <v>45928.71738425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11549,14 +11549,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 23789-2024</t>
+          <t>A 4252-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45455.42549768519</v>
+        <v>45324.48243055555</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11606,14 +11606,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 1489-2024</t>
+          <t>A 4957-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45305</v>
+        <v>44593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11663,14 +11663,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 52385-2022</t>
+          <t>A 48096-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44869</v>
+        <v>45933.30746527778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>10.9</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11720,14 +11720,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 2293-2025</t>
+          <t>A 48095-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45673.59221064814</v>
+        <v>45933.30634259259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11777,14 +11777,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2294-2025</t>
+          <t>A 49024-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45673.59290509259</v>
+        <v>45937.61747685185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11834,14 +11834,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 15707-2025</t>
+          <t>A 49025-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45748.49090277778</v>
+        <v>45937.61915509259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11891,14 +11891,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 56145-2022</t>
+          <t>A 48911-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44889</v>
+        <v>45937</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>14.1</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11948,14 +11948,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 63613-2025</t>
+          <t>A 49779-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46014.34581018519</v>
+        <v>45940.386875</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12005,14 +12005,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 62232-2022</t>
+          <t>A 29527-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44922</v>
+        <v>45484.46942129629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12062,14 +12062,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 57195-2024</t>
+          <t>A 6209-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45629.47</v>
+        <v>44964.80540509259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12081,13 +12081,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12124,14 +12119,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 4356-2023</t>
+          <t>A 52321-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44954.60174768518</v>
+        <v>45953.66415509259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12144,7 +12139,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12181,14 +12176,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 4359-2023</t>
+          <t>A 12423-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44954.69856481482</v>
+        <v>45730.45483796296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12201,7 +12196,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12238,14 +12233,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 12273-2023</t>
+          <t>A 14033-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44998</v>
+        <v>45740.36262731482</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12258,7 +12253,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12295,14 +12290,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 50297-2022</t>
+          <t>A 53538-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44865.92474537037</v>
+        <v>45959</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12315,7 +12310,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12352,14 +12347,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 11457-2023</t>
+          <t>A 24440-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44993.58428240741</v>
+        <v>45797.82753472222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12372,7 +12367,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12409,14 +12404,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 56876-2023</t>
+          <t>A 24439-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45244</v>
+        <v>45797.82457175926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12429,7 +12424,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12466,14 +12461,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7268-2025</t>
+          <t>A 14029-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45702.60103009259</v>
+        <v>45740.35556712963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12486,7 +12481,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12523,14 +12518,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 24568-2023</t>
+          <t>A 25863-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45083.5209837963</v>
+        <v>45804.47696759259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12543,7 +12538,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12580,14 +12575,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 1794-2023</t>
+          <t>A 55693-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44938.6234837963</v>
+        <v>45972.43956018519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12600,7 +12595,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12637,14 +12632,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 34914-2022</t>
+          <t>A 56310-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44796</v>
+        <v>45974.62328703704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12657,7 +12652,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12694,14 +12689,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 14742-2022</t>
+          <t>A 56373-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44656</v>
+        <v>45974.68520833334</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12714,7 +12709,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12751,14 +12746,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 14745-2022</t>
+          <t>A 58356-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44656</v>
+        <v>45985.5115162037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12771,7 +12766,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12808,14 +12803,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 26757-2024</t>
+          <t>A 1394-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45469</v>
+        <v>46031.63753472222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12828,7 +12823,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12865,14 +12860,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 42872-2022</t>
+          <t>A 1384-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44832</v>
+        <v>46031.62291666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12885,7 +12880,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12922,14 +12917,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 3775-2024</t>
+          <t>A 1400-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45321</v>
+        <v>46031.6427662037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12942,7 +12937,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12979,14 +12974,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 40661-2023</t>
+          <t>A 1347-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45170</v>
+        <v>46031.59274305555</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12999,7 +12994,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13036,14 +13031,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 15489-2024</t>
+          <t>A 1221-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45401</v>
+        <v>46031.4018287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13055,8 +13050,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13093,14 +13093,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 11117-2023</t>
+          <t>A 62586-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44992.45543981482</v>
+        <v>46007.84753472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13150,14 +13150,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 11282-2024</t>
+          <t>A 62956-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45371.72210648148</v>
+        <v>46009</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13207,14 +13207,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 16465-2025</t>
+          <t>A 63613-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45751.53894675926</v>
+        <v>46014.34581018519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13261,17 +13261,17 @@
       </c>
       <c r="R216" s="2" t="inlineStr"/>
     </row>
-    <row r="217" ht="15" customHeight="1">
+    <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 51118-2023</t>
+          <t>A 15707-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45219</v>
+        <v>45748.49090277778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13317,63 +13317,6 @@
         <v>0</v>
       </c>
       <c r="R217" s="2" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>A 3946-2023</t>
-        </is>
-      </c>
-      <c r="B218" s="1" t="n">
-        <v>44952.37013888889</v>
-      </c>
-      <c r="C218" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G218" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0</v>
-      </c>
-      <c r="L218" t="n">
-        <v>0</v>
-      </c>
-      <c r="M218" t="n">
-        <v>0</v>
-      </c>
-      <c r="N218" t="n">
-        <v>0</v>
-      </c>
-      <c r="O218" t="n">
-        <v>0</v>
-      </c>
-      <c r="P218" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q218" t="n">
-        <v>0</v>
-      </c>
-      <c r="R218" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35828-2024</t>
+          <t>A 7365-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45532.67104166667</v>
+        <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,22 +778,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -802,142 +802,142 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 35828-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45532.67104166667</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Svinrot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 35828-2024 artfynd.xlsx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 35828-2024 karta.png", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 35828-2024 FSC-klagomål.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 35828-2024 FSC-klagomål mail.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 35828-2024 tillsynsbegäran.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 35828-2024 tillsynsbegäran mail.docx", "A 35828-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 7365-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44971</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 56244-2022</t>
+          <t>A 45507-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44890</v>
+        <v>45578</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -949,13 +949,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -967,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -979,214 +974,223 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 31093-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45832.5953125</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 56244-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 13882-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45007</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 31093-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45832.5953125</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1197,7 +1201,7 @@
         <v>45401</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,14 +1288,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 17410-2024</t>
+          <t>A 16446-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45414.89228009259</v>
+        <v>45751.50320601852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1308,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.3</v>
+        <v>11.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,130 +1342,130 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Dvärghäxört</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 17410-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45414.89228009259</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Mörk husmossa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 16446-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45751.50320601852</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Dvärghäxört</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 45507-2024</t>
+          <t>A 13882-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45578</v>
+        <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1474,19 +1478,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1498,45 +1502,41 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>45189</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44340.69202546297</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44476.84085648148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44516</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44817</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2327,14 +2327,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 13095-2021</t>
+          <t>A 50161-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44272</v>
+        <v>44456</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,8 +2346,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2384,14 +2389,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 57229-2021</t>
+          <t>A 55896-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44483</v>
+        <v>44476.83903935185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2404,7 +2409,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2441,14 +2446,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7654-2022</t>
+          <t>A 43594-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44607</v>
+        <v>44433.46096064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2461,7 +2466,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2498,14 +2503,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 50161-2021</t>
+          <t>A 53664-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44456</v>
+        <v>44469.44841435185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,13 +2522,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2560,14 +2560,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 55896-2021</t>
+          <t>A 38996-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44476.83903935185</v>
+        <v>44412.36203703703</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8.300000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2617,14 +2617,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 36580-2021</t>
+          <t>A 57229-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44391</v>
+        <v>44483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2674,14 +2674,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 9903-2022</t>
+          <t>A 24816-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44620</v>
+        <v>44340.68202546296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>16.8</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2731,14 +2731,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 43594-2021</t>
+          <t>A 36580-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44433.46096064815</v>
+        <v>44391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>6.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2788,14 +2788,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47692-2022</t>
+          <t>A 9903-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44854</v>
+        <v>44620</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>16.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2845,14 +2845,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53664-2021</t>
+          <t>A 47692-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44469.44841435185</v>
+        <v>44854</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2902,14 +2902,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38996-2021</t>
+          <t>A 13095-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44412.36203703703</v>
+        <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2959,14 +2959,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24816-2021</t>
+          <t>A 7654-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44340.68202546296</v>
+        <v>44607</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3130,14 +3130,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 21691-2022</t>
+          <t>A 27760-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44707.73799768519</v>
+        <v>44743</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3187,14 +3187,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16133-2022</t>
+          <t>A 21691-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44665</v>
+        <v>44707.73799768519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3244,14 +3244,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 57025-2022</t>
+          <t>A 16133-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44895</v>
+        <v>44665</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3301,14 +3301,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27760-2022</t>
+          <t>A 21693-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44743</v>
+        <v>44707.74184027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3358,14 +3358,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 21693-2022</t>
+          <t>A 14230-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44707.74184027778</v>
+        <v>45393</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16813-2025</t>
+          <t>A 35245-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45754.63344907408</v>
+        <v>45145.88599537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 50297-2022</t>
+          <t>A 3837-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44865.92474537037</v>
+        <v>45682.66153935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6210-2023</t>
+          <t>A 37797-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44964.80734953703</v>
+        <v>45543.54533564814</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 6212-2023</t>
+          <t>A 37798-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44964.81168981481</v>
+        <v>45543.54836805556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 6214-2023</t>
+          <t>A 21687-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44964.81380787037</v>
+        <v>44707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 52385-2022</t>
+          <t>A 28791-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44869</v>
+        <v>45478.613125</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>10.9</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16567-2025</t>
+          <t>A 71048-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45752.46074074074</v>
+        <v>44538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16568-2025</t>
+          <t>A 6210-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45752.46453703703</v>
+        <v>44964.80734953703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3871,14 +3871,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 16570-2025</t>
+          <t>A 6212-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45752.47210648148</v>
+        <v>44964.81168981481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3928,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 7278-2025</t>
+          <t>A 49734-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45702.63168981481</v>
+        <v>45596.84884259259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3985,14 +3985,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26757-2024</t>
+          <t>A 33875-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45469</v>
+        <v>45521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35113-2024</t>
+          <t>A 24440-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45529.83986111111</v>
+        <v>45797.82753472222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4099,14 +4099,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39988-2024</t>
+          <t>A 12423-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45553.62432870371</v>
+        <v>45730.45483796296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30641-2024</t>
+          <t>A 14033-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45495.57349537037</v>
+        <v>45740.36262731482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4213,14 +4213,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56145-2022</t>
+          <t>A 24439-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44889</v>
+        <v>45797.82457175926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>14.1</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 10742-2025</t>
+          <t>A 59503-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45722.41454861111</v>
+        <v>45638.55125</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 2495-2024</t>
+          <t>A 14029-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45313</v>
+        <v>45740.35556712963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16449-2025</t>
+          <t>A 39988-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45751.5106712963</v>
+        <v>45553.62432870371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33875-2024</t>
+          <t>A 24566-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45521</v>
+        <v>45083.51130787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>13.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6196-2023</t>
+          <t>A 6690-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44964.73979166667</v>
+        <v>44966</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4355-2023</t>
+          <t>A 16821-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44954.598125</v>
+        <v>45754.64318287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3775-2024</t>
+          <t>A 25863-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45321</v>
+        <v>45804.47696759259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39353-2022</t>
+          <t>A 40157-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44817</v>
+        <v>45169.36275462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 57500-2022</t>
+          <t>A 26397-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44896.63857638889</v>
+        <v>45807</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 14226-2024</t>
+          <t>A 35113-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45393</v>
+        <v>45529.83986111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4840,14 +4840,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 7268-2025</t>
+          <t>A 7817-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45702.60103009259</v>
+        <v>45349</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>8.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14230-2024</t>
+          <t>A 16467-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45393</v>
+        <v>45751.54304398148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4954,14 +4954,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11117-2023</t>
+          <t>A 27414-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44992.45543981482</v>
+        <v>45812.84578703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5011,14 +5011,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1794-2023</t>
+          <t>A 27413-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44938.6234837963</v>
+        <v>45812.84489583333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5068,14 +5068,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35245-2023</t>
+          <t>A 16813-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45145.88599537037</v>
+        <v>45754.63344907408</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5125,14 +5125,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 46006-2022</t>
+          <t>A 4438-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44846</v>
+        <v>45686.51674768519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7821-2024</t>
+          <t>A 30641-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45349</v>
+        <v>45495.57349537037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 7823-2024</t>
+          <t>A 28940-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45349</v>
+        <v>45820</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>7.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5296,14 +5296,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42872-2022</t>
+          <t>A 28941-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44832</v>
+        <v>45820</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5353,14 +5353,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1489-2024</t>
+          <t>A 28942-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45305</v>
+        <v>45820</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5410,14 +5410,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23787-2024</t>
+          <t>A 39590-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45455.42315972222</v>
+        <v>45890.52939814814</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5467,14 +5467,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28605-2023</t>
+          <t>A 27549-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45103.5830787037</v>
+        <v>44742.8079050926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5524,14 +5524,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16349-2022</t>
+          <t>A 11227-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44670</v>
+        <v>45726.34702546296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5581,14 +5581,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39990-2024</t>
+          <t>A 16569-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45553.62622685185</v>
+        <v>45752.46914351852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>10.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5638,14 +5638,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19107-2023</t>
+          <t>A 5832-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45048.45601851852</v>
+        <v>45694.84364583333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5695,14 +5695,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26397-2025</t>
+          <t>A 7278-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45807</v>
+        <v>45702.63168981481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5752,14 +5752,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 59349-2024</t>
+          <t>A 32099-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45638.2815162037</v>
+        <v>45835.46706018518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5809,14 +5809,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15489-2024</t>
+          <t>A 19107-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45401</v>
+        <v>45048.45601851852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5866,14 +5866,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14743-2022</t>
+          <t>A 32856-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44656.37567129629</v>
+        <v>45839.57771990741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5923,14 +5923,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14748-2022</t>
+          <t>A 6196-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44656</v>
+        <v>44964.73979166667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5980,14 +5980,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62232-2022</t>
+          <t>A 6208-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44922</v>
+        <v>44964.8028587963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6037,14 +6037,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27413-2025</t>
+          <t>A 58378-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45812.84489583333</v>
+        <v>45632.81232638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6094,14 +6094,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 27414-2025</t>
+          <t>A 49733-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45812.84578703704</v>
+        <v>45596.84603009259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>15.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6151,14 +6151,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21687-2022</t>
+          <t>A 39990-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44707</v>
+        <v>45553.62622685185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6208,14 +6208,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 37797-2024</t>
+          <t>A 42155-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45543.54533564814</v>
+        <v>45904.40079861111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6227,8 +6227,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>6.8</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6265,14 +6270,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 37798-2024</t>
+          <t>A 14226-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45543.54836805556</v>
+        <v>45393</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6285,7 +6290,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6322,14 +6327,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16571-2025</t>
+          <t>A 55293-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45752.47685185185</v>
+        <v>45621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6342,7 +6347,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6379,14 +6384,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49733-2024</t>
+          <t>A 55295-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45596.84603009259</v>
+        <v>45621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6399,7 +6404,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>15.1</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6436,14 +6441,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28942-2025</t>
+          <t>A 55296-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45820</v>
+        <v>45621</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6493,14 +6498,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 58712-2023</t>
+          <t>A 57500-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45251</v>
+        <v>44896.63857638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6513,7 +6518,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6550,14 +6555,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 28940-2025</t>
+          <t>A 37131-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45820</v>
+        <v>45875.54335648148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6570,7 +6575,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7.7</v>
+        <v>2.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6607,14 +6612,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28941-2025</t>
+          <t>A 37133-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45820</v>
+        <v>45875.54409722222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6627,7 +6632,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6664,14 +6669,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 71048-2021</t>
+          <t>A 2642-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44538</v>
+        <v>45676.46021990741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6684,7 +6689,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6721,14 +6726,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12273-2023</t>
+          <t>A 37427-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44998</v>
+        <v>45877.49123842592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6741,7 +6746,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6778,14 +6783,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57195-2024</t>
+          <t>A 37424-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45629.47</v>
+        <v>45877.4903125</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6797,13 +6802,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6840,14 +6840,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10207-2025</t>
+          <t>A 43134-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45719</v>
+        <v>45909.83324074074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6897,14 +6897,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 11075-2021</t>
+          <t>A 20671-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44260</v>
+        <v>44700.65571759259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6954,14 +6954,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 35244-2023</t>
+          <t>A 6222-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45145.88350694445</v>
+        <v>45337.64701388889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7011,14 +7011,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51118-2023</t>
+          <t>A 7821-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45219</v>
+        <v>45349</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7068,14 +7068,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7817-2024</t>
+          <t>A 7823-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
         <v>45349</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.9</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7125,14 +7125,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46901-2023</t>
+          <t>A 22270-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45201</v>
+        <v>45446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7182,14 +7182,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 59503-2024</t>
+          <t>A 6194-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45638.55125</v>
+        <v>44964</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7239,14 +7239,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 8371-2023</t>
+          <t>A 6214-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44977.385625</v>
+        <v>44964.81380787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7296,14 +7296,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40661-2023</t>
+          <t>A 49925-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45170</v>
+        <v>45214.86449074074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7353,14 +7353,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 56876-2023</t>
+          <t>A 46536-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45244</v>
+        <v>45926.34168981481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7410,14 +7410,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 11282-2024</t>
+          <t>A 46539-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45371.72210648148</v>
+        <v>45926.34392361111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7467,14 +7467,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24568-2023</t>
+          <t>A 46533-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45083.5209837963</v>
+        <v>45926.34030092593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7524,14 +7524,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 3837-2025</t>
+          <t>A 46848-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45682.66153935185</v>
+        <v>45928.71738425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7581,14 +7581,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32099-2025</t>
+          <t>A 28605-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45835.46706018518</v>
+        <v>45103.5830787037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7638,14 +7638,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 23789-2024</t>
+          <t>A 48096-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45455.42549768519</v>
+        <v>45933.30746527778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7695,14 +7695,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 32856-2025</t>
+          <t>A 48095-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45839.57771990741</v>
+        <v>45933.30634259259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7752,14 +7752,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 12420-2025</t>
+          <t>A 35244-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45730.45248842592</v>
+        <v>45145.88350694445</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7809,14 +7809,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 2293-2025</t>
+          <t>A 48911-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45673.59221064814</v>
+        <v>45937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7866,14 +7866,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 2294-2025</t>
+          <t>A 17007-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45673.59290509259</v>
+        <v>45755.54241898148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7923,14 +7923,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 40157-2023</t>
+          <t>A 17011-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45169.36275462963</v>
+        <v>45755.54761574074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7980,14 +7980,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 8020-2025</t>
+          <t>A 16567-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45707.569375</v>
+        <v>45752.46074074074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8037,14 +8037,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 4438-2025</t>
+          <t>A 16568-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45686.51674768519</v>
+        <v>45752.46453703703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8094,14 +8094,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 14742-2022</t>
+          <t>A 16570-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44656</v>
+        <v>45752.47210648148</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8151,14 +8151,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 16465-2025</t>
+          <t>A 49024-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45751.53894675926</v>
+        <v>45937.61747685185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8208,14 +8208,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 14745-2022</t>
+          <t>A 49025-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44656</v>
+        <v>45937.61915509259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8265,14 +8265,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 49925-2023</t>
+          <t>A 46901-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45214.86449074074</v>
+        <v>45201</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8322,14 +8322,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 59332-2024</t>
+          <t>A 10207-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45637.79350694444</v>
+        <v>45719</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8379,14 +8379,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 4359-2023</t>
+          <t>A 49779-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44954.69856481482</v>
+        <v>45940.386875</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8436,14 +8436,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 6208-2023</t>
+          <t>A 40960-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44964.8028587963</v>
+        <v>45169</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8493,14 +8493,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 17007-2025</t>
+          <t>A 59349-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45755.54241898148</v>
+        <v>45638.2815162037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8550,14 +8550,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 17011-2025</t>
+          <t>A 8371-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45755.54761574074</v>
+        <v>44977.385625</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8607,14 +8607,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24566-2023</t>
+          <t>A 16573-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45083.51130787037</v>
+        <v>45752</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>13.1</v>
+        <v>9.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8664,14 +8664,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16350-2022</t>
+          <t>A 11075-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44670</v>
+        <v>44260</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8721,14 +8721,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47860-2023</t>
+          <t>A 8020-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45204</v>
+        <v>45707.569375</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8778,14 +8778,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49734-2024</t>
+          <t>A 46006-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45596.84884259259</v>
+        <v>44846</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8835,14 +8835,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58378-2024</t>
+          <t>A 52321-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45632.81232638889</v>
+        <v>45953.66415509259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8892,14 +8892,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 14064-2025</t>
+          <t>A 16350-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45740.41469907408</v>
+        <v>44670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8949,14 +8949,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 16572-2025</t>
+          <t>A 53538-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45752.48247685185</v>
+        <v>45959</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9006,14 +9006,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 5832-2025</t>
+          <t>A 2495-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45694.84364583333</v>
+        <v>45313</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9063,14 +9063,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16569-2025</t>
+          <t>A 59332-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45752.46914351852</v>
+        <v>45637.79350694444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>10.5</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9120,14 +9120,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55293-2024</t>
+          <t>A 9892-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45621</v>
+        <v>45716.70597222223</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9177,14 +9177,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 6222-2024</t>
+          <t>A 23787-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45337.64701388889</v>
+        <v>45455.42315972222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9234,14 +9234,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 34914-2022</t>
+          <t>A 10206-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44796</v>
+        <v>45719</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9291,14 +9291,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 37131-2025</t>
+          <t>A 16449-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45875.54335648148</v>
+        <v>45751.5106712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 37133-2025</t>
+          <t>A 55693-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45875.54409722222</v>
+        <v>45972.43956018519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9405,14 +9405,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 16821-2025</t>
+          <t>A 56310-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45754.64318287037</v>
+        <v>45974.62328703704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9462,14 +9462,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 37427-2025</t>
+          <t>A 56373-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45877.49123842592</v>
+        <v>45974.68520833334</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9519,14 +9519,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37424-2025</t>
+          <t>A 11515-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45877.4903125</v>
+        <v>45372.77957175926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9538,8 +9538,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9576,14 +9581,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 11515-2024</t>
+          <t>A 58356-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45372.77957175926</v>
+        <v>45985.5115162037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9595,13 +9600,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9638,14 +9638,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2497-2024</t>
+          <t>A 14064-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45313</v>
+        <v>45740.41469907408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9695,14 +9695,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 16467-2025</t>
+          <t>A 7181-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45751.54304398148</v>
+        <v>44970</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9714,8 +9714,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9748,18 +9753,38 @@
         <v>0</v>
       </c>
       <c r="R155" s="2" t="inlineStr"/>
+      <c r="U155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="V155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="W155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="X155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="Y155">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 16573-2025</t>
+          <t>A 1347-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45752</v>
+        <v>46031.59274305555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9797,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>9.6</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9809,14 +9834,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 40960-2023</t>
+          <t>A 1400-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45169</v>
+        <v>46031.6427662037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9854,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9866,14 +9891,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 57423-2023</t>
+          <t>A 1384-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45246.22380787037</v>
+        <v>46031.62291666667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9886,7 +9911,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9923,14 +9948,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 15189-2023</t>
+          <t>A 1394-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45016.70493055556</v>
+        <v>46031.63753472222</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9943,7 +9968,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9980,14 +10005,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 6690-2023</t>
+          <t>A 4355-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44966</v>
+        <v>44954.598125</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10000,7 +10025,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10037,14 +10062,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 22270-2024</t>
+          <t>A 22110-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45446</v>
+        <v>44323.6992824074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10057,7 +10082,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10094,14 +10119,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 28791-2024</t>
+          <t>A 2497-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45478.613125</v>
+        <v>45313</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10114,7 +10139,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10151,14 +10176,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 9892-2025</t>
+          <t>A 12420-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45716.70597222223</v>
+        <v>45730.45248842592</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10171,7 +10196,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10208,14 +10233,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 11281-2024</t>
+          <t>A 14743-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45371.71887731482</v>
+        <v>44656.37567129629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10228,7 +10253,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10265,14 +10290,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 4356-2023</t>
+          <t>A 14748-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44954.60174768518</v>
+        <v>44656</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10285,7 +10310,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10322,14 +10347,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 2642-2025</t>
+          <t>A 39353-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45676.46021990741</v>
+        <v>44817</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10342,7 +10367,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10379,14 +10404,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 11457-2023</t>
+          <t>A 57025-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44993.58428240741</v>
+        <v>44895</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10399,7 +10424,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10436,14 +10461,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 6194-2023</t>
+          <t>A 23789-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44964</v>
+        <v>45455.42549768519</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10456,7 +10481,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10493,14 +10518,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 23128-2024</t>
+          <t>A 1489-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45450.61440972222</v>
+        <v>45305</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10513,7 +10538,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10550,14 +10575,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 39590-2025</t>
+          <t>A 52385-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45890.52939814814</v>
+        <v>44869</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10570,7 +10595,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.2</v>
+        <v>10.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10607,14 +10632,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 7181-2023</t>
+          <t>A 2293-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44970</v>
+        <v>45673.59221064814</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10626,13 +10651,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10665,38 +10685,18 @@
         <v>0</v>
       </c>
       <c r="R171" s="2" t="inlineStr"/>
-      <c r="U171">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="V171">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="W171">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="X171">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="Y171">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 11227-2025</t>
+          <t>A 2294-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45726.34702546296</v>
+        <v>45673.59290509259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10746,14 +10746,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 22110-2021</t>
+          <t>A 56145-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44323.6992824074</v>
+        <v>44889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.7</v>
+        <v>14.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10803,14 +10803,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 27549-2022</t>
+          <t>A 1221-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44742.8079050926</v>
+        <v>46031.4018287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10822,8 +10822,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10860,14 +10865,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 42155-2025</t>
+          <t>A 62232-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45904.40079861111</v>
+        <v>44922</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10879,13 +10884,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10922,14 +10922,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 20671-2022</t>
+          <t>A 62586-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44700.65571759259</v>
+        <v>46007.84753472222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10979,14 +10979,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3946-2023</t>
+          <t>A 62956-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44952.37013888889</v>
+        <v>46009</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11036,14 +11036,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 43134-2025</t>
+          <t>A 57195-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45909.83324074074</v>
+        <v>45629.47</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11055,8 +11055,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>5.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11093,14 +11098,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 55295-2024</t>
+          <t>A 4356-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45621</v>
+        <v>44954.60174768518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11113,7 +11118,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11150,14 +11155,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 55296-2024</t>
+          <t>A 4359-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45621</v>
+        <v>44954.69856481482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11170,7 +11175,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11207,14 +11212,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 10206-2025</t>
+          <t>A 12273-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45719</v>
+        <v>44998</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11227,7 +11232,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11264,14 +11269,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 46533-2025</t>
+          <t>A 50297-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45926.34030092593</v>
+        <v>44865.92474537037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11284,7 +11289,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11321,14 +11326,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 46539-2025</t>
+          <t>A 11457-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45926.34392361111</v>
+        <v>44993.58428240741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11341,7 +11346,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11378,14 +11383,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 46536-2025</t>
+          <t>A 56876-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45926.34168981481</v>
+        <v>45244</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11398,7 +11403,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11435,14 +11440,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 64387-2023</t>
+          <t>A 7268-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45280.58269675926</v>
+        <v>45702.60103009259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11455,7 +11460,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11492,14 +11497,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 46848-2025</t>
+          <t>A 24568-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45928.71738425926</v>
+        <v>45083.5209837963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11512,7 +11517,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11549,14 +11554,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 4252-2024</t>
+          <t>A 15707-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45324.48243055555</v>
+        <v>45748.49090277778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11569,7 +11574,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11606,14 +11611,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4957-2022</t>
+          <t>A 63613-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44593</v>
+        <v>46014.34581018519</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11626,7 +11631,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11663,14 +11668,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 48096-2025</t>
+          <t>A 1794-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45933.30746527778</v>
+        <v>44938.6234837963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11683,7 +11688,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11720,14 +11725,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 48095-2025</t>
+          <t>A 34914-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45933.30634259259</v>
+        <v>44796</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11740,7 +11745,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11777,14 +11782,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 49024-2025</t>
+          <t>A 14742-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45937.61747685185</v>
+        <v>44656</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11797,7 +11802,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11834,14 +11839,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 49025-2025</t>
+          <t>A 14745-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45937.61915509259</v>
+        <v>44656</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11854,7 +11859,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11891,14 +11896,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 48911-2025</t>
+          <t>A 26757-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45937</v>
+        <v>45469</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11911,7 +11916,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11948,14 +11953,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 49779-2025</t>
+          <t>A 42872-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45940.386875</v>
+        <v>44832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11968,7 +11973,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12005,14 +12010,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 29527-2024</t>
+          <t>A 3775-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45484.46942129629</v>
+        <v>45321</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12025,7 +12030,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12062,14 +12067,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 6209-2023</t>
+          <t>A 40661-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44964.80540509259</v>
+        <v>45170</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12082,7 +12087,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12119,14 +12124,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 52321-2025</t>
+          <t>A 15489-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45953.66415509259</v>
+        <v>45401</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12139,7 +12144,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12176,14 +12181,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 12423-2025</t>
+          <t>A 11117-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45730.45483796296</v>
+        <v>44992.45543981482</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12196,7 +12201,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12233,14 +12238,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 14033-2025</t>
+          <t>A 11282-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45740.36262731482</v>
+        <v>45371.72210648148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12253,7 +12258,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12290,14 +12295,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53538-2025</t>
+          <t>A 16465-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45959</v>
+        <v>45751.53894675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12310,7 +12315,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12347,14 +12352,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 24440-2025</t>
+          <t>A 51118-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45797.82753472222</v>
+        <v>45219</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12367,7 +12372,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12404,14 +12409,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 24439-2025</t>
+          <t>A 3946-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45797.82457175926</v>
+        <v>44952.37013888889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12424,7 +12429,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12461,14 +12466,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 14029-2025</t>
+          <t>A 47860-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45740.35556712963</v>
+        <v>45204</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12481,7 +12486,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12518,14 +12523,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 25863-2025</t>
+          <t>A 23128-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45804.47696759259</v>
+        <v>45450.61440972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12538,7 +12543,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12575,14 +12580,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 55693-2025</t>
+          <t>A 10742-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45972.43956018519</v>
+        <v>45722.41454861111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12595,7 +12600,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12632,14 +12637,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 56310-2025</t>
+          <t>A 15189-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45974.62328703704</v>
+        <v>45016.70493055556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12652,7 +12657,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12689,14 +12694,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 56373-2025</t>
+          <t>A 16571-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45974.68520833334</v>
+        <v>45752.47685185185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12709,7 +12714,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12746,14 +12751,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 58356-2025</t>
+          <t>A 58712-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45985.5115162037</v>
+        <v>45251</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12766,7 +12771,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12803,14 +12808,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 1394-2026</t>
+          <t>A 16349-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46031.63753472222</v>
+        <v>44670</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12823,7 +12828,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12860,14 +12865,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 1384-2026</t>
+          <t>A 11281-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46031.62291666667</v>
+        <v>45371.71887731482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12880,7 +12885,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12917,14 +12922,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1400-2026</t>
+          <t>A 57423-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46031.6427662037</v>
+        <v>45246.22380787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12937,7 +12942,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12974,14 +12979,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 1347-2026</t>
+          <t>A 16572-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46031.59274305555</v>
+        <v>45752.48247685185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12994,7 +12999,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13031,14 +13036,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1221-2026</t>
+          <t>A 64387-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46031.4018287037</v>
+        <v>45280.58269675926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13050,13 +13055,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13093,14 +13093,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 62586-2025</t>
+          <t>A 4252-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46007.84753472222</v>
+        <v>45324.48243055555</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13150,14 +13150,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 62956-2025</t>
+          <t>A 4957-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46009</v>
+        <v>44593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13207,14 +13207,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 63613-2025</t>
+          <t>A 29527-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46014.34581018519</v>
+        <v>45484.46942129629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13264,14 +13264,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 15707-2025</t>
+          <t>A 6209-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45748.49090277778</v>
+        <v>44964.80540509259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45532.67104166667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,14 +930,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 45507-2024</t>
+          <t>A 44654-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45578</v>
+        <v>45189</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -949,20 +949,25 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -977,220 +982,215 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Igelkott</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 44654-2023 artfynd.xlsx", "A 44654-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 44654-2023 karta.png", "A 44654-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 44654-2023 FSC-klagomål.docx", "A 44654-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 44654-2023 FSC-klagomål mail.docx", "A 44654-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 44654-2023 tillsynsbegäran.docx", "A 44654-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 44654-2023 tillsynsbegäran mail.docx", "A 44654-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 45507-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45578</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 31093-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45832.5953125</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Blomkålssvamp</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 56244-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44890</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45401</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,14 +1288,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 16446-2025</t>
+          <t>A 56244-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45751.50320601852</v>
+        <v>44890</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1307,14 +1307,19 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>11.7</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,294 +1347,289 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 16446-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45751.50320601852</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Dvärghäxört</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 17410-2024</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45414.89228009259</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>7.3</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Mörk husmossa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 13882-2023</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45007</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>2.4</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 44654-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45189</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Igelkott</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 44654-2023 artfynd.xlsx", "A 44654-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 44654-2023 karta.png", "A 44654-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 44654-2023 FSC-klagomål.docx", "A 44654-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 44654-2023 FSC-klagomål mail.docx", "A 44654-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 44654-2023 tillsynsbegäran.docx", "A 44654-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 44654-2023 tillsynsbegäran mail.docx", "A 44654-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44340.69202546297</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44476.84085648148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44516</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44817</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44456</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44476.83903935185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44433.46096064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44469.44841435185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44412.36203703703</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44340.68202546296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44620</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44854</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44607</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44707.73799768519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44665</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45393</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45145.88599537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45682.66153935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45543.54533564814</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45543.54836805556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3643,14 +3643,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 21687-2022</t>
+          <t>A 28791-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44707</v>
+        <v>45478.613125</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28791-2024</t>
+          <t>A 21687-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45478.613125</v>
+        <v>44707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>44538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44964.80734953703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44964.81168981481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3928,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49734-2024</t>
+          <t>A 29527-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45596.84884259259</v>
+        <v>45484.46942129629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3985,14 +3985,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 33875-2024</t>
+          <t>A 6209-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45521</v>
+        <v>44964.80540509259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24440-2025</t>
+          <t>A 49734-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45797.82753472222</v>
+        <v>45596.84884259259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4099,14 +4099,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 12423-2025</t>
+          <t>A 24440-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45730.45483796296</v>
+        <v>45797.82753472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14033-2025</t>
+          <t>A 12423-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45740.36262731482</v>
+        <v>45730.45483796296</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4213,14 +4213,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 24439-2025</t>
+          <t>A 14033-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45797.82457175926</v>
+        <v>45740.36262731482</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59503-2024</t>
+          <t>A 24439-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45638.55125</v>
+        <v>45797.82457175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14029-2025</t>
+          <t>A 33875-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45740.35556712963</v>
+        <v>45521</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39988-2024</t>
+          <t>A 14029-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45553.62432870371</v>
+        <v>45740.35556712963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24566-2023</t>
+          <t>A 39590-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45083.51130787037</v>
+        <v>45890.52939814814</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>13.1</v>
+        <v>3.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6690-2023</t>
+          <t>A 11227-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44966</v>
+        <v>45726.34702546296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16821-2025</t>
+          <t>A 59503-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45754.64318287037</v>
+        <v>45638.55125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25863-2025</t>
+          <t>A 39988-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45804.47696759259</v>
+        <v>45553.62432870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>6.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40157-2023</t>
+          <t>A 24566-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45169.36275462963</v>
+        <v>45083.51130787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.5</v>
+        <v>13.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26397-2025</t>
+          <t>A 25863-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45807</v>
+        <v>45804.47696759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35113-2024</t>
+          <t>A 6690-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45529.83986111111</v>
+        <v>44966</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4840,14 +4840,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 7817-2024</t>
+          <t>A 26397-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45349</v>
+        <v>45807</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.9</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16467-2025</t>
+          <t>A 16821-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45751.54304398148</v>
+        <v>45754.64318287037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4961,7 +4961,7 @@
         <v>45812.84578703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>45812.84489583333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5068,14 +5068,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16813-2025</t>
+          <t>A 40157-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45754.63344907408</v>
+        <v>45169.36275462963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5125,14 +5125,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 4438-2025</t>
+          <t>A 35113-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45686.51674768519</v>
+        <v>45529.83986111111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5182,14 +5182,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30641-2024</t>
+          <t>A 7817-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45495.57349537037</v>
+        <v>45349</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>8.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5239,14 +5239,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28940-2025</t>
+          <t>A 16467-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45820</v>
+        <v>45751.54304398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.7</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5296,14 +5296,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28941-2025</t>
+          <t>A 42155-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45820</v>
+        <v>45904.40079861111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,8 +5315,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5353,14 +5358,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28942-2025</t>
+          <t>A 28940-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
         <v>45820</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5373,7 +5378,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5410,14 +5415,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39590-2025</t>
+          <t>A 28941-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45890.52939814814</v>
+        <v>45820</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5430,7 +5435,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5467,14 +5472,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 27549-2022</t>
+          <t>A 28942-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44742.8079050926</v>
+        <v>45820</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5487,7 +5492,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5524,14 +5529,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 11227-2025</t>
+          <t>A 16813-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45726.34702546296</v>
+        <v>45754.63344907408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5544,7 +5549,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.3</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5581,14 +5586,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16569-2025</t>
+          <t>A 4438-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45752.46914351852</v>
+        <v>45686.51674768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5601,7 +5606,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>10.5</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5638,14 +5643,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5832-2025</t>
+          <t>A 43134-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45694.84364583333</v>
+        <v>45909.83324074074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5658,7 +5663,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5695,14 +5700,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7278-2025</t>
+          <t>A 62586-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45702.63168981481</v>
+        <v>46007.84753472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5715,7 +5720,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5752,14 +5757,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32099-2025</t>
+          <t>A 30641-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45835.46706018518</v>
+        <v>45495.57349537037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5772,7 +5777,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5809,14 +5814,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19107-2023</t>
+          <t>A 62956-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45048.45601851852</v>
+        <v>46009</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5829,7 +5834,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5866,14 +5871,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32856-2025</t>
+          <t>A 27549-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45839.57771990741</v>
+        <v>44742.8079050926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5886,7 +5891,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5923,14 +5928,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 6196-2023</t>
+          <t>A 16569-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44964.73979166667</v>
+        <v>45752.46914351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5943,7 +5948,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>10.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5980,14 +5985,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 6208-2023</t>
+          <t>A 32099-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44964.8028587963</v>
+        <v>45835.46706018518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6000,7 +6005,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6037,14 +6042,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58378-2024</t>
+          <t>A 5832-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45632.81232638889</v>
+        <v>45694.84364583333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6057,7 +6062,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6094,14 +6099,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 49733-2024</t>
+          <t>A 32856-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45596.84603009259</v>
+        <v>45839.57771990741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6114,7 +6119,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>15.1</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6151,14 +6156,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 39990-2024</t>
+          <t>A 7278-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45553.62622685185</v>
+        <v>45702.63168981481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6171,7 +6176,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6208,14 +6213,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42155-2025</t>
+          <t>A 46536-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45904.40079861111</v>
+        <v>45926.34168981481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6227,13 +6232,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6270,14 +6270,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14226-2024</t>
+          <t>A 46539-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45393</v>
+        <v>45926.34392361111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6327,14 +6327,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 55293-2024</t>
+          <t>A 46533-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45621</v>
+        <v>45926.34030092593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6384,14 +6384,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 55295-2024</t>
+          <t>A 19107-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45621</v>
+        <v>45048.45601851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6441,14 +6441,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 55296-2024</t>
+          <t>A 46848-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45621</v>
+        <v>45928.71738425926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6498,14 +6498,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57500-2022</t>
+          <t>A 48096-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44896.63857638889</v>
+        <v>45933.30746527778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6555,14 +6555,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 37131-2025</t>
+          <t>A 6196-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45875.54335648148</v>
+        <v>44964.73979166667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6612,14 +6612,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37133-2025</t>
+          <t>A 48095-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45875.54409722222</v>
+        <v>45933.30634259259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6669,14 +6669,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 2642-2025</t>
+          <t>A 6208-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45676.46021990741</v>
+        <v>44964.8028587963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6726,14 +6726,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 37427-2025</t>
+          <t>A 58378-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45877.49123842592</v>
+        <v>45632.81232638889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6783,14 +6783,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37424-2025</t>
+          <t>A 48911-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45877.4903125</v>
+        <v>45937</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6840,14 +6840,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43134-2025</t>
+          <t>A 49024-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45909.83324074074</v>
+        <v>45937.61747685185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6897,14 +6897,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 20671-2022</t>
+          <t>A 49025-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44700.65571759259</v>
+        <v>45937.61915509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6954,14 +6954,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 6222-2024</t>
+          <t>A 49779-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45337.64701388889</v>
+        <v>45940.386875</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7011,14 +7011,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 7821-2024</t>
+          <t>A 49733-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45349</v>
+        <v>45596.84603009259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>8.199999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7068,14 +7068,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7823-2024</t>
+          <t>A 37131-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45349</v>
+        <v>45875.54335648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7125,14 +7125,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 22270-2024</t>
+          <t>A 39990-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45446</v>
+        <v>45553.62622685185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7182,14 +7182,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 6194-2023</t>
+          <t>A 37133-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44964</v>
+        <v>45875.54409722222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7239,14 +7239,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 6214-2023</t>
+          <t>A 15707-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44964.81380787037</v>
+        <v>45748.49090277778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7296,14 +7296,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49925-2023</t>
+          <t>A 63613-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45214.86449074074</v>
+        <v>46014.34581018519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7353,14 +7353,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46536-2025</t>
+          <t>A 37427-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45926.34168981481</v>
+        <v>45877.49123842592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7410,14 +7410,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46539-2025</t>
+          <t>A 14226-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45926.34392361111</v>
+        <v>45393</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7467,14 +7467,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 46533-2025</t>
+          <t>A 55293-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45926.34030092593</v>
+        <v>45621</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7524,14 +7524,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46848-2025</t>
+          <t>A 55295-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45928.71738425926</v>
+        <v>45621</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7581,14 +7581,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28605-2023</t>
+          <t>A 55296-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45103.5830787037</v>
+        <v>45621</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7638,14 +7638,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 48096-2025</t>
+          <t>A 37424-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45933.30746527778</v>
+        <v>45877.4903125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7695,14 +7695,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48095-2025</t>
+          <t>A 52321-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45933.30634259259</v>
+        <v>45953.66415509259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7752,14 +7752,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 35244-2023</t>
+          <t>A 57500-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45145.88350694445</v>
+        <v>44896.63857638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7809,14 +7809,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48911-2025</t>
+          <t>A 53538-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45937</v>
+        <v>45959</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7866,14 +7866,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 17007-2025</t>
+          <t>A 2642-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45755.54241898148</v>
+        <v>45676.46021990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7923,14 +7923,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 17011-2025</t>
+          <t>A 20671-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45755.54761574074</v>
+        <v>44700.65571759259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7980,14 +7980,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 16567-2025</t>
+          <t>A 6222-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45752.46074074074</v>
+        <v>45337.64701388889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8037,14 +8037,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 16568-2025</t>
+          <t>A 7821-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45752.46453703703</v>
+        <v>45349</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8094,14 +8094,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 16570-2025</t>
+          <t>A 7823-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45752.47210648148</v>
+        <v>45349</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8151,14 +8151,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 49024-2025</t>
+          <t>A 55693-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45937.61747685185</v>
+        <v>45972.43956018519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8208,14 +8208,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 49025-2025</t>
+          <t>A 56310-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45937.61915509259</v>
+        <v>45974.62328703704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8265,14 +8265,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46901-2023</t>
+          <t>A 56373-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45201</v>
+        <v>45974.68520833334</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8322,14 +8322,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 10207-2025</t>
+          <t>A 22270-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45719</v>
+        <v>45446</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8379,14 +8379,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49779-2025</t>
+          <t>A 6194-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45940.386875</v>
+        <v>44964</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8436,14 +8436,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40960-2023</t>
+          <t>A 6214-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45169</v>
+        <v>44964.81380787037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8493,14 +8493,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 59349-2024</t>
+          <t>A 49925-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45638.2815162037</v>
+        <v>45214.86449074074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8550,14 +8550,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 8371-2023</t>
+          <t>A 58356-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44977.385625</v>
+        <v>45985.5115162037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8607,14 +8607,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 16573-2025</t>
+          <t>A 28605-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45752</v>
+        <v>45103.5830787037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>9.6</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8664,14 +8664,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 11075-2021</t>
+          <t>A 1347-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44260</v>
+        <v>46031.59274305555</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8721,14 +8721,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 8020-2025</t>
+          <t>A 1400-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45707.569375</v>
+        <v>46031.6427662037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8778,14 +8778,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 46006-2022</t>
+          <t>A 35244-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44846</v>
+        <v>45145.88350694445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8835,14 +8835,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52321-2025</t>
+          <t>A 1384-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45953.66415509259</v>
+        <v>46031.62291666667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8892,14 +8892,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 16350-2022</t>
+          <t>A 1394-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44670</v>
+        <v>46031.63753472222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8949,14 +8949,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 53538-2025</t>
+          <t>A 17007-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45959</v>
+        <v>45755.54241898148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9006,14 +9006,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2495-2024</t>
+          <t>A 17011-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45313</v>
+        <v>45755.54761574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9063,14 +9063,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 59332-2024</t>
+          <t>A 16567-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45637.79350694444</v>
+        <v>45752.46074074074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9120,14 +9120,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 9892-2025</t>
+          <t>A 16568-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45716.70597222223</v>
+        <v>45752.46453703703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9177,14 +9177,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 23787-2024</t>
+          <t>A 16570-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45455.42315972222</v>
+        <v>45752.47210648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9234,14 +9234,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 10206-2025</t>
+          <t>A 46901-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45719</v>
+        <v>45201</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9291,14 +9291,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 16449-2025</t>
+          <t>A 10207-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45751.5106712963</v>
+        <v>45719</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 55693-2025</t>
+          <t>A 40960-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45972.43956018519</v>
+        <v>45169</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9405,14 +9405,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56310-2025</t>
+          <t>A 59349-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45974.62328703704</v>
+        <v>45638.2815162037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9462,14 +9462,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56373-2025</t>
+          <t>A 8371-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45974.68520833334</v>
+        <v>44977.385625</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9519,14 +9519,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 11515-2024</t>
+          <t>A 1221-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45372.77957175926</v>
+        <v>46031.4018287037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9540,11 +9540,11 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9581,14 +9581,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 58356-2025</t>
+          <t>A 16573-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45985.5115162037</v>
+        <v>45752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.4</v>
+        <v>9.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9638,14 +9638,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 14064-2025</t>
+          <t>A 11075-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45740.41469907408</v>
+        <v>44260</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9695,723 +9695,728 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
+          <t>A 8020-2025</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>45707.569375</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>3</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" s="2" t="inlineStr"/>
+    </row>
+    <row r="156" ht="15" customHeight="1">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>A 46006-2022</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>44846</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157" ht="15" customHeight="1">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>A 16350-2022</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>44670</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" s="2" t="inlineStr"/>
+    </row>
+    <row r="158" ht="15" customHeight="1">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>A 2495-2024</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" s="2" t="inlineStr"/>
+    </row>
+    <row r="159" ht="15" customHeight="1">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>A 59332-2024</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>45637.79350694444</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R159" s="2" t="inlineStr"/>
+    </row>
+    <row r="160" ht="15" customHeight="1">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>A 9892-2025</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>45716.70597222223</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" s="2" t="inlineStr"/>
+    </row>
+    <row r="161" ht="15" customHeight="1">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>A 23787-2024</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>45455.42315972222</v>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" s="2" t="inlineStr"/>
+    </row>
+    <row r="162" ht="15" customHeight="1">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>A 10206-2025</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>45719</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" s="2" t="inlineStr"/>
+    </row>
+    <row r="163" ht="15" customHeight="1">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>A 16449-2025</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>45751.5106712963</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" s="2" t="inlineStr"/>
+    </row>
+    <row r="164" ht="15" customHeight="1">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>A 11515-2024</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>45372.77957175926</v>
+      </c>
+      <c r="C164" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" s="2" t="inlineStr"/>
+    </row>
+    <row r="165" ht="15" customHeight="1">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>A 14064-2025</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>45740.41469907408</v>
+      </c>
+      <c r="C165" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" s="2" t="inlineStr"/>
+    </row>
+    <row r="166" ht="15" customHeight="1">
+      <c r="A166" t="inlineStr">
+        <is>
           <t>A 7181-2023</t>
         </is>
       </c>
-      <c r="B155" s="1" t="n">
+      <c r="B166" s="1" t="n">
         <v>44970</v>
       </c>
-      <c r="C155" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
+      <c r="C166" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G155" t="n">
+      <c r="G166" t="n">
         <v>2</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>0</v>
-      </c>
-      <c r="M155" t="n">
-        <v>0</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0</v>
-      </c>
-      <c r="O155" t="n">
-        <v>0</v>
-      </c>
-      <c r="P155" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q155" t="n">
-        <v>0</v>
-      </c>
-      <c r="R155" s="2" t="inlineStr"/>
-      <c r="U155">
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" s="2" t="inlineStr"/>
+      <c r="U166">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="V155">
+      <c r="V166">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="W155">
+      <c r="W166">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="X155">
+      <c r="X166">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="Y155">
+      <c r="Y166">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>A 1347-2026</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>46031.59274305555</v>
-      </c>
-      <c r="C156" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>3</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>0</v>
-      </c>
-      <c r="M156" t="n">
-        <v>0</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0</v>
-      </c>
-      <c r="O156" t="n">
-        <v>0</v>
-      </c>
-      <c r="P156" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>0</v>
-      </c>
-      <c r="R156" s="2" t="inlineStr"/>
-    </row>
-    <row r="157" ht="15" customHeight="1">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>A 1400-2026</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>46031.6427662037</v>
-      </c>
-      <c r="C157" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0</v>
-      </c>
-      <c r="P157" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>0</v>
-      </c>
-      <c r="R157" s="2" t="inlineStr"/>
-    </row>
-    <row r="158" ht="15" customHeight="1">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>A 1384-2026</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>46031.62291666667</v>
-      </c>
-      <c r="C158" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0</v>
-      </c>
-      <c r="P158" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>0</v>
-      </c>
-      <c r="R158" s="2" t="inlineStr"/>
-    </row>
-    <row r="159" ht="15" customHeight="1">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>A 1394-2026</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>46031.63753472222</v>
-      </c>
-      <c r="C159" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>3</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0</v>
-      </c>
-      <c r="L159" t="n">
-        <v>0</v>
-      </c>
-      <c r="M159" t="n">
-        <v>0</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0</v>
-      </c>
-      <c r="O159" t="n">
-        <v>0</v>
-      </c>
-      <c r="P159" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>0</v>
-      </c>
-      <c r="R159" s="2" t="inlineStr"/>
-    </row>
-    <row r="160" ht="15" customHeight="1">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>A 4355-2023</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>44954.598125</v>
-      </c>
-      <c r="C160" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0</v>
-      </c>
-      <c r="L160" t="n">
-        <v>0</v>
-      </c>
-      <c r="M160" t="n">
-        <v>0</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0</v>
-      </c>
-      <c r="O160" t="n">
-        <v>0</v>
-      </c>
-      <c r="P160" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>0</v>
-      </c>
-      <c r="R160" s="2" t="inlineStr"/>
-    </row>
-    <row r="161" ht="15" customHeight="1">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>A 22110-2021</t>
-        </is>
-      </c>
-      <c r="B161" s="1" t="n">
-        <v>44323.6992824074</v>
-      </c>
-      <c r="C161" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0</v>
-      </c>
-      <c r="L161" t="n">
-        <v>0</v>
-      </c>
-      <c r="M161" t="n">
-        <v>0</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0</v>
-      </c>
-      <c r="O161" t="n">
-        <v>0</v>
-      </c>
-      <c r="P161" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>0</v>
-      </c>
-      <c r="R161" s="2" t="inlineStr"/>
-    </row>
-    <row r="162" ht="15" customHeight="1">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>A 2497-2024</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>45313</v>
-      </c>
-      <c r="C162" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>0</v>
-      </c>
-      <c r="M162" t="n">
-        <v>0</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0</v>
-      </c>
-      <c r="P162" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>0</v>
-      </c>
-      <c r="R162" s="2" t="inlineStr"/>
-    </row>
-    <row r="163" ht="15" customHeight="1">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>A 12420-2025</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>45730.45248842592</v>
-      </c>
-      <c r="C163" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>0</v>
-      </c>
-      <c r="M163" t="n">
-        <v>0</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0</v>
-      </c>
-      <c r="O163" t="n">
-        <v>0</v>
-      </c>
-      <c r="P163" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>0</v>
-      </c>
-      <c r="R163" s="2" t="inlineStr"/>
-    </row>
-    <row r="164" ht="15" customHeight="1">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>A 14743-2022</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>44656.37567129629</v>
-      </c>
-      <c r="C164" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M164" t="n">
-        <v>0</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0</v>
-      </c>
-      <c r="O164" t="n">
-        <v>0</v>
-      </c>
-      <c r="P164" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>0</v>
-      </c>
-      <c r="R164" s="2" t="inlineStr"/>
-    </row>
-    <row r="165" ht="15" customHeight="1">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>A 14748-2022</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="C165" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0</v>
-      </c>
-      <c r="L165" t="n">
-        <v>0</v>
-      </c>
-      <c r="M165" t="n">
-        <v>0</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0</v>
-      </c>
-      <c r="O165" t="n">
-        <v>0</v>
-      </c>
-      <c r="P165" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>0</v>
-      </c>
-      <c r="R165" s="2" t="inlineStr"/>
-    </row>
-    <row r="166" ht="15" customHeight="1">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>A 39353-2022</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>44817</v>
-      </c>
-      <c r="C166" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P166" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>0</v>
-      </c>
-      <c r="R166" s="2" t="inlineStr"/>
-    </row>
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 57025-2022</t>
+          <t>A 4355-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44895</v>
+        <v>44954.598125</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10424,7 +10429,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10461,14 +10466,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 23789-2024</t>
+          <t>A 22110-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45455.42549768519</v>
+        <v>44323.6992824074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10481,7 +10486,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10518,14 +10523,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 1489-2024</t>
+          <t>A 2497-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45305</v>
+        <v>45313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10538,7 +10543,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10575,14 +10580,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 52385-2022</t>
+          <t>A 12420-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44869</v>
+        <v>45730.45248842592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10595,7 +10600,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>10.9</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10632,14 +10637,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 2293-2025</t>
+          <t>A 14743-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45673.59221064814</v>
+        <v>44656.37567129629</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10652,7 +10657,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10689,14 +10694,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2294-2025</t>
+          <t>A 14748-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45673.59290509259</v>
+        <v>44656</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10709,7 +10714,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10746,14 +10751,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 56145-2022</t>
+          <t>A 39353-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44889</v>
+        <v>44817</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10766,7 +10771,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>14.1</v>
+        <v>2.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10803,14 +10808,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1221-2026</t>
+          <t>A 57025-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46031.4018287037</v>
+        <v>44895</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10822,13 +10827,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10865,14 +10865,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62232-2022</t>
+          <t>A 23789-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44922</v>
+        <v>45455.42549768519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10922,14 +10922,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62586-2025</t>
+          <t>A 1489-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46007.84753472222</v>
+        <v>45305</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10979,14 +10979,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62956-2025</t>
+          <t>A 52385-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46009</v>
+        <v>44869</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>7</v>
+        <v>10.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11036,14 +11036,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 57195-2024</t>
+          <t>A 2293-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45629.47</v>
+        <v>45673.59221064814</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11055,13 +11055,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11098,14 +11093,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 4356-2023</t>
+          <t>A 2294-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44954.60174768518</v>
+        <v>45673.59290509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11118,7 +11113,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11155,14 +11150,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 4359-2023</t>
+          <t>A 56145-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44954.69856481482</v>
+        <v>44889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11175,7 +11170,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.5</v>
+        <v>14.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11212,14 +11207,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 12273-2023</t>
+          <t>A 62232-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44998</v>
+        <v>44922</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11232,7 +11227,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11269,14 +11264,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 50297-2022</t>
+          <t>A 57195-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44865.92474537037</v>
+        <v>45629.47</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11288,8 +11283,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11326,14 +11326,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 11457-2023</t>
+          <t>A 4356-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44993.58428240741</v>
+        <v>44954.60174768518</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11383,14 +11383,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 56876-2023</t>
+          <t>A 4359-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45244</v>
+        <v>44954.69856481482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11440,14 +11440,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 7268-2025</t>
+          <t>A 12273-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45702.60103009259</v>
+        <v>44998</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11497,14 +11497,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 24568-2023</t>
+          <t>A 50297-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45083.5209837963</v>
+        <v>44865.92474537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11554,14 +11554,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15707-2025</t>
+          <t>A 11457-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45748.49090277778</v>
+        <v>44993.58428240741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11611,14 +11611,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 63613-2025</t>
+          <t>A 56876-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46014.34581018519</v>
+        <v>45244</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11668,14 +11668,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 1794-2023</t>
+          <t>A 7268-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44938.6234837963</v>
+        <v>45702.60103009259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11725,14 +11725,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 34914-2022</t>
+          <t>A 24568-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44796</v>
+        <v>45083.5209837963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11782,14 +11782,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 14742-2022</t>
+          <t>A 1794-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44656</v>
+        <v>44938.6234837963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11839,14 +11839,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 14745-2022</t>
+          <t>A 34914-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44656</v>
+        <v>44796</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11896,14 +11896,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 26757-2024</t>
+          <t>A 14742-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45469</v>
+        <v>44656</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11953,14 +11953,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 42872-2022</t>
+          <t>A 14745-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44832</v>
+        <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12010,14 +12010,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 3775-2024</t>
+          <t>A 26757-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45321</v>
+        <v>45469</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12067,14 +12067,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 40661-2023</t>
+          <t>A 42872-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45170</v>
+        <v>44832</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12124,14 +12124,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 15489-2024</t>
+          <t>A 3775-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45401</v>
+        <v>45321</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12181,14 +12181,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 11117-2023</t>
+          <t>A 40661-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44992.45543981482</v>
+        <v>45170</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12238,14 +12238,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 11282-2024</t>
+          <t>A 15489-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45371.72210648148</v>
+        <v>45401</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12295,14 +12295,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 16465-2025</t>
+          <t>A 11117-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45751.53894675926</v>
+        <v>44992.45543981482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12352,14 +12352,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 51118-2023</t>
+          <t>A 11282-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45219</v>
+        <v>45371.72210648148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12409,14 +12409,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 3946-2023</t>
+          <t>A 16465-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44952.37013888889</v>
+        <v>45751.53894675926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12466,14 +12466,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 47860-2023</t>
+          <t>A 51118-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45204</v>
+        <v>45219</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12523,14 +12523,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 23128-2024</t>
+          <t>A 3946-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45450.61440972222</v>
+        <v>44952.37013888889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12580,14 +12580,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 10742-2025</t>
+          <t>A 47860-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45722.41454861111</v>
+        <v>45204</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12637,14 +12637,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 15189-2023</t>
+          <t>A 23128-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45016.70493055556</v>
+        <v>45450.61440972222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12694,14 +12694,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 16571-2025</t>
+          <t>A 10742-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45752.47685185185</v>
+        <v>45722.41454861111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12751,14 +12751,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 58712-2023</t>
+          <t>A 15189-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45251</v>
+        <v>45016.70493055556</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12808,14 +12808,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 16349-2022</t>
+          <t>A 16571-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44670</v>
+        <v>45752.47685185185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12865,14 +12865,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11281-2024</t>
+          <t>A 58712-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45371.71887731482</v>
+        <v>45251</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12922,14 +12922,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 57423-2023</t>
+          <t>A 16349-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45246.22380787037</v>
+        <v>44670</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12979,14 +12979,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 16572-2025</t>
+          <t>A 11281-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45752.48247685185</v>
+        <v>45371.71887731482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13036,14 +13036,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 64387-2023</t>
+          <t>A 57423-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45280.58269675926</v>
+        <v>45246.22380787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13093,14 +13093,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 4252-2024</t>
+          <t>A 16572-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45324.48243055555</v>
+        <v>45752.48247685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13150,14 +13150,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 4957-2022</t>
+          <t>A 64387-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44593</v>
+        <v>45280.58269675926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13207,14 +13207,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 29527-2024</t>
+          <t>A 4252-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45484.46942129629</v>
+        <v>45324.48243055555</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13264,14 +13264,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6209-2023</t>
+          <t>A 4957-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44964.80540509259</v>
+        <v>44593</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45532.67104166667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45189</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45578</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>45832.5953125</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45401</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44890</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45751.50320601852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>45414.89228009259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>45007</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44340.69202546297</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44476.84085648148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44516</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44817</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44456</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44476.83903935185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44433.46096064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44469.44841435185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44412.36203703703</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44340.68202546296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,14 +2788,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9903-2022</t>
+          <t>A 47692-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44620</v>
+        <v>44854</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>16.8</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2845,14 +2845,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47692-2022</t>
+          <t>A 9903-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44854</v>
+        <v>44620</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>16.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44607</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44707.73799768519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44665</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45393</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45145.88599537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45682.66153935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45543.54533564814</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45543.54836805556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>45478.613125</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3700,14 +3700,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21687-2022</t>
+          <t>A 4957-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44707</v>
+        <v>44593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 71048-2021</t>
+          <t>A 21687-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44538</v>
+        <v>44707</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 6210-2023</t>
+          <t>A 71048-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44964.80734953703</v>
+        <v>44538</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3871,14 +3871,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 6212-2023</t>
+          <t>A 29527-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44964.81168981481</v>
+        <v>45484.46942129629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3928,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 29527-2024</t>
+          <t>A 6210-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45484.46942129629</v>
+        <v>44964.80734953703</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3985,14 +3985,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6209-2023</t>
+          <t>A 6212-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44964.80540509259</v>
+        <v>44964.81168981481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49734-2024</t>
+          <t>A 55693-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45596.84884259259</v>
+        <v>45972.43956018519</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4099,14 +4099,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 24440-2025</t>
+          <t>A 6209-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45797.82753472222</v>
+        <v>44964.80540509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12423-2025</t>
+          <t>A 56310-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45730.45483796296</v>
+        <v>45974.62328703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4213,14 +4213,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14033-2025</t>
+          <t>A 56373-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45740.36262731482</v>
+        <v>45974.68520833334</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24439-2025</t>
+          <t>A 39590-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45797.82457175926</v>
+        <v>45890.52939814814</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 33875-2024</t>
+          <t>A 49734-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45521</v>
+        <v>45596.84884259259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14029-2025</t>
+          <t>A 11227-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45740.35556712963</v>
+        <v>45726.34702546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 39590-2025</t>
+          <t>A 24440-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45890.52939814814</v>
+        <v>45797.82753472222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11227-2025</t>
+          <t>A 12423-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45726.34702546296</v>
+        <v>45730.45483796296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59503-2024</t>
+          <t>A 14033-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45638.55125</v>
+        <v>45740.36262731482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39988-2024</t>
+          <t>A 24439-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45553.62432870371</v>
+        <v>45797.82457175926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24566-2023</t>
+          <t>A 14029-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45083.51130787037</v>
+        <v>45740.35556712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>13.1</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25863-2025</t>
+          <t>A 33875-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45804.47696759259</v>
+        <v>45521</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4783,14 +4783,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6690-2023</t>
+          <t>A 25863-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44966</v>
+        <v>45804.47696759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4840,14 +4840,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26397-2025</t>
+          <t>A 59503-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45807</v>
+        <v>45638.55125</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4897,14 +4897,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16821-2025</t>
+          <t>A 39988-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45754.64318287037</v>
+        <v>45553.62432870371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4954,14 +4954,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27414-2025</t>
+          <t>A 24566-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45812.84578703704</v>
+        <v>45083.51130787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>13.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5011,14 +5011,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27413-2025</t>
+          <t>A 26397-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45812.84489583333</v>
+        <v>45807</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5068,14 +5068,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40157-2023</t>
+          <t>A 6690-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45169.36275462963</v>
+        <v>44966</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5125,14 +5125,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35113-2024</t>
+          <t>A 42155-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45529.83986111111</v>
+        <v>45904.40079861111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,8 +5144,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5182,14 +5187,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7817-2024</t>
+          <t>A 16821-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45349</v>
+        <v>45754.64318287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5202,7 +5207,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.9</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5239,14 +5244,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16467-2025</t>
+          <t>A 27414-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45751.54304398148</v>
+        <v>45812.84578703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5259,7 +5264,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5296,14 +5301,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42155-2025</t>
+          <t>A 27413-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45904.40079861111</v>
+        <v>45812.84489583333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,13 +5320,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5358,14 +5358,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28940-2025</t>
+          <t>A 43134-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45820</v>
+        <v>45909.83324074074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.7</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5415,14 +5415,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28941-2025</t>
+          <t>A 40157-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45820</v>
+        <v>45169.36275462963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5472,14 +5472,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28942-2025</t>
+          <t>A 35113-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45820</v>
+        <v>45529.83986111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5529,14 +5529,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16813-2025</t>
+          <t>A 7817-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45754.63344907408</v>
+        <v>45349</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>8.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5586,14 +5586,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4438-2025</t>
+          <t>A 16467-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45686.51674768519</v>
+        <v>45751.54304398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5643,14 +5643,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43134-2025</t>
+          <t>A 28940-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45909.83324074074</v>
+        <v>45820</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>7.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5700,14 +5700,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62586-2025</t>
+          <t>A 28941-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46007.84753472222</v>
+        <v>45820</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5757,14 +5757,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30641-2024</t>
+          <t>A 28942-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45495.57349537037</v>
+        <v>45820</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5814,14 +5814,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 62956-2025</t>
+          <t>A 16813-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46009</v>
+        <v>45754.63344907408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5871,14 +5871,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 27549-2022</t>
+          <t>A 4438-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44742.8079050926</v>
+        <v>45686.51674768519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5928,14 +5928,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16569-2025</t>
+          <t>A 30641-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45752.46914351852</v>
+        <v>45495.57349537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>10.5</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5985,14 +5985,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32099-2025</t>
+          <t>A 58356-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45835.46706018518</v>
+        <v>45985.5115162037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6042,14 +6042,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5832-2025</t>
+          <t>A 46536-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45694.84364583333</v>
+        <v>45926.34168981481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6099,14 +6099,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32856-2025</t>
+          <t>A 46539-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45839.57771990741</v>
+        <v>45926.34392361111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6156,14 +6156,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7278-2025</t>
+          <t>A 46533-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45702.63168981481</v>
+        <v>45926.34030092593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6213,14 +6213,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46536-2025</t>
+          <t>A 46848-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45926.34168981481</v>
+        <v>45928.71738425926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6270,14 +6270,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46539-2025</t>
+          <t>A 27549-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45926.34392361111</v>
+        <v>44742.8079050926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6327,14 +6327,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46533-2025</t>
+          <t>A 16569-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45926.34030092593</v>
+        <v>45752.46914351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>10.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6384,14 +6384,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 19107-2023</t>
+          <t>A 32099-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45048.45601851852</v>
+        <v>45835.46706018518</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6441,14 +6441,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46848-2025</t>
+          <t>A 5832-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45928.71738425926</v>
+        <v>45694.84364583333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>45933.30746527778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6555,14 +6555,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6196-2023</t>
+          <t>A 7278-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44964.73979166667</v>
+        <v>45702.63168981481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>45933.30634259259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6669,14 +6669,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6208-2023</t>
+          <t>A 32856-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44964.8028587963</v>
+        <v>45839.57771990741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6726,14 +6726,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58378-2024</t>
+          <t>A 48911-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45632.81232638889</v>
+        <v>45937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6783,14 +6783,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 48911-2025</t>
+          <t>A 19107-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45937</v>
+        <v>45048.45601851852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6847,7 +6847,7 @@
         <v>45937.61747685185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45937.61915509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45940.386875</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7011,14 +7011,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49733-2024</t>
+          <t>A 6196-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45596.84603009259</v>
+        <v>44964.73979166667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>15.1</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7068,14 +7068,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 37131-2025</t>
+          <t>A 6208-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45875.54335648148</v>
+        <v>44964.8028587963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7125,14 +7125,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 39990-2024</t>
+          <t>A 58378-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45553.62622685185</v>
+        <v>45632.81232638889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7182,14 +7182,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 37133-2025</t>
+          <t>A 52321-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45875.54409722222</v>
+        <v>45953.66415509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7239,14 +7239,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 15707-2025</t>
+          <t>A 49733-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45748.49090277778</v>
+        <v>45596.84603009259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>15.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7296,14 +7296,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 63613-2025</t>
+          <t>A 39990-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46014.34581018519</v>
+        <v>45553.62622685185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7353,14 +7353,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 37427-2025</t>
+          <t>A 14226-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45877.49123842592</v>
+        <v>45393</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7410,14 +7410,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14226-2024</t>
+          <t>A 55293-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45393</v>
+        <v>45621</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7467,14 +7467,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55293-2024</t>
+          <t>A 55295-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>45621</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7524,14 +7524,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 55295-2024</t>
+          <t>A 55296-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>45621</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7581,14 +7581,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 55296-2024</t>
+          <t>A 53538-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45621</v>
+        <v>45959</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7638,14 +7638,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 37424-2025</t>
+          <t>A 57500-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45877.4903125</v>
+        <v>44896.63857638889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7695,14 +7695,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 52321-2025</t>
+          <t>A 37131-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45953.66415509259</v>
+        <v>45875.54335648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7752,14 +7752,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 57500-2022</t>
+          <t>A 37133-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44896.63857638889</v>
+        <v>45875.54409722222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7809,14 +7809,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 53538-2025</t>
+          <t>A 2642-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45959</v>
+        <v>45676.46021990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7866,14 +7866,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 2642-2025</t>
+          <t>A 1347-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45676.46021990741</v>
+        <v>46031.59274305555</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7923,14 +7923,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 20671-2022</t>
+          <t>A 37427-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44700.65571759259</v>
+        <v>45877.49123842592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7980,14 +7980,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6222-2024</t>
+          <t>A 1400-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45337.64701388889</v>
+        <v>46031.6427662037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8000,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8037,14 +8037,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 7821-2024</t>
+          <t>A 37424-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45349</v>
+        <v>45877.4903125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8094,14 +8094,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 7823-2024</t>
+          <t>A 1384-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45349</v>
+        <v>46031.62291666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8151,14 +8151,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 55693-2025</t>
+          <t>A 1394-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45972.43956018519</v>
+        <v>46031.63753472222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8208,14 +8208,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 56310-2025</t>
+          <t>A 20671-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45974.62328703704</v>
+        <v>44700.65571759259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8265,14 +8265,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56373-2025</t>
+          <t>A 6222-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45974.68520833334</v>
+        <v>45337.64701388889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8322,14 +8322,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 22270-2024</t>
+          <t>A 7821-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45446</v>
+        <v>45349</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8379,14 +8379,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 6194-2023</t>
+          <t>A 7823-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44964</v>
+        <v>45349</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8436,14 +8436,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 6214-2023</t>
+          <t>A 22270-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44964.81380787037</v>
+        <v>45446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8493,14 +8493,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49925-2023</t>
+          <t>A 6194-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45214.86449074074</v>
+        <v>44964</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8550,14 +8550,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 58356-2025</t>
+          <t>A 6214-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45985.5115162037</v>
+        <v>44964.81380787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8607,14 +8607,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 28605-2023</t>
+          <t>A 49925-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45103.5830787037</v>
+        <v>45214.86449074074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8664,14 +8664,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1347-2026</t>
+          <t>A 1221-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46031.59274305555</v>
+        <v>46031.4018287037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8683,8 +8683,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8721,14 +8726,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1400-2026</t>
+          <t>A 28605-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46031.6427662037</v>
+        <v>45103.5830787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8741,7 +8746,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8785,7 +8790,7 @@
         <v>45145.88350694445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8835,14 +8840,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1384-2026</t>
+          <t>A 17007-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46031.62291666667</v>
+        <v>45755.54241898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8855,7 +8860,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8892,14 +8897,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 1394-2026</t>
+          <t>A 17011-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46031.63753472222</v>
+        <v>45755.54761574074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8912,7 +8917,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8949,14 +8954,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 17007-2025</t>
+          <t>A 16567-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45755.54241898148</v>
+        <v>45752.46074074074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8969,7 +8974,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9006,14 +9011,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 17011-2025</t>
+          <t>A 16568-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45755.54761574074</v>
+        <v>45752.46453703703</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9026,7 +9031,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9063,14 +9068,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16567-2025</t>
+          <t>A 16570-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45752.46074074074</v>
+        <v>45752.47210648148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9083,7 +9088,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9120,14 +9125,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16568-2025</t>
+          <t>A 46901-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45752.46453703703</v>
+        <v>45201</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9140,7 +9145,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9177,14 +9182,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 16570-2025</t>
+          <t>A 10207-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45752.47210648148</v>
+        <v>45719</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9197,7 +9202,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9234,14 +9239,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 46901-2023</t>
+          <t>A 62586-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45201</v>
+        <v>46007.84753472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9254,7 +9259,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9291,14 +9296,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 10207-2025</t>
+          <t>A 62956-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45719</v>
+        <v>46009</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9311,7 +9316,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9355,7 +9360,7 @@
         <v>45169</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9412,7 +9417,7 @@
         <v>45638.2815162037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9469,7 +9474,7 @@
         <v>44977.385625</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9519,14 +9524,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 1221-2026</t>
+          <t>A 16573-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46031.4018287037</v>
+        <v>45752</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9538,13 +9543,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>2.2</v>
+        <v>9.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9581,14 +9581,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16573-2025</t>
+          <t>A 11075-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45752</v>
+        <v>44260</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>9.6</v>
+        <v>3.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9638,14 +9638,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 11075-2021</t>
+          <t>A 8020-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44260</v>
+        <v>45707.569375</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9695,14 +9695,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 8020-2025</t>
+          <t>A 46006-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45707.569375</v>
+        <v>44846</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9752,14 +9752,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 46006-2022</t>
+          <t>A 15707-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44846</v>
+        <v>45748.49090277778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9809,14 +9809,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 16350-2022</t>
+          <t>A 63613-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44670</v>
+        <v>46014.34581018519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9866,14 +9866,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 2495-2024</t>
+          <t>A 16350-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45313</v>
+        <v>44670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9923,14 +9923,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59332-2024</t>
+          <t>A 2495-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45637.79350694444</v>
+        <v>45313</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9980,14 +9980,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 9892-2025</t>
+          <t>A 59332-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45716.70597222223</v>
+        <v>45637.79350694444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10037,14 +10037,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 23787-2024</t>
+          <t>A 9892-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45455.42315972222</v>
+        <v>45716.70597222223</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10094,14 +10094,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 10206-2025</t>
+          <t>A 23787-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45719</v>
+        <v>45455.42315972222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10151,14 +10151,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 16449-2025</t>
+          <t>A 10206-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45751.5106712963</v>
+        <v>45719</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10208,14 +10208,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 11515-2024</t>
+          <t>A 16449-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45372.77957175926</v>
+        <v>45751.5106712963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10227,13 +10227,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10270,14 +10265,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 14064-2025</t>
+          <t>A 11515-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45740.41469907408</v>
+        <v>45372.77957175926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10289,8 +10284,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10327,153 +10327,153 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
+          <t>A 14064-2025</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>45740.41469907408</v>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" s="2" t="inlineStr"/>
+    </row>
+    <row r="167" ht="15" customHeight="1">
+      <c r="A167" t="inlineStr">
+        <is>
           <t>A 7181-2023</t>
         </is>
       </c>
-      <c r="B166" s="1" t="n">
+      <c r="B167" s="1" t="n">
         <v>44970</v>
       </c>
-      <c r="C166" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
+      <c r="C167" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G166" t="n">
+      <c r="G167" t="n">
         <v>2</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P166" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>0</v>
-      </c>
-      <c r="R166" s="2" t="inlineStr"/>
-      <c r="U166">
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" s="2" t="inlineStr"/>
+      <c r="U167">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="V166">
+      <c r="V167">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="W166">
+      <c r="W167">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="X166">
+      <c r="X167">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="Y166">
+      <c r="Y167">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="167" ht="15" customHeight="1">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>A 4355-2023</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>44954.598125</v>
-      </c>
-      <c r="C167" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0</v>
-      </c>
-      <c r="L167" t="n">
-        <v>0</v>
-      </c>
-      <c r="M167" t="n">
-        <v>0</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0</v>
-      </c>
-      <c r="O167" t="n">
-        <v>0</v>
-      </c>
-      <c r="P167" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>0</v>
-      </c>
-      <c r="R167" s="2" t="inlineStr"/>
-    </row>
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 22110-2021</t>
+          <t>A 4355-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44323.6992824074</v>
+        <v>44954.598125</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10523,14 +10523,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 2497-2024</t>
+          <t>A 22110-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45313</v>
+        <v>44323.6992824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10580,14 +10580,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 12420-2025</t>
+          <t>A 2497-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45730.45248842592</v>
+        <v>45313</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10637,14 +10637,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 14743-2022</t>
+          <t>A 12420-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44656.37567129629</v>
+        <v>45730.45248842592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10694,14 +10694,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 14748-2022</t>
+          <t>A 14743-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44656</v>
+        <v>44656.37567129629</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10751,14 +10751,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 39353-2022</t>
+          <t>A 14748-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44817</v>
+        <v>44656</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10808,14 +10808,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 57025-2022</t>
+          <t>A 39353-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44895</v>
+        <v>44817</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10865,14 +10865,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 23789-2024</t>
+          <t>A 57025-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45455.42549768519</v>
+        <v>44895</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10922,14 +10922,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1489-2024</t>
+          <t>A 23789-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45305</v>
+        <v>45455.42549768519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10979,14 +10979,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 52385-2022</t>
+          <t>A 1489-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44869</v>
+        <v>45305</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>10.9</v>
+        <v>3.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11036,14 +11036,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 2293-2025</t>
+          <t>A 52385-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45673.59221064814</v>
+        <v>44869</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>10.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11093,14 +11093,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 2294-2025</t>
+          <t>A 2293-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45673.59290509259</v>
+        <v>45673.59221064814</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11150,14 +11150,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56145-2022</t>
+          <t>A 2294-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44889</v>
+        <v>45673.59290509259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>14.1</v>
+        <v>2.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11207,14 +11207,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 62232-2022</t>
+          <t>A 56145-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44922</v>
+        <v>44889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.1</v>
+        <v>14.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11264,14 +11264,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57195-2024</t>
+          <t>A 62232-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45629.47</v>
+        <v>44922</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11283,13 +11283,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11326,14 +11321,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 4356-2023</t>
+          <t>A 57195-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44954.60174768518</v>
+        <v>45629.47</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11345,8 +11340,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11383,14 +11383,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 4359-2023</t>
+          <t>A 4356-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44954.69856481482</v>
+        <v>44954.60174768518</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11440,14 +11440,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 12273-2023</t>
+          <t>A 4359-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44998</v>
+        <v>44954.69856481482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11497,14 +11497,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 50297-2022</t>
+          <t>A 12273-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44865.92474537037</v>
+        <v>44998</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11554,14 +11554,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11457-2023</t>
+          <t>A 50297-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44993.58428240741</v>
+        <v>44865.92474537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11611,14 +11611,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 56876-2023</t>
+          <t>A 11457-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45244</v>
+        <v>44993.58428240741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11668,14 +11668,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 7268-2025</t>
+          <t>A 56876-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45702.60103009259</v>
+        <v>45244</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11725,14 +11725,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 24568-2023</t>
+          <t>A 7268-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45083.5209837963</v>
+        <v>45702.60103009259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11782,14 +11782,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1794-2023</t>
+          <t>A 24568-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44938.6234837963</v>
+        <v>45083.5209837963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11839,14 +11839,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 34914-2022</t>
+          <t>A 1794-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44796</v>
+        <v>44938.6234837963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11896,14 +11896,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 14742-2022</t>
+          <t>A 34914-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44656</v>
+        <v>44796</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11953,14 +11953,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14745-2022</t>
+          <t>A 14742-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12010,14 +12010,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 26757-2024</t>
+          <t>A 14745-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45469</v>
+        <v>44656</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12067,14 +12067,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 42872-2022</t>
+          <t>A 26757-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44832</v>
+        <v>45469</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12124,14 +12124,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3775-2024</t>
+          <t>A 42872-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45321</v>
+        <v>44832</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12181,14 +12181,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 40661-2023</t>
+          <t>A 3775-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45170</v>
+        <v>45321</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12238,14 +12238,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 15489-2024</t>
+          <t>A 40661-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45401</v>
+        <v>45170</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12295,14 +12295,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 11117-2023</t>
+          <t>A 15489-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44992.45543981482</v>
+        <v>45401</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12352,14 +12352,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 11282-2024</t>
+          <t>A 11117-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45371.72210648148</v>
+        <v>44992.45543981482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12409,14 +12409,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 16465-2025</t>
+          <t>A 11282-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45751.53894675926</v>
+        <v>45371.72210648148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12466,14 +12466,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 51118-2023</t>
+          <t>A 16465-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45219</v>
+        <v>45751.53894675926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12523,14 +12523,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 3946-2023</t>
+          <t>A 51118-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44952.37013888889</v>
+        <v>45219</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12580,14 +12580,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 47860-2023</t>
+          <t>A 3946-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45204</v>
+        <v>44952.37013888889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12637,14 +12637,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 23128-2024</t>
+          <t>A 47860-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45450.61440972222</v>
+        <v>45204</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12694,14 +12694,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 10742-2025</t>
+          <t>A 23128-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45722.41454861111</v>
+        <v>45450.61440972222</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12751,14 +12751,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 15189-2023</t>
+          <t>A 10742-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45016.70493055556</v>
+        <v>45722.41454861111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12808,14 +12808,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 16571-2025</t>
+          <t>A 15189-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45752.47685185185</v>
+        <v>45016.70493055556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12865,14 +12865,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 58712-2023</t>
+          <t>A 16571-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45251</v>
+        <v>45752.47685185185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12922,14 +12922,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 16349-2022</t>
+          <t>A 58712-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44670</v>
+        <v>45251</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12979,14 +12979,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 11281-2024</t>
+          <t>A 16349-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45371.71887731482</v>
+        <v>44670</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13036,14 +13036,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 57423-2023</t>
+          <t>A 11281-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45246.22380787037</v>
+        <v>45371.71887731482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13093,14 +13093,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16572-2025</t>
+          <t>A 57423-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45752.48247685185</v>
+        <v>45246.22380787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13150,14 +13150,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 64387-2023</t>
+          <t>A 16572-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45280.58269675926</v>
+        <v>45752.48247685185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13207,14 +13207,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 4252-2024</t>
+          <t>A 64387-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45324.48243055555</v>
+        <v>45280.58269675926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13264,14 +13264,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 4957-2022</t>
+          <t>A 4252-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44593</v>
+        <v>45324.48243055555</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 7365-2023</t>
+          <t>A 35828-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44971</v>
+        <v>45532.67104166667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,155 +778,155 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Ask
+Svinrot</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 35828-2024 artfynd.xlsx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 35828-2024 karta.png", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 35828-2024 FSC-klagomål.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 35828-2024 FSC-klagomål mail.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 35828-2024 tillsynsbegäran.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 35828-2024 tillsynsbegäran mail.docx", "A 35828-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 7365-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 35828-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45532.67104166667</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Svinrot</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 35828-2024 artfynd.xlsx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 35828-2024 karta.png", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 35828-2024 FSC-klagomål.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 35828-2024 FSC-klagomål mail.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 35828-2024 tillsynsbegäran.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 35828-2024 tillsynsbegäran mail.docx", "A 35828-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45189</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,14 +1020,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 45507-2024</t>
+          <t>A 31093-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45578</v>
+        <v>45832.5953125</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1064,572 +1064,572 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 15498-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 15498-2024 artfynd.xlsx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 15498-2024 karta.png", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 15498-2024 karta knärot.png", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 15498-2024 FSC-klagomål.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 15498-2024 FSC-klagomål mail.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 15498-2024 tillsynsbegäran.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 15498-2024 tillsynsbegäran mail.docx", "A 15498-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 56244-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 13882-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 17410-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45414.89228009259</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Mörk husmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 16446-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45751.50320601852</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Dvärghäxört</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 45507-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45578</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 31093-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45832.5953125</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 31093-2025 artfynd.xlsx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 31093-2025 karta.png", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 31093-2025 FSC-klagomål.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 31093-2025 FSC-klagomål mail.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 31093-2025 tillsynsbegäran.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 31093-2025 tillsynsbegäran mail.docx", "A 31093-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 15498-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 15498-2024 artfynd.xlsx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 15498-2024 karta.png", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 15498-2024 karta knärot.png", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 15498-2024 FSC-klagomål.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 15498-2024 FSC-klagomål mail.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 15498-2024 tillsynsbegäran.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 15498-2024 tillsynsbegäran mail.docx", "A 15498-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 56244-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44890</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 16446-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45751.50320601852</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Dvärghäxört</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 17410-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45414.89228009259</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Mörk husmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 13882-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45007</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1804,14 +1804,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 24817-2021</t>
+          <t>A 55888-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44340.69202546297</v>
+        <v>44476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1861,14 +1861,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 55888-2021</t>
+          <t>A 55897-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44476</v>
+        <v>44476.84085648148</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1918,14 +1918,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 55897-2021</t>
+          <t>A 24817-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44476.84085648148</v>
+        <v>44340.69202546297</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>44516</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44817</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44456</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44476.83903935185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44433.46096064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44469.44841435185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44412.36203703703</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44340.68202546296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2788,14 +2788,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47692-2022</t>
+          <t>A 9903-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44854</v>
+        <v>44620</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>16.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2845,14 +2845,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 9903-2022</t>
+          <t>A 47692-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44620</v>
+        <v>44854</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>16.8</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44607</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44707.73799768519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44665</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3358,14 +3358,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14230-2024</t>
+          <t>A 7278-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45393</v>
+        <v>45702.63168981481</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 35245-2023</t>
+          <t>A 10206-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45145.88599537037</v>
+        <v>45719</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 3837-2025</t>
+          <t>A 48096-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45682.66153935185</v>
+        <v>45933.30746527778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 37797-2024</t>
+          <t>A 39353-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45543.54533564814</v>
+        <v>44817</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 37798-2024</t>
+          <t>A 48095-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45543.54836805556</v>
+        <v>45933.30634259259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28791-2024</t>
+          <t>A 7268-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45478.613125</v>
+        <v>45702.60103009259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 4957-2022</t>
+          <t>A 64387-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44593</v>
+        <v>45280.58269675926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21687-2022</t>
+          <t>A 4252-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44707</v>
+        <v>45324.48243055555</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 71048-2021</t>
+          <t>A 49024-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44538</v>
+        <v>45937.61747685185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3871,14 +3871,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29527-2024</t>
+          <t>A 39590-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45484.46942129629</v>
+        <v>45890.52939814814</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3928,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6210-2023</t>
+          <t>A 4957-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44964.80734953703</v>
+        <v>44593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3985,14 +3985,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6212-2023</t>
+          <t>A 46006-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44964.81168981481</v>
+        <v>44846</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55693-2025</t>
+          <t>A 11227-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45972.43956018519</v>
+        <v>45726.34702546296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4099,14 +4099,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6209-2023</t>
+          <t>A 42872-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44964.80540509259</v>
+        <v>44832</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56310-2025</t>
+          <t>A 23787-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45974.62328703704</v>
+        <v>45455.42315972222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4213,14 +4213,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56373-2025</t>
+          <t>A 49025-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45974.68520833334</v>
+        <v>45937.61915509259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 39590-2025</t>
+          <t>A 29527-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45890.52939814814</v>
+        <v>45484.46942129629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49734-2024</t>
+          <t>A 6209-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45596.84884259259</v>
+        <v>44964.80540509259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11227-2025</t>
+          <t>A 57025-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45726.34702546296</v>
+        <v>44895</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24440-2025</t>
+          <t>A 48911-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45797.82753472222</v>
+        <v>45937</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 12423-2025</t>
+          <t>A 49779-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45730.45483796296</v>
+        <v>45940.386875</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 14033-2025</t>
+          <t>A 6210-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45740.36262731482</v>
+        <v>44964.80734953703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 24439-2025</t>
+          <t>A 6212-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45797.82457175926</v>
+        <v>44964.81168981481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14029-2025</t>
+          <t>A 6214-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45740.35556712963</v>
+        <v>44964.81380787037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33875-2024</t>
+          <t>A 42155-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45521</v>
+        <v>45904.40079861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,8 +4745,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4783,14 +4788,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25863-2025</t>
+          <t>A 52385-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45804.47696759259</v>
+        <v>44869</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4803,7 +4808,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.2</v>
+        <v>10.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4840,14 +4845,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59503-2024</t>
+          <t>A 26757-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45638.55125</v>
+        <v>45469</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4897,14 +4902,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39988-2024</t>
+          <t>A 12423-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45553.62432870371</v>
+        <v>45730.45483796296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4917,7 +4922,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4954,14 +4959,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 24566-2023</t>
+          <t>A 35113-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45083.51130787037</v>
+        <v>45529.83986111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4974,7 +4979,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>13.1</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5011,14 +5016,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26397-2025</t>
+          <t>A 14033-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45807</v>
+        <v>45740.36262731482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5031,7 +5036,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5068,14 +5073,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6690-2023</t>
+          <t>A 24440-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44966</v>
+        <v>45797.82753472222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5088,7 +5093,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5125,14 +5130,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42155-2025</t>
+          <t>A 24439-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45904.40079861111</v>
+        <v>45797.82457175926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,13 +5149,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5187,14 +5187,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16821-2025</t>
+          <t>A 39988-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45754.64318287037</v>
+        <v>45553.62432870371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5244,14 +5244,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27414-2025</t>
+          <t>A 52321-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45812.84578703704</v>
+        <v>45953.66415509259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5301,14 +5301,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27413-2025</t>
+          <t>A 14029-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45812.84489583333</v>
+        <v>45740.35556712963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5358,14 +5358,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43134-2025</t>
+          <t>A 56145-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45909.83324074074</v>
+        <v>44889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>14.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5415,14 +5415,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40157-2023</t>
+          <t>A 43134-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45169.36275462963</v>
+        <v>45909.83324074074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5472,14 +5472,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 35113-2024</t>
+          <t>A 53538-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45529.83986111111</v>
+        <v>45959</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5529,14 +5529,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7817-2024</t>
+          <t>A 33875-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45349</v>
+        <v>45521</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8.9</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5586,14 +5586,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16467-2025</t>
+          <t>A 6196-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45751.54304398148</v>
+        <v>44964.73979166667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5643,14 +5643,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 28940-2025</t>
+          <t>A 25863-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45820</v>
+        <v>45804.47696759259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5700,14 +5700,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28941-2025</t>
+          <t>A 55693-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45820</v>
+        <v>45972.43956018519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5757,14 +5757,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28942-2025</t>
+          <t>A 3775-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45820</v>
+        <v>45321</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5814,14 +5814,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 16813-2025</t>
+          <t>A 57500-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45754.63344907408</v>
+        <v>44896.63857638889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5871,14 +5871,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4438-2025</t>
+          <t>A 14226-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45686.51674768519</v>
+        <v>45393</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5928,14 +5928,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30641-2024</t>
+          <t>A 56310-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45495.57349537037</v>
+        <v>45974.62328703704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5985,14 +5985,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58356-2025</t>
+          <t>A 26397-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45985.5115162037</v>
+        <v>45807</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6042,14 +6042,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46536-2025</t>
+          <t>A 46533-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45926.34168981481</v>
+        <v>45926.34030092593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6099,14 +6099,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 46539-2025</t>
+          <t>A 56373-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45926.34392361111</v>
+        <v>45974.68520833334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6156,14 +6156,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46533-2025</t>
+          <t>A 46539-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45926.34030092593</v>
+        <v>45926.34392361111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6213,14 +6213,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46848-2025</t>
+          <t>A 27413-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45928.71738425926</v>
+        <v>45812.84489583333</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6270,14 +6270,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27549-2022</t>
+          <t>A 27414-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44742.8079050926</v>
+        <v>45812.84578703704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6327,14 +6327,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16569-2025</t>
+          <t>A 46536-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45752.46914351852</v>
+        <v>45926.34168981481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6384,14 +6384,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32099-2025</t>
+          <t>A 46848-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45835.46706018518</v>
+        <v>45928.71738425926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6441,14 +6441,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5832-2025</t>
+          <t>A 7821-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45694.84364583333</v>
+        <v>45349</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6498,14 +6498,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 48096-2025</t>
+          <t>A 7823-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45933.30746527778</v>
+        <v>45349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6555,14 +6555,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7278-2025</t>
+          <t>A 28942-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45702.63168981481</v>
+        <v>45820</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6612,14 +6612,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 48095-2025</t>
+          <t>A 28940-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45933.30634259259</v>
+        <v>45820</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>7.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6669,14 +6669,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32856-2025</t>
+          <t>A 28941-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45839.57771990741</v>
+        <v>45820</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6726,14 +6726,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 48911-2025</t>
+          <t>A 16349-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45937</v>
+        <v>44670</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6783,14 +6783,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 19107-2023</t>
+          <t>A 39990-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45048.45601851852</v>
+        <v>45553.62622685185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6840,14 +6840,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49024-2025</t>
+          <t>A 14743-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45937.61747685185</v>
+        <v>44656.37567129629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6897,14 +6897,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49025-2025</t>
+          <t>A 14748-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45937.61915509259</v>
+        <v>44656</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6954,14 +6954,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49779-2025</t>
+          <t>A 62232-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45940.386875</v>
+        <v>44922</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7011,14 +7011,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 6196-2023</t>
+          <t>A 32099-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44964.73979166667</v>
+        <v>45835.46706018518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7068,14 +7068,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6208-2023</t>
+          <t>A 32856-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44964.8028587963</v>
+        <v>45839.57771990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7125,14 +7125,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 58378-2024</t>
+          <t>A 21687-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45632.81232638889</v>
+        <v>44707</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7182,14 +7182,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52321-2025</t>
+          <t>A 58356-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45953.66415509259</v>
+        <v>45985.5115162037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7246,7 +7246,7 @@
         <v>45596.84603009259</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7296,14 +7296,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 39990-2024</t>
+          <t>A 58712-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45553.62622685185</v>
+        <v>45251</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7353,14 +7353,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 14226-2024</t>
+          <t>A 12273-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45393</v>
+        <v>44998</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7410,14 +7410,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55293-2024</t>
+          <t>A 1394-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45621</v>
+        <v>46031.63753472222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7467,14 +7467,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55295-2024</t>
+          <t>A 1384-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45621</v>
+        <v>46031.62291666667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7524,14 +7524,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 55296-2024</t>
+          <t>A 1400-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45621</v>
+        <v>46031.6427662037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7581,14 +7581,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 53538-2025</t>
+          <t>A 1347-2026</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45959</v>
+        <v>46031.59274305555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7638,14 +7638,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57500-2022</t>
+          <t>A 1221-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44896.63857638889</v>
+        <v>46031.4018287037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7657,8 +7657,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7695,14 +7700,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37131-2025</t>
+          <t>A 59503-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45875.54335648148</v>
+        <v>45638.55125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7715,7 +7720,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7752,14 +7757,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 37133-2025</t>
+          <t>A 8371-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45875.54409722222</v>
+        <v>44977.385625</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7772,7 +7777,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7809,14 +7814,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 2642-2025</t>
+          <t>A 8020-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45676.46021990741</v>
+        <v>45707.569375</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7829,7 +7834,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7866,14 +7871,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1347-2026</t>
+          <t>A 37131-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46031.59274305555</v>
+        <v>45875.54335648148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7886,7 +7891,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7923,14 +7928,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37427-2025</t>
+          <t>A 37133-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45877.49123842592</v>
+        <v>45875.54409722222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7943,7 +7948,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7980,14 +7985,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 1400-2026</t>
+          <t>A 37427-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46031.6427662037</v>
+        <v>45877.49123842592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8000,7 +8005,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8044,7 +8049,7 @@
         <v>45877.4903125</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8094,14 +8099,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 1384-2026</t>
+          <t>A 47860-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46031.62291666667</v>
+        <v>45204</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8114,7 +8119,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8151,14 +8156,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1394-2026</t>
+          <t>A 49734-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46031.63753472222</v>
+        <v>45596.84884259259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8171,7 +8176,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8208,14 +8213,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 20671-2022</t>
+          <t>A 58378-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44700.65571759259</v>
+        <v>45632.81232638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8228,7 +8233,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8265,14 +8270,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 6222-2024</t>
+          <t>A 5832-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45337.64701388889</v>
+        <v>45694.84364583333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8285,7 +8290,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8322,14 +8327,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 7821-2024</t>
+          <t>A 55293-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45349</v>
+        <v>45621</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8342,7 +8347,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8379,14 +8384,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 7823-2024</t>
+          <t>A 62586-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45349</v>
+        <v>46007.84753472222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8399,7 +8404,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8436,14 +8441,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 22270-2024</t>
+          <t>A 16467-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45446</v>
+        <v>45751.54304398148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8456,7 +8461,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8493,14 +8498,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 6194-2023</t>
+          <t>A 16573-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44964</v>
+        <v>45752</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8513,7 +8518,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8550,14 +8555,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 6214-2023</t>
+          <t>A 40960-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44964.81380787037</v>
+        <v>45169</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8570,7 +8575,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8607,14 +8612,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 49925-2023</t>
+          <t>A 57423-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45214.86449074074</v>
+        <v>45246.22380787037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8627,7 +8632,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8664,14 +8669,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1221-2026</t>
+          <t>A 15189-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46031.4018287037</v>
+        <v>45016.70493055556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8683,13 +8688,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8726,14 +8726,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 28605-2023</t>
+          <t>A 62956-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45103.5830787037</v>
+        <v>46009</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8783,14 +8783,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 35244-2023</t>
+          <t>A 63613-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45145.88350694445</v>
+        <v>46014.34581018519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8840,14 +8840,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 17007-2025</t>
+          <t>A 15707-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45755.54241898148</v>
+        <v>45748.49090277778</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8897,14 +8897,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 17011-2025</t>
+          <t>A 16813-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45755.54761574074</v>
+        <v>45754.63344907408</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8954,14 +8954,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 16567-2025</t>
+          <t>A 50297-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45752.46074074074</v>
+        <v>44865.92474537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9011,14 +9011,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16568-2025</t>
+          <t>A 16567-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45752.46453703703</v>
+        <v>45752.46074074074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9068,14 +9068,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16570-2025</t>
+          <t>A 16568-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45752.47210648148</v>
+        <v>45752.46453703703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9125,14 +9125,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 46901-2023</t>
+          <t>A 16570-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45201</v>
+        <v>45752.47210648148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9182,14 +9182,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 10207-2025</t>
+          <t>A 30641-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45719</v>
+        <v>45495.57349537037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9239,14 +9239,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62586-2025</t>
+          <t>A 10742-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46007.84753472222</v>
+        <v>45722.41454861111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9296,14 +9296,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 62956-2025</t>
+          <t>A 2495-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46009</v>
+        <v>45313</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9353,14 +9353,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 40960-2023</t>
+          <t>A 16449-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45169</v>
+        <v>45751.5106712963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9410,14 +9410,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 59349-2024</t>
+          <t>A 4355-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45638.2815162037</v>
+        <v>44954.598125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9467,14 +9467,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 8371-2023</t>
+          <t>A 14230-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44977.385625</v>
+        <v>45393</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9524,14 +9524,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 16573-2025</t>
+          <t>A 11117-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45752</v>
+        <v>44992.45543981482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>9.6</v>
+        <v>3.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9581,14 +9581,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 11075-2021</t>
+          <t>A 1794-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44260</v>
+        <v>44938.6234837963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9638,14 +9638,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 8020-2025</t>
+          <t>A 35245-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45707.569375</v>
+        <v>45145.88599537037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9695,14 +9695,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 46006-2022</t>
+          <t>A 1489-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44846</v>
+        <v>45305</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9752,14 +9752,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 15707-2025</t>
+          <t>A 19107-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45748.49090277778</v>
+        <v>45048.45601851852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9809,14 +9809,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 63613-2025</t>
+          <t>A 59349-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46014.34581018519</v>
+        <v>45638.2815162037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9866,14 +9866,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 16350-2022</t>
+          <t>A 15489-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44670</v>
+        <v>45401</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9923,14 +9923,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2495-2024</t>
+          <t>A 37797-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45313</v>
+        <v>45543.54533564814</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9980,14 +9980,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59332-2024</t>
+          <t>A 37798-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45637.79350694444</v>
+        <v>45543.54836805556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10037,14 +10037,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 9892-2025</t>
+          <t>A 16571-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45716.70597222223</v>
+        <v>45752.47685185185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10094,14 +10094,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 23787-2024</t>
+          <t>A 57195-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45455.42315972222</v>
+        <v>45629.47</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10113,8 +10113,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10151,14 +10156,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10206-2025</t>
+          <t>A 10207-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
         <v>45719</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10171,7 +10176,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10208,14 +10213,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 16449-2025</t>
+          <t>A 35244-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45751.5106712963</v>
+        <v>45145.88350694445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10228,7 +10233,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10265,14 +10270,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 11515-2024</t>
+          <t>A 7817-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45372.77957175926</v>
+        <v>45349</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10284,13 +10289,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10327,14 +10327,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 14064-2025</t>
+          <t>A 46901-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45740.41469907408</v>
+        <v>45201</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10384,14 +10384,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 7181-2023</t>
+          <t>A 40661-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44970</v>
+        <v>45170</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10401,11 +10401,6 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G167" t="n">
@@ -10442,1810 +10437,1815 @@
         <v>0</v>
       </c>
       <c r="R167" s="2" t="inlineStr"/>
-      <c r="U167">
+    </row>
+    <row r="168" ht="15" customHeight="1">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>A 11282-2024</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>45371.72210648148</v>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" s="2" t="inlineStr"/>
+    </row>
+    <row r="169" ht="15" customHeight="1">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>A 3837-2025</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>45682.66153935185</v>
+      </c>
+      <c r="C169" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" s="2" t="inlineStr"/>
+    </row>
+    <row r="170" ht="15" customHeight="1">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>A 12420-2025</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>45730.45248842592</v>
+      </c>
+      <c r="C170" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" s="2" t="inlineStr"/>
+    </row>
+    <row r="171" ht="15" customHeight="1">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>A 2293-2025</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>45673.59221064814</v>
+      </c>
+      <c r="C171" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172" ht="15" customHeight="1">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>A 2294-2025</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>45673.59290509259</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" s="2" t="inlineStr"/>
+    </row>
+    <row r="173" ht="15" customHeight="1">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>A 40157-2023</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>45169.36275462963</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" s="2" t="inlineStr"/>
+    </row>
+    <row r="174" ht="15" customHeight="1">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>A 4438-2025</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>45686.51674768519</v>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" s="2" t="inlineStr"/>
+    </row>
+    <row r="175" ht="15" customHeight="1">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>A 14742-2022</t>
+        </is>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>44656</v>
+      </c>
+      <c r="C175" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" s="2" t="inlineStr"/>
+    </row>
+    <row r="176" ht="15" customHeight="1">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>A 16465-2025</t>
+        </is>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>45751.53894675926</v>
+      </c>
+      <c r="C176" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" s="2" t="inlineStr"/>
+    </row>
+    <row r="177" ht="15" customHeight="1">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>A 14745-2022</t>
+        </is>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>44656</v>
+      </c>
+      <c r="C177" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" s="2" t="inlineStr"/>
+    </row>
+    <row r="178" ht="15" customHeight="1">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>A 49925-2023</t>
+        </is>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>45214.86449074074</v>
+      </c>
+      <c r="C178" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" s="2" t="inlineStr"/>
+    </row>
+    <row r="179" ht="15" customHeight="1">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>A 59332-2024</t>
+        </is>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>45637.79350694444</v>
+      </c>
+      <c r="C179" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" s="2" t="inlineStr"/>
+    </row>
+    <row r="180" ht="15" customHeight="1">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>A 24566-2023</t>
+        </is>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>45083.51130787037</v>
+      </c>
+      <c r="C180" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" s="2" t="inlineStr"/>
+    </row>
+    <row r="181" ht="15" customHeight="1">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>A 16350-2022</t>
+        </is>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>44670</v>
+      </c>
+      <c r="C181" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" s="2" t="inlineStr"/>
+    </row>
+    <row r="182" ht="15" customHeight="1">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>A 14064-2025</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>45740.41469907408</v>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" s="2" t="inlineStr"/>
+    </row>
+    <row r="183" ht="15" customHeight="1">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>A 16572-2025</t>
+        </is>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>45752.48247685185</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" s="2" t="inlineStr"/>
+    </row>
+    <row r="184" ht="15" customHeight="1">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>A 16569-2025</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>45752.46914351852</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" s="2" t="inlineStr"/>
+    </row>
+    <row r="185" ht="15" customHeight="1">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>A 6222-2024</t>
+        </is>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>45337.64701388889</v>
+      </c>
+      <c r="C185" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" s="2" t="inlineStr"/>
+    </row>
+    <row r="186" ht="15" customHeight="1">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>A 34914-2022</t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C186" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" s="2" t="inlineStr"/>
+    </row>
+    <row r="187" ht="15" customHeight="1">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>A 16821-2025</t>
+        </is>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>45754.64318287037</v>
+      </c>
+      <c r="C187" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" s="2" t="inlineStr"/>
+    </row>
+    <row r="188" ht="15" customHeight="1">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>A 11515-2024</t>
+        </is>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>45372.77957175926</v>
+      </c>
+      <c r="C188" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" s="2" t="inlineStr"/>
+    </row>
+    <row r="189" ht="15" customHeight="1">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>A 2497-2024</t>
+        </is>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C189" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" s="2" t="inlineStr"/>
+    </row>
+    <row r="190" ht="15" customHeight="1">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>A 6690-2023</t>
+        </is>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>44966</v>
+      </c>
+      <c r="C190" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" s="2" t="inlineStr"/>
+    </row>
+    <row r="191" ht="15" customHeight="1">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>A 28791-2024</t>
+        </is>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>45478.613125</v>
+      </c>
+      <c r="C191" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R191" s="2" t="inlineStr"/>
+    </row>
+    <row r="192" ht="15" customHeight="1">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>A 9892-2025</t>
+        </is>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>45716.70597222223</v>
+      </c>
+      <c r="C192" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R192" s="2" t="inlineStr"/>
+    </row>
+    <row r="193" ht="15" customHeight="1">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>A 11281-2024</t>
+        </is>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>45371.71887731482</v>
+      </c>
+      <c r="C193" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>2</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R193" s="2" t="inlineStr"/>
+    </row>
+    <row r="194" ht="15" customHeight="1">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>A 4356-2023</t>
+        </is>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>44954.60174768518</v>
+      </c>
+      <c r="C194" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>3</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" s="2" t="inlineStr"/>
+    </row>
+    <row r="195" ht="15" customHeight="1">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>A 11457-2023</t>
+        </is>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>44993.58428240741</v>
+      </c>
+      <c r="C195" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R195" s="2" t="inlineStr"/>
+    </row>
+    <row r="196" ht="15" customHeight="1">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>A 6194-2023</t>
+        </is>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>44964</v>
+      </c>
+      <c r="C196" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>6</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R196" s="2" t="inlineStr"/>
+    </row>
+    <row r="197" ht="15" customHeight="1">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>A 23128-2024</t>
+        </is>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>45450.61440972222</v>
+      </c>
+      <c r="C197" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" s="2" t="inlineStr"/>
+    </row>
+    <row r="198" ht="15" customHeight="1">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>A 7181-2023</t>
+        </is>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C198" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>2</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" s="2" t="inlineStr"/>
+      <c r="U198">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="V167">
+      <c r="V198">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="W167">
+      <c r="W198">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="X167">
+      <c r="X198">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
         <v/>
       </c>
-      <c r="Y167">
+      <c r="Y198">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="168" ht="15" customHeight="1">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>A 4355-2023</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>44954.598125</v>
-      </c>
-      <c r="C168" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>0</v>
-      </c>
-      <c r="M168" t="n">
-        <v>0</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0</v>
-      </c>
-      <c r="O168" t="n">
-        <v>0</v>
-      </c>
-      <c r="P168" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>0</v>
-      </c>
-      <c r="R168" s="2" t="inlineStr"/>
-    </row>
-    <row r="169" ht="15" customHeight="1">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>A 22110-2021</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>44323.6992824074</v>
-      </c>
-      <c r="C169" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0</v>
-      </c>
-      <c r="M169" t="n">
-        <v>0</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0</v>
-      </c>
-      <c r="O169" t="n">
-        <v>0</v>
-      </c>
-      <c r="P169" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>0</v>
-      </c>
-      <c r="R169" s="2" t="inlineStr"/>
-    </row>
-    <row r="170" ht="15" customHeight="1">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>A 2497-2024</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>45313</v>
-      </c>
-      <c r="C170" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0</v>
-      </c>
-      <c r="M170" t="n">
-        <v>0</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O170" t="n">
-        <v>0</v>
-      </c>
-      <c r="P170" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>0</v>
-      </c>
-      <c r="R170" s="2" t="inlineStr"/>
-    </row>
-    <row r="171" ht="15" customHeight="1">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>A 12420-2025</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>45730.45248842592</v>
-      </c>
-      <c r="C171" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>0</v>
-      </c>
-      <c r="M171" t="n">
-        <v>0</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0</v>
-      </c>
-      <c r="O171" t="n">
-        <v>0</v>
-      </c>
-      <c r="P171" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>0</v>
-      </c>
-      <c r="R171" s="2" t="inlineStr"/>
-    </row>
-    <row r="172" ht="15" customHeight="1">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>A 14743-2022</t>
-        </is>
-      </c>
-      <c r="B172" s="1" t="n">
-        <v>44656.37567129629</v>
-      </c>
-      <c r="C172" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0</v>
-      </c>
-      <c r="L172" t="n">
-        <v>0</v>
-      </c>
-      <c r="M172" t="n">
-        <v>0</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0</v>
-      </c>
-      <c r="P172" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>0</v>
-      </c>
-      <c r="R172" s="2" t="inlineStr"/>
-    </row>
-    <row r="173" ht="15" customHeight="1">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>A 14748-2022</t>
-        </is>
-      </c>
-      <c r="B173" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="C173" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0</v>
-      </c>
-      <c r="M173" t="n">
-        <v>0</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0</v>
-      </c>
-      <c r="P173" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>0</v>
-      </c>
-      <c r="R173" s="2" t="inlineStr"/>
-    </row>
-    <row r="174" ht="15" customHeight="1">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>A 39353-2022</t>
-        </is>
-      </c>
-      <c r="B174" s="1" t="n">
-        <v>44817</v>
-      </c>
-      <c r="C174" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0</v>
-      </c>
-      <c r="M174" t="n">
-        <v>0</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0</v>
-      </c>
-      <c r="O174" t="n">
-        <v>0</v>
-      </c>
-      <c r="P174" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q174" t="n">
-        <v>0</v>
-      </c>
-      <c r="R174" s="2" t="inlineStr"/>
-    </row>
-    <row r="175" ht="15" customHeight="1">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>A 57025-2022</t>
-        </is>
-      </c>
-      <c r="B175" s="1" t="n">
-        <v>44895</v>
-      </c>
-      <c r="C175" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0</v>
-      </c>
-      <c r="P175" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q175" t="n">
-        <v>0</v>
-      </c>
-      <c r="R175" s="2" t="inlineStr"/>
-    </row>
-    <row r="176" ht="15" customHeight="1">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>A 23789-2024</t>
-        </is>
-      </c>
-      <c r="B176" s="1" t="n">
-        <v>45455.42549768519</v>
-      </c>
-      <c r="C176" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0</v>
-      </c>
-      <c r="L176" t="n">
-        <v>0</v>
-      </c>
-      <c r="M176" t="n">
-        <v>0</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0</v>
-      </c>
-      <c r="O176" t="n">
-        <v>0</v>
-      </c>
-      <c r="P176" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q176" t="n">
-        <v>0</v>
-      </c>
-      <c r="R176" s="2" t="inlineStr"/>
-    </row>
-    <row r="177" ht="15" customHeight="1">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>A 1489-2024</t>
-        </is>
-      </c>
-      <c r="B177" s="1" t="n">
-        <v>45305</v>
-      </c>
-      <c r="C177" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0</v>
-      </c>
-      <c r="L177" t="n">
-        <v>0</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0</v>
-      </c>
-      <c r="O177" t="n">
-        <v>0</v>
-      </c>
-      <c r="P177" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q177" t="n">
-        <v>0</v>
-      </c>
-      <c r="R177" s="2" t="inlineStr"/>
-    </row>
-    <row r="178" ht="15" customHeight="1">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>A 52385-2022</t>
-        </is>
-      </c>
-      <c r="B178" s="1" t="n">
-        <v>44869</v>
-      </c>
-      <c r="C178" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0</v>
-      </c>
-      <c r="L178" t="n">
-        <v>0</v>
-      </c>
-      <c r="M178" t="n">
-        <v>0</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0</v>
-      </c>
-      <c r="O178" t="n">
-        <v>0</v>
-      </c>
-      <c r="P178" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q178" t="n">
-        <v>0</v>
-      </c>
-      <c r="R178" s="2" t="inlineStr"/>
-    </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>A 2293-2025</t>
-        </is>
-      </c>
-      <c r="B179" s="1" t="n">
-        <v>45673.59221064814</v>
-      </c>
-      <c r="C179" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0</v>
-      </c>
-      <c r="M179" t="n">
-        <v>0</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0</v>
-      </c>
-      <c r="O179" t="n">
-        <v>0</v>
-      </c>
-      <c r="P179" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>0</v>
-      </c>
-      <c r="R179" s="2" t="inlineStr"/>
-    </row>
-    <row r="180" ht="15" customHeight="1">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>A 2294-2025</t>
-        </is>
-      </c>
-      <c r="B180" s="1" t="n">
-        <v>45673.59290509259</v>
-      </c>
-      <c r="C180" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0</v>
-      </c>
-      <c r="M180" t="n">
-        <v>0</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0</v>
-      </c>
-      <c r="P180" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q180" t="n">
-        <v>0</v>
-      </c>
-      <c r="R180" s="2" t="inlineStr"/>
-    </row>
-    <row r="181" ht="15" customHeight="1">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>A 56145-2022</t>
-        </is>
-      </c>
-      <c r="B181" s="1" t="n">
-        <v>44889</v>
-      </c>
-      <c r="C181" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0</v>
-      </c>
-      <c r="M181" t="n">
-        <v>0</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0</v>
-      </c>
-      <c r="P181" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>0</v>
-      </c>
-      <c r="R181" s="2" t="inlineStr"/>
-    </row>
-    <row r="182" ht="15" customHeight="1">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>A 62232-2022</t>
-        </is>
-      </c>
-      <c r="B182" s="1" t="n">
-        <v>44922</v>
-      </c>
-      <c r="C182" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0</v>
-      </c>
-      <c r="M182" t="n">
-        <v>0</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0</v>
-      </c>
-      <c r="P182" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>0</v>
-      </c>
-      <c r="R182" s="2" t="inlineStr"/>
-    </row>
-    <row r="183" ht="15" customHeight="1">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>A 57195-2024</t>
-        </is>
-      </c>
-      <c r="B183" s="1" t="n">
-        <v>45629.47</v>
-      </c>
-      <c r="C183" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0</v>
-      </c>
-      <c r="M183" t="n">
-        <v>0</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0</v>
-      </c>
-      <c r="P183" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q183" t="n">
-        <v>0</v>
-      </c>
-      <c r="R183" s="2" t="inlineStr"/>
-    </row>
-    <row r="184" ht="15" customHeight="1">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>A 4356-2023</t>
-        </is>
-      </c>
-      <c r="B184" s="1" t="n">
-        <v>44954.60174768518</v>
-      </c>
-      <c r="C184" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>3</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0</v>
-      </c>
-      <c r="M184" t="n">
-        <v>0</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0</v>
-      </c>
-      <c r="P184" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>0</v>
-      </c>
-      <c r="R184" s="2" t="inlineStr"/>
-    </row>
-    <row r="185" ht="15" customHeight="1">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>A 4359-2023</t>
-        </is>
-      </c>
-      <c r="B185" s="1" t="n">
-        <v>44954.69856481482</v>
-      </c>
-      <c r="C185" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0</v>
-      </c>
-      <c r="L185" t="n">
-        <v>0</v>
-      </c>
-      <c r="M185" t="n">
-        <v>0</v>
-      </c>
-      <c r="N185" t="n">
-        <v>0</v>
-      </c>
-      <c r="O185" t="n">
-        <v>0</v>
-      </c>
-      <c r="P185" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q185" t="n">
-        <v>0</v>
-      </c>
-      <c r="R185" s="2" t="inlineStr"/>
-    </row>
-    <row r="186" ht="15" customHeight="1">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>A 12273-2023</t>
-        </is>
-      </c>
-      <c r="B186" s="1" t="n">
-        <v>44998</v>
-      </c>
-      <c r="C186" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L186" t="n">
-        <v>0</v>
-      </c>
-      <c r="M186" t="n">
-        <v>0</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0</v>
-      </c>
-      <c r="O186" t="n">
-        <v>0</v>
-      </c>
-      <c r="P186" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q186" t="n">
-        <v>0</v>
-      </c>
-      <c r="R186" s="2" t="inlineStr"/>
-    </row>
-    <row r="187" ht="15" customHeight="1">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>A 50297-2022</t>
-        </is>
-      </c>
-      <c r="B187" s="1" t="n">
-        <v>44865.92474537037</v>
-      </c>
-      <c r="C187" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0</v>
-      </c>
-      <c r="L187" t="n">
-        <v>0</v>
-      </c>
-      <c r="M187" t="n">
-        <v>0</v>
-      </c>
-      <c r="N187" t="n">
-        <v>0</v>
-      </c>
-      <c r="O187" t="n">
-        <v>0</v>
-      </c>
-      <c r="P187" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q187" t="n">
-        <v>0</v>
-      </c>
-      <c r="R187" s="2" t="inlineStr"/>
-    </row>
-    <row r="188" ht="15" customHeight="1">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>A 11457-2023</t>
-        </is>
-      </c>
-      <c r="B188" s="1" t="n">
-        <v>44993.58428240741</v>
-      </c>
-      <c r="C188" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0</v>
-      </c>
-      <c r="L188" t="n">
-        <v>0</v>
-      </c>
-      <c r="M188" t="n">
-        <v>0</v>
-      </c>
-      <c r="N188" t="n">
-        <v>0</v>
-      </c>
-      <c r="O188" t="n">
-        <v>0</v>
-      </c>
-      <c r="P188" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q188" t="n">
-        <v>0</v>
-      </c>
-      <c r="R188" s="2" t="inlineStr"/>
-    </row>
-    <row r="189" ht="15" customHeight="1">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>A 56876-2023</t>
-        </is>
-      </c>
-      <c r="B189" s="1" t="n">
-        <v>45244</v>
-      </c>
-      <c r="C189" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L189" t="n">
-        <v>0</v>
-      </c>
-      <c r="M189" t="n">
-        <v>0</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0</v>
-      </c>
-      <c r="O189" t="n">
-        <v>0</v>
-      </c>
-      <c r="P189" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q189" t="n">
-        <v>0</v>
-      </c>
-      <c r="R189" s="2" t="inlineStr"/>
-    </row>
-    <row r="190" ht="15" customHeight="1">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>A 7268-2025</t>
-        </is>
-      </c>
-      <c r="B190" s="1" t="n">
-        <v>45702.60103009259</v>
-      </c>
-      <c r="C190" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0</v>
-      </c>
-      <c r="L190" t="n">
-        <v>0</v>
-      </c>
-      <c r="M190" t="n">
-        <v>0</v>
-      </c>
-      <c r="N190" t="n">
-        <v>0</v>
-      </c>
-      <c r="O190" t="n">
-        <v>0</v>
-      </c>
-      <c r="P190" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q190" t="n">
-        <v>0</v>
-      </c>
-      <c r="R190" s="2" t="inlineStr"/>
-    </row>
-    <row r="191" ht="15" customHeight="1">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>A 24568-2023</t>
-        </is>
-      </c>
-      <c r="B191" s="1" t="n">
-        <v>45083.5209837963</v>
-      </c>
-      <c r="C191" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0</v>
-      </c>
-      <c r="L191" t="n">
-        <v>0</v>
-      </c>
-      <c r="M191" t="n">
-        <v>0</v>
-      </c>
-      <c r="N191" t="n">
-        <v>0</v>
-      </c>
-      <c r="O191" t="n">
-        <v>0</v>
-      </c>
-      <c r="P191" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q191" t="n">
-        <v>0</v>
-      </c>
-      <c r="R191" s="2" t="inlineStr"/>
-    </row>
-    <row r="192" ht="15" customHeight="1">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>A 1794-2023</t>
-        </is>
-      </c>
-      <c r="B192" s="1" t="n">
-        <v>44938.6234837963</v>
-      </c>
-      <c r="C192" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0</v>
-      </c>
-      <c r="L192" t="n">
-        <v>0</v>
-      </c>
-      <c r="M192" t="n">
-        <v>0</v>
-      </c>
-      <c r="N192" t="n">
-        <v>0</v>
-      </c>
-      <c r="O192" t="n">
-        <v>0</v>
-      </c>
-      <c r="P192" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q192" t="n">
-        <v>0</v>
-      </c>
-      <c r="R192" s="2" t="inlineStr"/>
-    </row>
-    <row r="193" ht="15" customHeight="1">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>A 34914-2022</t>
-        </is>
-      </c>
-      <c r="B193" s="1" t="n">
-        <v>44796</v>
-      </c>
-      <c r="C193" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>0</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0</v>
-      </c>
-      <c r="L193" t="n">
-        <v>0</v>
-      </c>
-      <c r="M193" t="n">
-        <v>0</v>
-      </c>
-      <c r="N193" t="n">
-        <v>0</v>
-      </c>
-      <c r="O193" t="n">
-        <v>0</v>
-      </c>
-      <c r="P193" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q193" t="n">
-        <v>0</v>
-      </c>
-      <c r="R193" s="2" t="inlineStr"/>
-    </row>
-    <row r="194" ht="15" customHeight="1">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>A 14742-2022</t>
-        </is>
-      </c>
-      <c r="B194" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="C194" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" t="n">
-        <v>0</v>
-      </c>
-      <c r="M194" t="n">
-        <v>0</v>
-      </c>
-      <c r="N194" t="n">
-        <v>0</v>
-      </c>
-      <c r="O194" t="n">
-        <v>0</v>
-      </c>
-      <c r="P194" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q194" t="n">
-        <v>0</v>
-      </c>
-      <c r="R194" s="2" t="inlineStr"/>
-    </row>
-    <row r="195" ht="15" customHeight="1">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>A 14745-2022</t>
-        </is>
-      </c>
-      <c r="B195" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="C195" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
-        <v>1</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R195" s="2" t="inlineStr"/>
-    </row>
-    <row r="196" ht="15" customHeight="1">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>A 26757-2024</t>
-        </is>
-      </c>
-      <c r="B196" s="1" t="n">
-        <v>45469</v>
-      </c>
-      <c r="C196" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>0</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0</v>
-      </c>
-      <c r="L196" t="n">
-        <v>0</v>
-      </c>
-      <c r="M196" t="n">
-        <v>0</v>
-      </c>
-      <c r="N196" t="n">
-        <v>0</v>
-      </c>
-      <c r="O196" t="n">
-        <v>0</v>
-      </c>
-      <c r="P196" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q196" t="n">
-        <v>0</v>
-      </c>
-      <c r="R196" s="2" t="inlineStr"/>
-    </row>
-    <row r="197" ht="15" customHeight="1">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>A 42872-2022</t>
-        </is>
-      </c>
-      <c r="B197" s="1" t="n">
-        <v>44832</v>
-      </c>
-      <c r="C197" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>0</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0</v>
-      </c>
-      <c r="L197" t="n">
-        <v>0</v>
-      </c>
-      <c r="M197" t="n">
-        <v>0</v>
-      </c>
-      <c r="N197" t="n">
-        <v>0</v>
-      </c>
-      <c r="O197" t="n">
-        <v>0</v>
-      </c>
-      <c r="P197" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q197" t="n">
-        <v>0</v>
-      </c>
-      <c r="R197" s="2" t="inlineStr"/>
-    </row>
-    <row r="198" ht="15" customHeight="1">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>A 3775-2024</t>
-        </is>
-      </c>
-      <c r="B198" s="1" t="n">
-        <v>45321</v>
-      </c>
-      <c r="C198" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0</v>
-      </c>
-      <c r="L198" t="n">
-        <v>0</v>
-      </c>
-      <c r="M198" t="n">
-        <v>0</v>
-      </c>
-      <c r="N198" t="n">
-        <v>0</v>
-      </c>
-      <c r="O198" t="n">
-        <v>0</v>
-      </c>
-      <c r="P198" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q198" t="n">
-        <v>0</v>
-      </c>
-      <c r="R198" s="2" t="inlineStr"/>
-    </row>
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 40661-2023</t>
+          <t>A 28605-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45170</v>
+        <v>45103.5830787037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12295,14 +12295,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 15489-2024</t>
+          <t>A 71048-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45401</v>
+        <v>44538</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12352,14 +12352,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 11117-2023</t>
+          <t>A 11075-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44992.45543981482</v>
+        <v>44260</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12409,14 +12409,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 11282-2024</t>
+          <t>A 51118-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45371.72210648148</v>
+        <v>45219</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12466,14 +12466,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 16465-2025</t>
+          <t>A 56876-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45751.53894675926</v>
+        <v>45244</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12523,14 +12523,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 51118-2023</t>
+          <t>A 24568-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45219</v>
+        <v>45083.5209837963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12580,14 +12580,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 3946-2023</t>
+          <t>A 23789-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44952.37013888889</v>
+        <v>45455.42549768519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12637,14 +12637,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 47860-2023</t>
+          <t>A 4359-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45204</v>
+        <v>44954.69856481482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12694,14 +12694,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 23128-2024</t>
+          <t>A 6208-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45450.61440972222</v>
+        <v>44964.8028587963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12751,14 +12751,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 10742-2025</t>
+          <t>A 17007-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45722.41454861111</v>
+        <v>45755.54241898148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12808,14 +12808,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 15189-2023</t>
+          <t>A 17011-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45016.70493055556</v>
+        <v>45755.54761574074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12865,14 +12865,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 16571-2025</t>
+          <t>A 22270-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45752.47685185185</v>
+        <v>45446</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12922,14 +12922,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 58712-2023</t>
+          <t>A 2642-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45251</v>
+        <v>45676.46021990741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12979,14 +12979,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 16349-2022</t>
+          <t>A 22110-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44670</v>
+        <v>44323.6992824074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13036,14 +13036,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 11281-2024</t>
+          <t>A 27549-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45371.71887731482</v>
+        <v>44742.8079050926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13093,14 +13093,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 57423-2023</t>
+          <t>A 20671-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45246.22380787037</v>
+        <v>44700.65571759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13150,14 +13150,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 16572-2025</t>
+          <t>A 3946-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45752.48247685185</v>
+        <v>44952.37013888889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13207,14 +13207,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 64387-2023</t>
+          <t>A 55295-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45280.58269675926</v>
+        <v>45621</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13264,14 +13264,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 4252-2024</t>
+          <t>A 55296-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45324.48243055555</v>
+        <v>45621</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35828-2024</t>
+          <t>A 7365-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45532.67104166667</v>
+        <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -778,22 +778,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -802,142 +802,142 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 35828-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45532.67104166667</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Ask
 Svinrot</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 35828-2024 artfynd.xlsx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 35828-2024 karta.png", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 35828-2024 FSC-klagomål.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 35828-2024 FSC-klagomål mail.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 35828-2024 tillsynsbegäran.docx", "A 35828-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 35828-2024 tillsynsbegäran mail.docx", "A 35828-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 7365-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44971</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 7365-2023 artfynd.xlsx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 7365-2023 karta.png", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7365-2023 FSC-klagomål.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7365-2023 FSC-klagomål mail.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7365-2023 tillsynsbegäran.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7365-2023 tillsynsbegäran mail.docx", "A 7365-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 44654-2023</t>
+          <t>A 45507-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45189</v>
+        <v>45578</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -949,25 +949,20 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -982,38 +977,42 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Igelkott</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 44654-2023 artfynd.xlsx", "A 44654-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 44654-2023 karta.png", "A 44654-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
         <v/>
       </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
+        <v/>
+      </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 44654-2023 FSC-klagomål.docx", "A 44654-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 44654-2023 FSC-klagomål mail.docx", "A 44654-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 44654-2023 tillsynsbegäran.docx", "A 44654-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 44654-2023 tillsynsbegäran mail.docx", "A 44654-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
         <v/>
       </c>
     </row>
@@ -1027,7 +1026,7 @@
         <v>45832.5953125</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1111,7 @@
         <v>45401</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1199,14 +1198,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 56244-2022</t>
+          <t>A 16446-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44890</v>
+        <v>45751.50320601852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1218,19 +1217,14 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>11.7</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1258,300 +1252,305 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Dvärghäxört</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 17410-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45414.89228009259</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Mörk husmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 56244-2022</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 56244-2022 artfynd.xlsx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 56244-2022 karta.png", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 56244-2022 FSC-klagomål.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 56244-2022 FSC-klagomål mail.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 56244-2022 tillsynsbegäran.docx", "A 56244-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 56244-2022 tillsynsbegäran mail.docx", "A 56244-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 13882-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45007</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MULLSJÖ</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>2.4</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 13882-2023 artfynd.xlsx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 13882-2023 karta.png", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 13882-2023 FSC-klagomål.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 13882-2023 FSC-klagomål mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 13882-2023 tillsynsbegäran.docx", "A 13882-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 13882-2023 tillsynsbegäran mail.docx", "A 13882-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 17410-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45414.89228009259</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mörk husmossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 17410-2024 artfynd.xlsx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 17410-2024 karta.png", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 17410-2024 FSC-klagomål.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 17410-2024 FSC-klagomål mail.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 17410-2024 tillsynsbegäran.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 17410-2024 tillsynsbegäran mail.docx", "A 17410-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 16446-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45751.50320601852</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>JÖNKÖPINGS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MULLSJÖ</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Dvärghäxört</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 16446-2025 artfynd.xlsx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 16446-2025 karta.png", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 16446-2025 FSC-klagomål.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 16446-2025 FSC-klagomål mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 16446-2025 tillsynsbegäran.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 16446-2025 tillsynsbegäran mail.docx", "A 16446-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 45507-2024</t>
+          <t>A 44654-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45578</v>
+        <v>45189</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,20 +1562,25 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1591,42 +1595,38 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Igelkott</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 45507-2024 artfynd.xlsx", "A 45507-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/artfynd/A 44654-2023 artfynd.xlsx", "A 44654-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 45507-2024 karta.png", "A 45507-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/kartor/A 44654-2023 karta.png", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 45507-2024 karta knärot.png", "A 45507-2024")</f>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 44654-2023 FSC-klagomål.docx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 45507-2024 FSC-klagomål.docx", "A 45507-2024")</f>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 44654-2023 FSC-klagomål mail.docx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 45507-2024 FSC-klagomål mail.docx", "A 45507-2024")</f>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 44654-2023 tillsynsbegäran.docx", "A 44654-2023")</f>
         <v/>
       </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 45507-2024 tillsynsbegäran.docx", "A 45507-2024")</f>
-        <v/>
-      </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 45507-2024 tillsynsbegäran mail.docx", "A 45507-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 44654-2023 tillsynsbegäran mail.docx", "A 44654-2023")</f>
         <v/>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1861,14 +1861,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 55897-2021</t>
+          <t>A 24817-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44476.84085648148</v>
+        <v>44340.69202546297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1918,14 +1918,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24817-2021</t>
+          <t>A 55897-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44340.69202546297</v>
+        <v>44476.84085648148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>44516</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44817</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44456</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44476.83903935185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44433.46096064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44469.44841435185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44412.36203703703</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44340.68202546296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44620</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44854</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44607</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44707.73799768519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44665</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3358,14 +3358,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7278-2025</t>
+          <t>A 14230-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45702.63168981481</v>
+        <v>45393</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10206-2025</t>
+          <t>A 35245-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45719</v>
+        <v>45145.88599537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 48096-2025</t>
+          <t>A 3837-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45933.30746527778</v>
+        <v>45682.66153935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 39353-2022</t>
+          <t>A 37797-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44817</v>
+        <v>45543.54533564814</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 48095-2025</t>
+          <t>A 37798-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45933.30634259259</v>
+        <v>45543.54836805556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7268-2025</t>
+          <t>A 21687-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45702.60103009259</v>
+        <v>44707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3700,14 +3700,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 64387-2023</t>
+          <t>A 28791-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45280.58269675926</v>
+        <v>45478.613125</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 4252-2024</t>
+          <t>A 71048-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45324.48243055555</v>
+        <v>44538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3814,14 +3814,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 49024-2025</t>
+          <t>A 6210-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45937.61747685185</v>
+        <v>44964.80734953703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3871,14 +3871,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 39590-2025</t>
+          <t>A 6212-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45890.52939814814</v>
+        <v>44964.81168981481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3928,14 +3928,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 4957-2022</t>
+          <t>A 49734-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44593</v>
+        <v>45596.84884259259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3985,14 +3985,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46006-2022</t>
+          <t>A 33875-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44846</v>
+        <v>45521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4042,14 +4042,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11227-2025</t>
+          <t>A 59503-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45726.34702546296</v>
+        <v>45638.55125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4099,14 +4099,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42872-2022</t>
+          <t>A 39988-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44832</v>
+        <v>45553.62432870371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4156,14 +4156,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23787-2024</t>
+          <t>A 24566-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45455.42315972222</v>
+        <v>45083.51130787037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>13.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4213,14 +4213,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 49025-2025</t>
+          <t>A 6690-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45937.61915509259</v>
+        <v>44966</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4270,14 +4270,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 29527-2024</t>
+          <t>A 16821-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45484.46942129629</v>
+        <v>45754.64318287037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6209-2023</t>
+          <t>A 40157-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44964.80540509259</v>
+        <v>45169.36275462963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 57025-2022</t>
+          <t>A 7817-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44895</v>
+        <v>45349</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>8.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48911-2025</t>
+          <t>A 35113-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45937</v>
+        <v>45529.83986111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49779-2025</t>
+          <t>A 16467-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45940.386875</v>
+        <v>45751.54304398148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 6210-2023</t>
+          <t>A 30641-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44964.80734953703</v>
+        <v>45495.57349537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6212-2023</t>
+          <t>A 16813-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44964.81168981481</v>
+        <v>45754.63344907408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 6214-2023</t>
+          <t>A 4438-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44964.81380787037</v>
+        <v>45686.51674768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4726,14 +4726,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42155-2025</t>
+          <t>A 28940-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45904.40079861111</v>
+        <v>45820</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,13 +4745,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>0.4</v>
+        <v>7.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4788,14 +4783,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 52385-2022</t>
+          <t>A 28941-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44869</v>
+        <v>45820</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4808,7 +4803,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>10.9</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4845,14 +4840,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26757-2024</t>
+          <t>A 28942-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45469</v>
+        <v>45820</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4865,7 +4860,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4902,14 +4897,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 12423-2025</t>
+          <t>A 27549-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45730.45483796296</v>
+        <v>44742.8079050926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4922,7 +4917,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4959,14 +4954,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35113-2024</t>
+          <t>A 16569-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45529.83986111111</v>
+        <v>45752.46914351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4979,7 +4974,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>10.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5016,14 +5011,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14033-2025</t>
+          <t>A 5832-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45740.36262731482</v>
+        <v>45694.84364583333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5036,7 +5031,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5073,14 +5068,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24440-2025</t>
+          <t>A 39590-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45797.82753472222</v>
+        <v>45890.52939814814</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5093,7 +5088,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5130,14 +5125,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 24439-2025</t>
+          <t>A 7278-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45797.82457175926</v>
+        <v>45702.63168981481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5150,7 +5145,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5187,14 +5182,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39988-2024</t>
+          <t>A 11227-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45553.62432870371</v>
+        <v>45726.34702546296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5207,7 +5202,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5244,14 +5239,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 52321-2025</t>
+          <t>A 19107-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45953.66415509259</v>
+        <v>45048.45601851852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5264,7 +5259,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5301,14 +5296,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14029-2025</t>
+          <t>A 32099-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45740.35556712963</v>
+        <v>45835.46706018518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5321,7 +5316,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5358,14 +5353,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56145-2022</t>
+          <t>A 6196-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44889</v>
+        <v>44964.73979166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5378,7 +5373,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>14.1</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5415,14 +5410,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 43134-2025</t>
+          <t>A 6208-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45909.83324074074</v>
+        <v>44964.8028587963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5435,7 +5430,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5472,14 +5467,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 53538-2025</t>
+          <t>A 58378-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45959</v>
+        <v>45632.81232638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5492,7 +5487,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5529,14 +5524,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 33875-2024</t>
+          <t>A 32856-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45521</v>
+        <v>45839.57771990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5549,7 +5544,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5586,14 +5581,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 6196-2023</t>
+          <t>A 42155-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44964.73979166667</v>
+        <v>45904.40079861111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5605,8 +5600,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5643,14 +5643,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25863-2025</t>
+          <t>A 43134-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45804.47696759259</v>
+        <v>45909.83324074074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5700,14 +5700,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 55693-2025</t>
+          <t>A 49733-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45972.43956018519</v>
+        <v>45596.84603009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>15.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5757,14 +5757,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3775-2024</t>
+          <t>A 39990-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45321</v>
+        <v>45553.62622685185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5814,14 +5814,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57500-2022</t>
+          <t>A 14226-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44896.63857638889</v>
+        <v>45393</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5871,14 +5871,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14226-2024</t>
+          <t>A 55293-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45393</v>
+        <v>45621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5928,14 +5928,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 56310-2025</t>
+          <t>A 55295-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45974.62328703704</v>
+        <v>45621</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5985,14 +5985,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26397-2025</t>
+          <t>A 55296-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45807</v>
+        <v>45621</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6042,14 +6042,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46533-2025</t>
+          <t>A 57500-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45926.34030092593</v>
+        <v>44896.63857638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6099,14 +6099,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56373-2025</t>
+          <t>A 2642-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45974.68520833334</v>
+        <v>45676.46021990741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6156,14 +6156,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46539-2025</t>
+          <t>A 46536-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45926.34392361111</v>
+        <v>45926.34168981481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6213,14 +6213,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27413-2025</t>
+          <t>A 46539-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45812.84489583333</v>
+        <v>45926.34392361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6270,14 +6270,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27414-2025</t>
+          <t>A 46533-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45812.84578703704</v>
+        <v>45926.34030092593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6327,14 +6327,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46536-2025</t>
+          <t>A 46848-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45926.34168981481</v>
+        <v>45928.71738425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6384,14 +6384,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46848-2025</t>
+          <t>A 20671-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45928.71738425926</v>
+        <v>44700.65571759259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6441,14 +6441,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7821-2024</t>
+          <t>A 6222-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45349</v>
+        <v>45337.64701388889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6498,14 +6498,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 7823-2024</t>
+          <t>A 37131-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45349</v>
+        <v>45875.54335648148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6555,14 +6555,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 28942-2025</t>
+          <t>A 37133-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45820</v>
+        <v>45875.54409722222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6612,14 +6612,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28940-2025</t>
+          <t>A 48096-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45820</v>
+        <v>45933.30746527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.7</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6669,14 +6669,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28941-2025</t>
+          <t>A 37427-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45820</v>
+        <v>45877.49123842592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6726,14 +6726,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16349-2022</t>
+          <t>A 37424-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44670</v>
+        <v>45877.4903125</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6783,14 +6783,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 39990-2024</t>
+          <t>A 48095-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45553.62622685185</v>
+        <v>45933.30634259259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6840,14 +6840,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14743-2022</t>
+          <t>A 7821-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44656.37567129629</v>
+        <v>45349</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6897,14 +6897,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 14748-2022</t>
+          <t>A 7823-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44656</v>
+        <v>45349</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6954,14 +6954,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 62232-2022</t>
+          <t>A 48911-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44922</v>
+        <v>45937</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7011,14 +7011,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32099-2025</t>
+          <t>A 49024-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45835.46706018518</v>
+        <v>45937.61747685185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7068,14 +7068,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32856-2025</t>
+          <t>A 49025-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45839.57771990741</v>
+        <v>45937.61915509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7125,14 +7125,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 21687-2022</t>
+          <t>A 22270-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44707</v>
+        <v>45446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7182,14 +7182,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 58356-2025</t>
+          <t>A 49779-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45985.5115162037</v>
+        <v>45940.386875</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7239,14 +7239,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 49733-2024</t>
+          <t>A 6194-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45596.84603009259</v>
+        <v>44964</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>15.1</v>
+        <v>6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7296,14 +7296,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 58712-2023</t>
+          <t>A 6214-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45251</v>
+        <v>44964.81380787037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7353,14 +7353,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 12273-2023</t>
+          <t>A 49925-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44998</v>
+        <v>45214.86449074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7410,14 +7410,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1394-2026</t>
+          <t>A 28605-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46031.63753472222</v>
+        <v>45103.5830787037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7467,14 +7467,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1384-2026</t>
+          <t>A 52321-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46031.62291666667</v>
+        <v>45953.66415509259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7524,14 +7524,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1400-2026</t>
+          <t>A 35244-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46031.6427662037</v>
+        <v>45145.88350694445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7581,14 +7581,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 1347-2026</t>
+          <t>A 17007-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46031.59274305555</v>
+        <v>45755.54241898148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7638,14 +7638,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1221-2026</t>
+          <t>A 17011-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46031.4018287037</v>
+        <v>45755.54761574074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7657,13 +7657,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7700,14 +7695,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 59503-2024</t>
+          <t>A 16567-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45638.55125</v>
+        <v>45752.46074074074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7720,7 +7715,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7757,14 +7752,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8371-2023</t>
+          <t>A 16568-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44977.385625</v>
+        <v>45752.46453703703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7777,7 +7772,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7814,14 +7809,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 8020-2025</t>
+          <t>A 16570-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45707.569375</v>
+        <v>45752.47210648148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7834,7 +7829,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7871,14 +7866,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 37131-2025</t>
+          <t>A 53538-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45875.54335648148</v>
+        <v>45959</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7891,7 +7886,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7928,14 +7923,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37133-2025</t>
+          <t>A 46901-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45875.54409722222</v>
+        <v>45201</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7948,7 +7943,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7985,14 +7980,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 37427-2025</t>
+          <t>A 10207-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45877.49123842592</v>
+        <v>45719</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8005,7 +8000,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8042,14 +8037,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 37424-2025</t>
+          <t>A 40960-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45877.4903125</v>
+        <v>45169</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8062,7 +8057,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8099,14 +8094,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47860-2023</t>
+          <t>A 59349-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45204</v>
+        <v>45638.2815162037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8119,7 +8114,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8156,14 +8151,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 49734-2024</t>
+          <t>A 8371-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45596.84884259259</v>
+        <v>44977.385625</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8176,7 +8171,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8213,14 +8208,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58378-2024</t>
+          <t>A 55693-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45632.81232638889</v>
+        <v>45972.43956018519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8233,7 +8228,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8270,14 +8265,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 5832-2025</t>
+          <t>A 16573-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45694.84364583333</v>
+        <v>45752</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8290,7 +8285,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8327,14 +8322,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55293-2024</t>
+          <t>A 56310-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45621</v>
+        <v>45974.62328703704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8347,7 +8342,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8384,14 +8379,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62586-2025</t>
+          <t>A 11075-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46007.84753472222</v>
+        <v>44260</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8404,7 +8399,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8441,14 +8436,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 16467-2025</t>
+          <t>A 56373-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45751.54304398148</v>
+        <v>45974.68520833334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8461,7 +8456,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8498,14 +8493,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 16573-2025</t>
+          <t>A 8020-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45752</v>
+        <v>45707.569375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8518,7 +8513,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>9.6</v>
+        <v>3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8555,14 +8550,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 40960-2023</t>
+          <t>A 46006-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45169</v>
+        <v>44846</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8575,7 +8570,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8612,14 +8607,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 57423-2023</t>
+          <t>A 16350-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45246.22380787037</v>
+        <v>44670</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8632,7 +8627,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8669,14 +8664,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 15189-2023</t>
+          <t>A 58356-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45016.70493055556</v>
+        <v>45985.5115162037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8689,7 +8684,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8726,14 +8721,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 62956-2025</t>
+          <t>A 2495-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46009</v>
+        <v>45313</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8746,7 +8741,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8783,14 +8778,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 63613-2025</t>
+          <t>A 59332-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46014.34581018519</v>
+        <v>45637.79350694444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8803,7 +8798,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8840,14 +8835,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 15707-2025</t>
+          <t>A 9892-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45748.49090277778</v>
+        <v>45716.70597222223</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8860,7 +8855,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8897,14 +8892,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 16813-2025</t>
+          <t>A 23787-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45754.63344907408</v>
+        <v>45455.42315972222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8917,7 +8912,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8954,14 +8949,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 50297-2022</t>
+          <t>A 10206-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44865.92474537037</v>
+        <v>45719</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8974,7 +8969,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9011,14 +9006,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16567-2025</t>
+          <t>A 16449-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45752.46074074074</v>
+        <v>45751.5106712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9031,7 +9026,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9068,14 +9063,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16568-2025</t>
+          <t>A 11515-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45752.46453703703</v>
+        <v>45372.77957175926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9087,8 +9082,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9125,14 +9125,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16570-2025</t>
+          <t>A 14064-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45752.47210648148</v>
+        <v>45740.41469907408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9182,14 +9182,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 30641-2024</t>
+          <t>A 7181-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45495.57349537037</v>
+        <v>44970</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9201,8 +9201,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9235,18 +9240,38 @@
         <v>0</v>
       </c>
       <c r="R146" s="2" t="inlineStr"/>
+      <c r="U146">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="V146">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="W146">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="X146">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
+      <c r="Y146">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 10742-2025</t>
+          <t>A 62586-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45722.41454861111</v>
+        <v>46007.84753472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9259,7 +9284,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9296,14 +9321,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 2495-2024</t>
+          <t>A 62956-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45313</v>
+        <v>46009</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9316,7 +9341,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9353,14 +9378,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16449-2025</t>
+          <t>A 4355-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45751.5106712963</v>
+        <v>44954.598125</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9373,7 +9398,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9410,14 +9435,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 4355-2023</t>
+          <t>A 22110-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44954.598125</v>
+        <v>44323.6992824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9430,7 +9455,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9467,14 +9492,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 14230-2024</t>
+          <t>A 2497-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45393</v>
+        <v>45313</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9487,7 +9512,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9524,14 +9549,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 11117-2023</t>
+          <t>A 12420-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44992.45543981482</v>
+        <v>45730.45248842592</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9544,7 +9569,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9581,14 +9606,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 1794-2023</t>
+          <t>A 14743-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44938.6234837963</v>
+        <v>44656.37567129629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9601,7 +9626,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9638,14 +9663,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 35245-2023</t>
+          <t>A 14748-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45145.88599537037</v>
+        <v>44656</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9658,7 +9683,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9695,14 +9720,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1489-2024</t>
+          <t>A 15707-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45305</v>
+        <v>45748.49090277778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9715,7 +9740,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9752,14 +9777,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 19107-2023</t>
+          <t>A 63613-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45048.45601851852</v>
+        <v>46014.34581018519</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9772,7 +9797,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9809,14 +9834,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 59349-2024</t>
+          <t>A 39353-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45638.2815162037</v>
+        <v>44817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9829,7 +9854,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9866,14 +9891,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 15489-2024</t>
+          <t>A 57025-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45401</v>
+        <v>44895</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9886,7 +9911,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9923,14 +9948,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37797-2024</t>
+          <t>A 23789-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45543.54533564814</v>
+        <v>45455.42549768519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9943,7 +9968,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9980,14 +10005,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 37798-2024</t>
+          <t>A 1489-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45543.54836805556</v>
+        <v>45305</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10000,7 +10025,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10037,14 +10062,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 16571-2025</t>
+          <t>A 52385-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45752.47685185185</v>
+        <v>44869</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10057,7 +10082,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>10.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10094,14 +10119,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 57195-2024</t>
+          <t>A 2293-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45629.47</v>
+        <v>45673.59221064814</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10113,13 +10138,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10156,14 +10176,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10207-2025</t>
+          <t>A 2294-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45719</v>
+        <v>45673.59290509259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10176,7 +10196,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10213,14 +10233,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 35244-2023</t>
+          <t>A 56145-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45145.88350694445</v>
+        <v>44889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10233,7 +10253,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.9</v>
+        <v>14.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10270,14 +10290,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 7817-2024</t>
+          <t>A 62232-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45349</v>
+        <v>44922</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10290,7 +10310,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>8.9</v>
+        <v>4.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10327,14 +10347,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 46901-2023</t>
+          <t>A 57195-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45201</v>
+        <v>45629.47</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10346,8 +10366,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10384,14 +10409,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 40661-2023</t>
+          <t>A 4356-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45170</v>
+        <v>44954.60174768518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10404,7 +10429,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10441,14 +10466,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 11282-2024</t>
+          <t>A 4359-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45371.72210648148</v>
+        <v>44954.69856481482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10461,7 +10486,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10498,14 +10523,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 3837-2025</t>
+          <t>A 12273-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45682.66153935185</v>
+        <v>44998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10518,7 +10543,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10555,14 +10580,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 12420-2025</t>
+          <t>A 50297-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45730.45248842592</v>
+        <v>44865.92474537037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10575,7 +10600,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10612,14 +10637,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 2293-2025</t>
+          <t>A 1384-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45673.59221064814</v>
+        <v>46031.62291666667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10632,7 +10657,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10669,14 +10694,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2294-2025</t>
+          <t>A 1394-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45673.59290509259</v>
+        <v>46031.63753472222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10689,7 +10714,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10726,14 +10751,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 40157-2023</t>
+          <t>A 1400-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45169.36275462963</v>
+        <v>46031.6427662037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10746,7 +10771,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10783,14 +10808,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 4438-2025</t>
+          <t>A 11457-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45686.51674768519</v>
+        <v>44993.58428240741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10803,7 +10828,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10840,14 +10865,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 14742-2022</t>
+          <t>A 1347-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44656</v>
+        <v>46031.59274305555</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10860,7 +10885,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10897,14 +10922,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 16465-2025</t>
+          <t>A 56876-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45751.53894675926</v>
+        <v>45244</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10917,7 +10942,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10954,14 +10979,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 14745-2022</t>
+          <t>A 1221-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44656</v>
+        <v>46031.4018287037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10973,8 +10998,13 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11011,14 +11041,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 49925-2023</t>
+          <t>A 7268-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45214.86449074074</v>
+        <v>45702.60103009259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11031,7 +11061,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11068,14 +11098,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 59332-2024</t>
+          <t>A 24568-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45637.79350694444</v>
+        <v>45083.5209837963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11088,7 +11118,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11125,14 +11155,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 24566-2023</t>
+          <t>A 1794-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45083.51130787037</v>
+        <v>44938.6234837963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11145,7 +11175,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>13.1</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11182,14 +11212,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 16350-2022</t>
+          <t>A 34914-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44670</v>
+        <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11202,7 +11232,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11239,14 +11269,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 14064-2025</t>
+          <t>A 14742-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45740.41469907408</v>
+        <v>44656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11259,7 +11289,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11296,14 +11326,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 16572-2025</t>
+          <t>A 14745-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45752.48247685185</v>
+        <v>44656</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11316,7 +11346,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11353,14 +11383,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 16569-2025</t>
+          <t>A 26757-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45752.46914351852</v>
+        <v>45469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11373,7 +11403,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>10.5</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11410,14 +11440,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 6222-2024</t>
+          <t>A 42872-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45337.64701388889</v>
+        <v>44832</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11430,7 +11460,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11467,14 +11497,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 34914-2022</t>
+          <t>A 3775-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44796</v>
+        <v>45321</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11487,7 +11517,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11524,14 +11554,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 16821-2025</t>
+          <t>A 40661-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45754.64318287037</v>
+        <v>45170</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11544,7 +11574,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11581,14 +11611,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 11515-2024</t>
+          <t>A 15489-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45372.77957175926</v>
+        <v>45401</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11600,13 +11630,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11643,14 +11668,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2497-2024</t>
+          <t>A 11117-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45313</v>
+        <v>44992.45543981482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11663,7 +11688,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11700,14 +11725,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 6690-2023</t>
+          <t>A 11282-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44966</v>
+        <v>45371.72210648148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11720,7 +11745,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11757,14 +11782,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 28791-2024</t>
+          <t>A 16465-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45478.613125</v>
+        <v>45751.53894675926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11777,7 +11802,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11814,14 +11839,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 9892-2025</t>
+          <t>A 51118-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45716.70597222223</v>
+        <v>45219</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11834,7 +11859,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11871,14 +11896,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 11281-2024</t>
+          <t>A 3946-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45371.71887731482</v>
+        <v>44952.37013888889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11891,7 +11916,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11928,14 +11953,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 4356-2023</t>
+          <t>A 47860-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44954.60174768518</v>
+        <v>45204</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11948,7 +11973,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11985,14 +12010,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 11457-2023</t>
+          <t>A 23128-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44993.58428240741</v>
+        <v>45450.61440972222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12005,7 +12030,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12042,14 +12067,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 6194-2023</t>
+          <t>A 10742-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44964</v>
+        <v>45722.41454861111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12062,7 +12087,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12099,14 +12124,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 23128-2024</t>
+          <t>A 15189-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45450.61440972222</v>
+        <v>45016.70493055556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12119,7 +12144,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12156,14 +12181,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 7181-2023</t>
+          <t>A 16571-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44970</v>
+        <v>45752.47685185185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12175,13 +12200,8 @@
           <t>MULLSJÖ</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12214,38 +12234,18 @@
         <v>0</v>
       </c>
       <c r="R198" s="2" t="inlineStr"/>
-      <c r="U198">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/knärot/A 7181-2023 karta knärot.png", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="V198">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomål/A 7181-2023 FSC-klagomål.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="W198">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/klagomålsmail/A 7181-2023 FSC-klagomål mail.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="X198">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsyn/A 7181-2023 tillsynsbegäran.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
-      <c r="Y198">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0642/tillsynsmail/A 7181-2023 tillsynsbegäran mail.docx", "A 7181-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 28605-2023</t>
+          <t>A 58712-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45103.5830787037</v>
+        <v>45251</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12295,14 +12295,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 71048-2021</t>
+          <t>A 16349-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44538</v>
+        <v>44670</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12352,14 +12352,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 11075-2021</t>
+          <t>A 11281-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44260</v>
+        <v>45371.71887731482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12409,14 +12409,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 51118-2023</t>
+          <t>A 57423-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45219</v>
+        <v>45246.22380787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12466,14 +12466,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 56876-2023</t>
+          <t>A 16572-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45244</v>
+        <v>45752.48247685185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12523,14 +12523,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 24568-2023</t>
+          <t>A 64387-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45083.5209837963</v>
+        <v>45280.58269675926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12580,14 +12580,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 23789-2024</t>
+          <t>A 4252-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45455.42549768519</v>
+        <v>45324.48243055555</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12637,14 +12637,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 4359-2023</t>
+          <t>A 4957-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44954.69856481482</v>
+        <v>44593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12694,14 +12694,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 6208-2023</t>
+          <t>A 29527-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44964.8028587963</v>
+        <v>45484.46942129629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12751,14 +12751,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 17007-2025</t>
+          <t>A 6209-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45755.54241898148</v>
+        <v>44964.80540509259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12808,14 +12808,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 17011-2025</t>
+          <t>A 24440-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45755.54761574074</v>
+        <v>45797.82753472222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12865,14 +12865,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 22270-2024</t>
+          <t>A 12423-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45446</v>
+        <v>45730.45483796296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12922,14 +12922,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2642-2025</t>
+          <t>A 14033-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45676.46021990741</v>
+        <v>45740.36262731482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12979,14 +12979,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 22110-2021</t>
+          <t>A 24439-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44323.6992824074</v>
+        <v>45797.82457175926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13036,14 +13036,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 27549-2022</t>
+          <t>A 14029-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44742.8079050926</v>
+        <v>45740.35556712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13093,14 +13093,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 20671-2022</t>
+          <t>A 25863-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44700.65571759259</v>
+        <v>45804.47696759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13150,14 +13150,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 3946-2023</t>
+          <t>A 26397-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44952.37013888889</v>
+        <v>45807</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13207,14 +13207,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 55295-2024</t>
+          <t>A 27414-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45621</v>
+        <v>45812.84578703704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13264,14 +13264,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 55296-2024</t>
+          <t>A 27413-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45621</v>
+        <v>45812.84489583333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>

--- a/Översikt MULLSJÖ.xlsx
+++ b/Översikt MULLSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45396.71037037037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>45006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44971</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45532.67104166667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>45578</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45832.5953125</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45401</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45751.50320601852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45414.89228009259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44890</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45189</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>44430</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44272</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>44272</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>44476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         <v>44340.69202546297</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>44476.84085648148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44516</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>44516</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44817</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44285.43929398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>44456</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>44476.83903935185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>44433.46096064815</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>44469.44841435185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44412.36203703703</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>44483</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44340.68202546296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>44391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44620</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44854</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44272</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44607</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44649.5895949074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44503</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44707.73799768519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44665</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44707.74184027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45393</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45145.88599537037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45682.66153935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45543.54533564814</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45543.54836805556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44707</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>45478.613125</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44538</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44964.80734953703</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44964.81168981481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>45596.84884259259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>45521</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>45638.55125</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>45553.62432870371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45083.51130787037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44966</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>45754.64318287037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>45169.36275462963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>45349</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>45529.83986111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>45751.54304398148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45495.57349537037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45754.63344907408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>45686.51674768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45820</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45820</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45820</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>44742.8079050926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>45752.46914351852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>45694.84364583333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>45890.52939814814</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>45702.63168981481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45726.34702546296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>45048.45601851852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>45835.46706018518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44964.73979166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44964.8028587963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>45632.81232638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>45839.57771990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>45904.40079861111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>45909.83324074074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>45596.84603009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>45553.62622685185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>45393</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>45621</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>45621</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>45621</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44896.63857638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>45676.46021990741</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>45926.34168981481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>45926.34392361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>45926.34030092593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>45928.71738425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>44700.65571759259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45337.64701388889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         <v>45875.54335648148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         <v>45875.54409722222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>45933.30746527778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>45877.49123842592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>45877.4903125</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>45933.30634259259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         <v>45349</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45349</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>45937</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         <v>45937.61747685185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>45937.61915509259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>45446</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>45940.386875</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>44964</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>44964.81380787037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>45214.86449074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>45103.5830787037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>45953.66415509259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>45145.88350694445</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>45755.54241898148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>45755.54761574074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>45752.46074074074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>45752.46453703703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45752.47210648148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>45959</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>45201</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>45719</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>45169</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         <v>45638.2815162037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8158,7 +8158,7 @@
         <v>44977.385625</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8215,7 +8215,7 @@
         <v>45972.43956018519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>45752</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>45974.62328703704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>44260</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45974.68520833334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>45707.569375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>44846</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>44670</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>45985.5115162037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>45313</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>45637.79350694444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>45716.70597222223</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>45455.42315972222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>45719</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>45751.5106712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>45372.77957175926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9132,7 +9132,7 @@
         <v>45740.41469907408</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>44970</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>46007.84753472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>46009</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>44954.598125</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44323.6992824074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>45313</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         <v>45730.45248842592</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>44656.37567129629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44656</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         <v>45748.49090277778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         <v>46014.34581018519</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9841,7 +9841,7 @@
         <v>44817</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>44895</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>45455.42549768519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>45305</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>44869</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>45673.59221064814</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>45673.59290509259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10240,7 +10240,7 @@
         <v>44889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         <v>44922</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>45629.47</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44954.60174768518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>44954.69856481482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
         <v>44998</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>44865.92474537037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>46031.62291666667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>46031.63753472222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>46031.6427662037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>44993.58428240741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>46031.59274305555</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>45244</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>46031.4018287037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45702.60103009259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45083.5209837963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44938.6234837963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44656</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44656</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45469</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>44832</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>45321</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45170</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>45401</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>44992.45543981482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45371.72210648148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45751.53894675926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>45219</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44952.37013888889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>45204</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>45450.61440972222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>45722.41454861111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>45016.70493055556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>45752.47685185185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>45251</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44670</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>45371.71887731482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>45246.22380787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>45752.48247685185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>45280.58269675926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>45324.48243055555</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>45484.46942129629</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44964.80540509259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45797.82753472222</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>45730.45483796296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>45740.36262731482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45797.82457175926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>45740.35556712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>45804.47696759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>45807</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>45812.84578703704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>45812.84489583333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
